--- a/config_cjj/shoping_config_cjj.xlsx
+++ b/config_cjj/shoping_config_cjj.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3463" uniqueCount="1516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3463" uniqueCount="1517">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -3404,10 +3404,6 @@
   </si>
   <si>
     <t>9800000,300000,50,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20388888,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -6612,6 +6608,14 @@
   </si>
   <si>
     <t>257300000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20400000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_id|首冲对应购买的礼包的id</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7458,8 +7462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7501,7 +7505,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -7510,10 +7514,10 @@
         <v>16</v>
       </c>
       <c r="F1" s="59" t="s">
-        <v>17</v>
+        <v>1516</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>18</v>
@@ -7531,7 +7535,7 @@
         <v>22</v>
       </c>
       <c r="M1" s="45" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>24</v>
@@ -7623,13 +7627,13 @@
         <v>45</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>46</v>
       </c>
       <c r="M2" s="58" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>9</v>
@@ -7706,13 +7710,13 @@
         <v>45</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="M3" s="58" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>9</v>
@@ -7789,13 +7793,13 @@
         <v>45</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>46</v>
       </c>
       <c r="M4" s="58" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>9</v>
@@ -7872,7 +7876,7 @@
         <v>45</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>46</v>
@@ -7955,7 +7959,7 @@
         <v>45</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>46</v>
@@ -8038,7 +8042,7 @@
         <v>45</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>46</v>
@@ -8121,7 +8125,7 @@
         <v>45</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>46</v>
@@ -8204,7 +8208,7 @@
         <v>45</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>46</v>
@@ -8288,13 +8292,13 @@
         <v>45</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>46</v>
       </c>
       <c r="M10" s="58" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="N10" s="11" t="s">
         <v>9</v>
@@ -8374,7 +8378,7 @@
         <v>45</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>46</v>
@@ -8455,7 +8459,7 @@
         <v>45</v>
       </c>
       <c r="K12" s="34" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="L12" s="11" t="s">
         <v>46</v>
@@ -8536,7 +8540,7 @@
         <v>45</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>46</v>
@@ -8617,13 +8621,13 @@
         <v>45</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="L14" s="11" t="s">
         <v>46</v>
       </c>
       <c r="M14" s="58" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="N14" s="11" t="s">
         <v>9</v>
@@ -8698,7 +8702,7 @@
         <v>45</v>
       </c>
       <c r="K15" s="34" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="L15" s="11" t="s">
         <v>46</v>
@@ -8779,13 +8783,13 @@
         <v>45</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L16" s="11" t="s">
         <v>46</v>
       </c>
       <c r="M16" s="58" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="N16" s="11" t="s">
         <v>9</v>
@@ -8882,10 +8886,10 @@
         <v>1</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="X17" s="11" t="s">
         <v>49</v>
@@ -8955,10 +8959,10 @@
         <v>2</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="X18" s="11" t="s">
         <v>49</v>
@@ -9004,7 +9008,7 @@
         <v>46</v>
       </c>
       <c r="M19" s="58" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="N19" s="11" t="s">
         <v>11</v>
@@ -9028,10 +9032,10 @@
         <v>3</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="V19" s="11" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="X19" s="11" t="s">
         <v>49</v>
@@ -9101,10 +9105,10 @@
         <v>4</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="X20" s="11" t="s">
         <v>49</v>
@@ -9150,7 +9154,7 @@
         <v>46</v>
       </c>
       <c r="M21" s="58" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="N21" s="11" t="s">
         <v>11</v>
@@ -9174,10 +9178,10 @@
         <v>5</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="X21" s="11" t="s">
         <v>49</v>
@@ -9247,10 +9251,10 @@
         <v>6</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="V22" s="11" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="X22" s="11" t="s">
         <v>49</v>
@@ -9296,7 +9300,7 @@
         <v>46</v>
       </c>
       <c r="M23" s="58" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="N23" s="11" t="s">
         <v>11</v>
@@ -9320,10 +9324,10 @@
         <v>7</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="X23" s="11" t="s">
         <v>49</v>
@@ -9374,13 +9378,13 @@
         <v>45</v>
       </c>
       <c r="K24" s="34" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="L24" s="11" t="s">
         <v>46</v>
       </c>
       <c r="M24" s="58" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="N24" s="11" t="s">
         <v>9</v>
@@ -9440,11 +9444,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM414"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q111" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="Q400" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q129" sqref="Q129"/>
+      <selection pane="bottomRight" activeCell="B414" sqref="B414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -9509,7 +9513,7 @@
         <v>506</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>95</v>
@@ -9796,7 +9800,7 @@
         <v>120</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="5">
@@ -9839,7 +9843,7 @@
         <v>122</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="AG5" s="5">
         <v>1</v>
@@ -9975,7 +9979,7 @@
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K8" s="5">
         <v>-6</v>
@@ -10248,7 +10252,7 @@
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="K13" s="5">
         <v>-8</v>
@@ -10359,7 +10363,7 @@
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="K15" s="5">
         <v>-8</v>
@@ -10416,7 +10420,7 @@
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="K16" s="5">
         <v>-8</v>
@@ -10662,7 +10666,7 @@
         <v>600</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>709</v>
@@ -10697,11 +10701,11 @@
         <v>1</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K21" s="5">
         <v>-11</v>
@@ -10761,7 +10765,7 @@
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K22" s="5">
         <v>-10</v>
@@ -10817,11 +10821,11 @@
         <v>0</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K23" s="5">
         <v>-13</v>
@@ -12519,7 +12523,7 @@
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="5" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="K54" s="5">
         <v>-13</v>
@@ -12540,7 +12544,7 @@
         <v>220</v>
       </c>
       <c r="Q54" s="10" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="V54" s="5" t="s">
         <v>551</v>
@@ -12626,11 +12630,11 @@
         <v>1</v>
       </c>
       <c r="G56" s="37" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H56" s="37"/>
       <c r="I56" s="22" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="K56" s="22">
         <v>-18</v>
@@ -12687,7 +12691,7 @@
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="K57" s="5">
         <v>-19</v>
@@ -13175,10 +13179,10 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="I66" s="5" t="s">
         <v>1060</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>1061</v>
       </c>
       <c r="K66" s="5">
         <v>-4</v>
@@ -13259,7 +13263,7 @@
         <v>90</v>
       </c>
       <c r="Q67" s="40" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="V67" s="19" t="s">
         <v>550</v>
@@ -13315,7 +13319,7 @@
         <v>90</v>
       </c>
       <c r="Q68" s="40" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="V68" s="19" t="s">
         <v>550</v>
@@ -13427,7 +13431,7 @@
         <v>90</v>
       </c>
       <c r="Q70" s="40" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="V70" s="19" t="s">
         <v>550</v>
@@ -13483,7 +13487,7 @@
         <v>90</v>
       </c>
       <c r="Q71" s="40" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="V71" s="19" t="s">
         <v>550</v>
@@ -13521,7 +13525,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="K72" s="5">
         <v>-4</v>
@@ -13817,7 +13821,7 @@
         <v>248</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="K77" s="19">
         <v>-20</v>
@@ -13835,10 +13839,10 @@
         <v>100</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="Q77" s="40" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="V77" s="19" t="s">
         <v>550</v>
@@ -13873,7 +13877,7 @@
         <v>249</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="K78" s="19">
         <v>-20</v>
@@ -13894,7 +13898,7 @@
         <v>505</v>
       </c>
       <c r="Q78" s="40" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="V78" s="19" t="s">
         <v>550</v>
@@ -13912,10 +13916,10 @@
         <v>90</v>
       </c>
       <c r="AB78" s="19" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AC78" s="40" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AG78" s="19">
         <v>1</v>
@@ -13935,10 +13939,10 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="K79" s="5">
         <v>-20</v>
@@ -13977,10 +13981,10 @@
         <v>90</v>
       </c>
       <c r="AB79" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AC79" s="10" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="AG79" s="5">
         <v>1</v>
@@ -14000,10 +14004,10 @@
         <v>1</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="K80" s="5">
         <v>-20</v>
@@ -14045,10 +14049,10 @@
         <v>610</v>
       </c>
       <c r="AB80" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AC80" s="10" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AG80" s="5">
         <v>1</v>
@@ -14071,7 +14075,7 @@
         <v>252</v>
       </c>
       <c r="I81" s="19" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K81" s="19">
         <v>-20</v>
@@ -14110,7 +14114,7 @@
         <v>610</v>
       </c>
       <c r="AB81" s="19" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AG81" s="19">
         <v>1</v>
@@ -14133,7 +14137,7 @@
         <v>253</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="K82" s="5">
         <v>-20</v>
@@ -14189,7 +14193,7 @@
         <v>255</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="K83" s="5">
         <v>-21</v>
@@ -14207,7 +14211,7 @@
         <v>4800</v>
       </c>
       <c r="P83" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="Q83" s="10" t="s">
         <v>737</v>
@@ -14245,7 +14249,7 @@
         <v>256</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="K84" s="5">
         <v>-22</v>
@@ -14263,7 +14267,7 @@
         <v>4800</v>
       </c>
       <c r="P84" s="5" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="Q84" s="10" t="s">
         <v>738</v>
@@ -14298,10 +14302,10 @@
         <v>0</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="K85" s="5">
         <v>-23</v>
@@ -14319,10 +14323,10 @@
         <v>4800</v>
       </c>
       <c r="P85" s="5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="Q85" s="10" t="s">
         <v>1193</v>
-      </c>
-      <c r="Q85" s="10" t="s">
-        <v>1194</v>
       </c>
       <c r="V85" s="5" t="s">
         <v>552</v>
@@ -14354,10 +14358,10 @@
         <v>0</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="K86" s="5">
         <v>-24</v>
@@ -14405,10 +14409,10 @@
         <v>0</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="K87" s="5">
         <v>-25</v>
@@ -14426,10 +14430,10 @@
         <v>9600</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="Q87" s="10" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="V87" s="5" t="s">
         <v>552</v>
@@ -14464,7 +14468,7 @@
         <v>257</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K88" s="5">
         <v>-22</v>
@@ -14520,7 +14524,7 @@
         <v>259</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K89" s="5">
         <v>-22</v>
@@ -14576,7 +14580,7 @@
         <v>261</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="K90" s="5">
         <v>-22</v>
@@ -14632,7 +14636,7 @@
         <v>262</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="K91" s="5">
         <v>-22</v>
@@ -14688,7 +14692,7 @@
         <v>263</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="K92" s="5">
         <v>-22</v>
@@ -14706,7 +14710,7 @@
         <v>4800</v>
       </c>
       <c r="P92" s="5" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="Q92" s="10" t="s">
         <v>742</v>
@@ -14744,7 +14748,7 @@
         <v>264</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="K93" s="5">
         <v>-22</v>
@@ -14853,7 +14857,7 @@
         <v>267</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="K95" s="5">
         <v>-23</v>
@@ -14912,7 +14916,7 @@
         <v>268</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="K96" s="5">
         <v>-23</v>
@@ -14968,7 +14972,7 @@
         <v>269</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="K97" s="5">
         <v>-24</v>
@@ -14986,13 +14990,13 @@
         <v>4800</v>
       </c>
       <c r="P97" s="5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="Q97" s="10" t="s">
         <v>270</v>
       </c>
       <c r="S97" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="T97" s="5" t="s">
         <v>271</v>
@@ -15030,7 +15034,7 @@
         <v>272</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="K98" s="5">
         <v>-24</v>
@@ -15048,13 +15052,13 @@
         <v>9800</v>
       </c>
       <c r="P98" s="5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="Q98" s="10" t="s">
         <v>273</v>
       </c>
       <c r="S98" s="5" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="T98" s="5" t="s">
         <v>274</v>
@@ -15092,7 +15096,7 @@
         <v>275</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="K99" s="5">
         <v>-24</v>
@@ -15110,13 +15114,13 @@
         <v>19800</v>
       </c>
       <c r="P99" s="5" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="Q99" s="10" t="s">
         <v>276</v>
       </c>
       <c r="S99" s="5" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="T99" s="5" t="s">
         <v>277</v>
@@ -15154,7 +15158,7 @@
         <v>590</v>
       </c>
       <c r="I100" s="19" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="K100" s="19">
         <v>-25</v>
@@ -15217,7 +15221,7 @@
         <v>541</v>
       </c>
       <c r="I101" s="19" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="K101" s="19">
         <v>-25</v>
@@ -15280,7 +15284,7 @@
         <v>279</v>
       </c>
       <c r="I102" s="19" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="K102" s="19">
         <v>-25</v>
@@ -15343,7 +15347,7 @@
         <v>590</v>
       </c>
       <c r="I103" s="19" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="K103" s="19">
         <v>-25</v>
@@ -15406,7 +15410,7 @@
         <v>542</v>
       </c>
       <c r="I104" s="19" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="K104" s="19">
         <v>-25</v>
@@ -15469,7 +15473,7 @@
         <v>78</v>
       </c>
       <c r="I105" s="19" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="K105" s="19">
         <v>-25</v>
@@ -15532,7 +15536,7 @@
         <v>589</v>
       </c>
       <c r="I106" s="19" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="K106" s="19">
         <v>-25</v>
@@ -15595,7 +15599,7 @@
         <v>279</v>
       </c>
       <c r="I107" s="19" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="K107" s="19">
         <v>-25</v>
@@ -15658,7 +15662,7 @@
         <v>82</v>
       </c>
       <c r="I108" s="19" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="K108" s="19">
         <v>-25</v>
@@ -15778,7 +15782,7 @@
         <v>285</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="K110" s="5">
         <v>-26</v>
@@ -15796,13 +15800,13 @@
         <v>3800</v>
       </c>
       <c r="P110" s="5" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="Q110" s="10" t="s">
         <v>286</v>
       </c>
       <c r="S110" s="5" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="T110" s="5" t="s">
         <v>287</v>
@@ -15840,7 +15844,7 @@
         <v>288</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K111" s="5">
         <v>-26</v>
@@ -15858,13 +15862,13 @@
         <v>8800</v>
       </c>
       <c r="P111" s="5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="Q111" s="10" t="s">
         <v>289</v>
       </c>
       <c r="S111" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="T111" s="5" t="s">
         <v>290</v>
@@ -15902,7 +15906,7 @@
         <v>291</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="K112" s="5">
         <v>-26</v>
@@ -15920,13 +15924,13 @@
         <v>18800</v>
       </c>
       <c r="P112" s="5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="Q112" s="10" t="s">
         <v>292</v>
       </c>
       <c r="S112" s="5" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="T112" s="5" t="s">
         <v>293</v>
@@ -15964,7 +15968,7 @@
         <v>294</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="K113" s="5">
         <v>-26</v>
@@ -16020,7 +16024,7 @@
         <v>297</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="K114" s="5">
         <v>-26</v>
@@ -16076,7 +16080,7 @@
         <v>299</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="K115" s="5">
         <v>-26</v>
@@ -16094,7 +16098,7 @@
         <v>9800</v>
       </c>
       <c r="P115" s="5" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="Q115" s="10" t="s">
         <v>300</v>
@@ -16132,7 +16136,7 @@
         <v>301</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="K116" s="5">
         <v>-27</v>
@@ -16150,13 +16154,13 @@
         <v>4800</v>
       </c>
       <c r="P116" s="5" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="Q116" s="10" t="s">
         <v>302</v>
       </c>
       <c r="S116" s="5" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="T116" s="5" t="s">
         <v>303</v>
@@ -16194,7 +16198,7 @@
         <v>304</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="K117" s="5">
         <v>-27</v>
@@ -16212,13 +16216,13 @@
         <v>9800</v>
       </c>
       <c r="P117" s="5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="Q117" s="10" t="s">
         <v>273</v>
       </c>
       <c r="S117" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="T117" s="5" t="s">
         <v>274</v>
@@ -16256,7 +16260,7 @@
         <v>305</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="K118" s="5">
         <v>-28</v>
@@ -16312,7 +16316,7 @@
         <v>307</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="K119" s="5">
         <v>-28</v>
@@ -16368,7 +16372,7 @@
         <v>310</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="K120" s="5">
         <v>-28</v>
@@ -16424,7 +16428,7 @@
         <v>313</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="K121" s="5">
         <v>-28</v>
@@ -16483,7 +16487,7 @@
         <v>317</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="K122" s="5">
         <v>-28</v>
@@ -16542,7 +16546,7 @@
         <v>320</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="K123" s="5">
         <v>-28</v>
@@ -16601,7 +16605,7 @@
         <v>297</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="K124" s="5">
         <v>-28</v>
@@ -16657,7 +16661,7 @@
         <v>323</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="K125" s="5">
         <v>-28</v>
@@ -16713,7 +16717,7 @@
         <v>325</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="K126" s="5">
         <v>-28</v>
@@ -16769,7 +16773,7 @@
         <v>327</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="K127" s="5">
         <v>-29</v>
@@ -16852,7 +16856,7 @@
         <v>90</v>
       </c>
       <c r="Q128" s="40" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="V128" s="19" t="s">
         <v>550</v>
@@ -16908,7 +16912,7 @@
         <v>90</v>
       </c>
       <c r="Q129" s="40" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="V129" s="19" t="s">
         <v>550</v>
@@ -16943,7 +16947,7 @@
         <v>333</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="K130" s="5">
         <v>-28</v>
@@ -17005,7 +17009,7 @@
         <v>251</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="K131" s="5">
         <v>-28</v>
@@ -17067,7 +17071,7 @@
         <v>337</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K132" s="5">
         <v>-28</v>
@@ -17129,7 +17133,7 @@
         <v>339</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="K133" s="5">
         <v>-28</v>
@@ -17191,7 +17195,7 @@
         <v>340</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="K134" s="5">
         <v>-28</v>
@@ -17253,7 +17257,7 @@
         <v>342</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="K135" s="5">
         <v>-28</v>
@@ -17316,7 +17320,7 @@
       </c>
       <c r="H136" s="8"/>
       <c r="I136" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="K136" s="5">
         <v>-28</v>
@@ -17376,7 +17380,7 @@
       </c>
       <c r="H137" s="8"/>
       <c r="I137" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="K137" s="5">
         <v>-28</v>
@@ -17436,7 +17440,7 @@
       </c>
       <c r="H138" s="8"/>
       <c r="I138" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="K138" s="5">
         <v>-28</v>
@@ -17496,7 +17500,7 @@
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K139" s="5">
         <v>-28</v>
@@ -17556,7 +17560,7 @@
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="K140" s="5">
         <v>-28</v>
@@ -17616,7 +17620,7 @@
       </c>
       <c r="H141" s="8"/>
       <c r="I141" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K141" s="5">
         <v>-28</v>
@@ -17675,7 +17679,7 @@
         <v>343</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="K142" s="5">
         <v>-28</v>
@@ -17737,7 +17741,7 @@
         <v>344</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="K143" s="5">
         <v>-28</v>
@@ -17799,7 +17803,7 @@
         <v>345</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="K144" s="5">
         <v>-28</v>
@@ -17865,7 +17869,7 @@
       </c>
       <c r="H145" s="22"/>
       <c r="I145" s="5" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="K145" s="5">
         <v>-28</v>
@@ -17892,7 +17896,7 @@
         <v>90</v>
       </c>
       <c r="T145" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="V145" s="5" t="s">
         <v>551</v>
@@ -17931,7 +17935,7 @@
       </c>
       <c r="H146" s="22"/>
       <c r="I146" s="5" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="K146" s="5">
         <v>-28</v>
@@ -17958,7 +17962,7 @@
         <v>160</v>
       </c>
       <c r="T146" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="V146" s="5" t="s">
         <v>551</v>
@@ -17997,7 +18001,7 @@
       </c>
       <c r="H147" s="22"/>
       <c r="I147" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="K147" s="5">
         <v>-28</v>
@@ -18024,7 +18028,7 @@
         <v>160</v>
       </c>
       <c r="T147" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="V147" s="5" t="s">
         <v>551</v>
@@ -18063,7 +18067,7 @@
       </c>
       <c r="H148" s="22"/>
       <c r="I148" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="K148" s="5">
         <v>-28</v>
@@ -18090,7 +18094,7 @@
         <v>160</v>
       </c>
       <c r="T148" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="V148" s="5" t="s">
         <v>551</v>
@@ -18129,7 +18133,7 @@
       </c>
       <c r="H149" s="22"/>
       <c r="I149" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K149" s="5">
         <v>-28</v>
@@ -18156,7 +18160,7 @@
         <v>160</v>
       </c>
       <c r="T149" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="V149" s="5" t="s">
         <v>551</v>
@@ -18191,7 +18195,7 @@
         <v>353</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="K150" s="5">
         <v>-28</v>
@@ -18253,7 +18257,7 @@
         <v>354</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="K151" s="5">
         <v>-28</v>
@@ -18315,7 +18319,7 @@
         <v>355</v>
       </c>
       <c r="I152" s="5" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="K152" s="5">
         <v>-28</v>
@@ -18374,10 +18378,10 @@
         <v>1</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I153" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="K153" s="5">
         <v>-28</v>
@@ -18404,7 +18408,7 @@
         <v>90</v>
       </c>
       <c r="T153" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="V153" s="5" t="s">
         <v>553</v>
@@ -18439,7 +18443,7 @@
         <v>356</v>
       </c>
       <c r="I154" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="K154" s="5">
         <v>-28</v>
@@ -18466,7 +18470,7 @@
         <v>90</v>
       </c>
       <c r="T154" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="V154" s="5" t="s">
         <v>553</v>
@@ -18501,7 +18505,7 @@
         <v>357</v>
       </c>
       <c r="I155" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="K155" s="5">
         <v>-28</v>
@@ -18528,7 +18532,7 @@
         <v>90</v>
       </c>
       <c r="T155" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="V155" s="5" t="s">
         <v>553</v>
@@ -18563,7 +18567,7 @@
         <v>358</v>
       </c>
       <c r="I156" s="5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K156" s="5">
         <v>-28</v>
@@ -18590,7 +18594,7 @@
         <v>90</v>
       </c>
       <c r="T156" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="V156" s="5" t="s">
         <v>553</v>
@@ -18625,7 +18629,7 @@
         <v>359</v>
       </c>
       <c r="I157" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="K157" s="5">
         <v>-28</v>
@@ -18652,7 +18656,7 @@
         <v>90</v>
       </c>
       <c r="T157" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="V157" s="5" t="s">
         <v>553</v>
@@ -18687,7 +18691,7 @@
         <v>360</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="K158" s="5">
         <v>-28</v>
@@ -18749,7 +18753,7 @@
         <v>362</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="K159" s="5">
         <v>-28</v>
@@ -18811,7 +18815,7 @@
         <v>364</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="K160" s="5">
         <v>-28</v>
@@ -18873,7 +18877,7 @@
         <v>366</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="K161" s="5">
         <v>-28</v>
@@ -18935,7 +18939,7 @@
         <v>367</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="K162" s="5">
         <v>-28</v>
@@ -18997,7 +19001,7 @@
         <v>368</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="K163" s="5">
         <v>-28</v>
@@ -19056,10 +19060,10 @@
         <v>1</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="J164" s="5">
         <v>21032</v>
@@ -19083,7 +19087,7 @@
         <v>220</v>
       </c>
       <c r="Q164" s="10" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="V164" s="5" t="s">
         <v>550</v>
@@ -19124,7 +19128,7 @@
         <v>369</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="K165" s="5">
         <v>-28</v>
@@ -19186,7 +19190,7 @@
         <v>370</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="K166" s="5">
         <v>-28</v>
@@ -19248,7 +19252,7 @@
         <v>371</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="K167" s="5">
         <v>-28</v>
@@ -19310,7 +19314,7 @@
         <v>372</v>
       </c>
       <c r="I168" s="19" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K168" s="19">
         <v>-28</v>
@@ -19328,10 +19332,10 @@
         <v>600</v>
       </c>
       <c r="P168" s="19" t="s">
+        <v>1164</v>
+      </c>
+      <c r="Q168" s="40" t="s">
         <v>1165</v>
-      </c>
-      <c r="Q168" s="40" t="s">
-        <v>1166</v>
       </c>
       <c r="V168" s="19" t="s">
         <v>550</v>
@@ -19375,7 +19379,7 @@
         <v>483</v>
       </c>
       <c r="I169" s="19" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="K169" s="19">
         <v>-28</v>
@@ -19393,10 +19397,10 @@
         <v>3000</v>
       </c>
       <c r="P169" s="19" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="Q169" s="40" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="V169" s="19" t="s">
         <v>629</v>
@@ -19437,7 +19441,7 @@
         <v>373</v>
       </c>
       <c r="I170" s="19" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K170" s="19">
         <v>-28</v>
@@ -19455,10 +19459,10 @@
         <v>19800</v>
       </c>
       <c r="P170" s="19" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="Q170" s="40" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V170" s="19" t="s">
         <v>629</v>
@@ -19496,13 +19500,13 @@
         <v>1</v>
       </c>
       <c r="G171" s="19" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H171" s="19" t="s">
         <v>1299</v>
       </c>
-      <c r="H171" s="19" t="s">
-        <v>1300</v>
-      </c>
       <c r="I171" s="19" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="K171" s="19">
         <v>-28</v>
@@ -19520,7 +19524,7 @@
         <v>100</v>
       </c>
       <c r="P171" s="19" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="Q171" s="40" t="s">
         <v>771</v>
@@ -19564,13 +19568,13 @@
         <v>1</v>
       </c>
       <c r="G172" s="19" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H172" s="19" t="s">
         <v>1301</v>
       </c>
-      <c r="H172" s="19" t="s">
-        <v>1302</v>
-      </c>
       <c r="I172" s="19" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="K172" s="19">
         <v>-28</v>
@@ -19588,7 +19592,7 @@
         <v>300</v>
       </c>
       <c r="P172" s="19" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="Q172" s="40" t="s">
         <v>772</v>
@@ -19632,13 +19636,13 @@
         <v>1</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="I173" s="19" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="K173" s="19">
         <v>-28</v>
@@ -19656,7 +19660,7 @@
         <v>600</v>
       </c>
       <c r="P173" s="19" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="Q173" s="40" t="s">
         <v>773</v>
@@ -19700,13 +19704,13 @@
         <v>1</v>
       </c>
       <c r="G174" s="19" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H174" s="19" t="s">
         <v>1304</v>
       </c>
-      <c r="H174" s="19" t="s">
-        <v>1305</v>
-      </c>
       <c r="I174" s="19" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="K174" s="19">
         <v>-28</v>
@@ -19724,7 +19728,7 @@
         <v>600</v>
       </c>
       <c r="P174" s="19" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="Q174" s="40" t="s">
         <v>774</v>
@@ -19768,13 +19772,13 @@
         <v>1</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I175" s="19" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="K175" s="19">
         <v>-28</v>
@@ -19792,10 +19796,10 @@
         <v>1000</v>
       </c>
       <c r="P175" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="Q175" s="40" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="V175" s="19" t="s">
         <v>553</v>
@@ -19836,13 +19840,13 @@
         <v>1</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I176" s="19" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="K176" s="19">
         <v>-28</v>
@@ -19860,7 +19864,7 @@
         <v>1800</v>
       </c>
       <c r="P176" s="19" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="Q176" s="40" t="s">
         <v>775</v>
@@ -19904,13 +19908,13 @@
         <v>1</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="I177" s="19" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="K177" s="19">
         <v>-28</v>
@@ -19928,7 +19932,7 @@
         <v>1800</v>
       </c>
       <c r="P177" s="19" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="Q177" s="40" t="s">
         <v>776</v>
@@ -19972,13 +19976,13 @@
         <v>1</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H178" s="19" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I178" s="19" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="K178" s="19">
         <v>-28</v>
@@ -19996,7 +20000,7 @@
         <v>4800</v>
       </c>
       <c r="P178" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="Q178" s="40" t="s">
         <v>777</v>
@@ -20040,13 +20044,13 @@
         <v>1</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="I179" s="19" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="K179" s="19">
         <v>-28</v>
@@ -20064,7 +20068,7 @@
         <v>9800</v>
       </c>
       <c r="P179" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="Q179" s="40" t="s">
         <v>778</v>
@@ -20108,13 +20112,13 @@
         <v>1</v>
       </c>
       <c r="G180" s="19" t="s">
+        <v>1310</v>
+      </c>
+      <c r="H180" s="19" t="s">
         <v>1311</v>
       </c>
-      <c r="H180" s="19" t="s">
-        <v>1312</v>
-      </c>
       <c r="I180" s="19" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="K180" s="19">
         <v>-28</v>
@@ -20132,7 +20136,7 @@
         <v>4800</v>
       </c>
       <c r="P180" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="Q180" s="40" t="s">
         <v>777</v>
@@ -20176,13 +20180,13 @@
         <v>1</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I181" s="19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="K181" s="19">
         <v>-28</v>
@@ -20200,7 +20204,7 @@
         <v>9800</v>
       </c>
       <c r="P181" s="19" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="Q181" s="40" t="s">
         <v>779</v>
@@ -20244,13 +20248,13 @@
         <v>1</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="I182" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K182" s="19">
         <v>-28</v>
@@ -20268,7 +20272,7 @@
         <v>19800</v>
       </c>
       <c r="P182" s="19" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="Q182" s="40" t="s">
         <v>780</v>
@@ -20312,13 +20316,13 @@
         <v>1</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="I183" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="K183" s="19">
         <v>-28</v>
@@ -20336,7 +20340,7 @@
         <v>9800</v>
       </c>
       <c r="P183" s="19" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="Q183" s="40" t="s">
         <v>778</v>
@@ -20380,13 +20384,13 @@
         <v>1</v>
       </c>
       <c r="G184" s="19" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="I184" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K184" s="19">
         <v>-28</v>
@@ -20404,7 +20408,7 @@
         <v>19800</v>
       </c>
       <c r="P184" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="Q184" s="40" t="s">
         <v>781</v>
@@ -20448,13 +20452,13 @@
         <v>1</v>
       </c>
       <c r="G185" s="19" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H185" s="19" t="s">
         <v>1317</v>
       </c>
-      <c r="H185" s="19" t="s">
-        <v>1318</v>
-      </c>
       <c r="I185" s="19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="K185" s="19">
         <v>-28</v>
@@ -20472,7 +20476,7 @@
         <v>49800</v>
       </c>
       <c r="P185" s="19" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="Q185" s="40" t="s">
         <v>782</v>
@@ -20519,7 +20523,7 @@
         <v>327</v>
       </c>
       <c r="I186" s="5" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="K186" s="5">
         <v>-29</v>
@@ -20540,13 +20544,13 @@
         <v>464</v>
       </c>
       <c r="Q186" s="10" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="S186" s="5" t="s">
         <v>330</v>
       </c>
       <c r="T186" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="V186" s="5" t="s">
         <v>550</v>
@@ -20581,7 +20585,7 @@
         <v>374</v>
       </c>
       <c r="I187" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="K187" s="5">
         <v>-28</v>
@@ -20646,7 +20650,7 @@
         <v>376</v>
       </c>
       <c r="I188" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="K188" s="5">
         <v>-28</v>
@@ -20711,7 +20715,7 @@
         <v>378</v>
       </c>
       <c r="I189" s="5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="K189" s="5">
         <v>-28</v>
@@ -20776,7 +20780,7 @@
         <v>380</v>
       </c>
       <c r="I190" s="5" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="K190" s="5">
         <v>-28</v>
@@ -20841,7 +20845,7 @@
         <v>382</v>
       </c>
       <c r="I191" s="5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="K191" s="5">
         <v>-28</v>
@@ -20906,7 +20910,7 @@
         <v>384</v>
       </c>
       <c r="I192" s="5" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="K192" s="5">
         <v>-28</v>
@@ -20971,7 +20975,7 @@
         <v>386</v>
       </c>
       <c r="I193" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="K193" s="5">
         <v>-28</v>
@@ -21036,7 +21040,7 @@
         <v>388</v>
       </c>
       <c r="I194" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="K194" s="5">
         <v>-28</v>
@@ -21101,7 +21105,7 @@
         <v>390</v>
       </c>
       <c r="I195" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="K195" s="5">
         <v>-28</v>
@@ -21166,7 +21170,7 @@
         <v>392</v>
       </c>
       <c r="I196" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K196" s="5">
         <v>-28</v>
@@ -21231,7 +21235,7 @@
         <v>394</v>
       </c>
       <c r="I197" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K197" s="5">
         <v>-28</v>
@@ -21296,7 +21300,7 @@
         <v>396</v>
       </c>
       <c r="I198" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="K198" s="5">
         <v>-28</v>
@@ -21361,7 +21365,7 @@
         <v>398</v>
       </c>
       <c r="I199" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K199" s="5">
         <v>-28</v>
@@ -21426,7 +21430,7 @@
         <v>399</v>
       </c>
       <c r="I200" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="K200" s="5">
         <v>-28</v>
@@ -21491,7 +21495,7 @@
         <v>400</v>
       </c>
       <c r="I201" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="K201" s="5">
         <v>-28</v>
@@ -21556,7 +21560,7 @@
         <v>374</v>
       </c>
       <c r="I202" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="K202" s="5">
         <v>-28</v>
@@ -21621,7 +21625,7 @@
         <v>376</v>
       </c>
       <c r="I203" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="K203" s="5">
         <v>-28</v>
@@ -21686,7 +21690,7 @@
         <v>378</v>
       </c>
       <c r="I204" s="5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="K204" s="5">
         <v>-28</v>
@@ -21751,7 +21755,7 @@
         <v>380</v>
       </c>
       <c r="I205" s="5" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="K205" s="5">
         <v>-28</v>
@@ -21816,7 +21820,7 @@
         <v>382</v>
       </c>
       <c r="I206" s="5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="K206" s="5">
         <v>-28</v>
@@ -21881,7 +21885,7 @@
         <v>384</v>
       </c>
       <c r="I207" s="5" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="K207" s="5">
         <v>-28</v>
@@ -21946,7 +21950,7 @@
         <v>386</v>
       </c>
       <c r="I208" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="K208" s="5">
         <v>-28</v>
@@ -22011,7 +22015,7 @@
         <v>388</v>
       </c>
       <c r="I209" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="K209" s="5">
         <v>-28</v>
@@ -22076,7 +22080,7 @@
         <v>390</v>
       </c>
       <c r="I210" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="K210" s="5">
         <v>-28</v>
@@ -22141,7 +22145,7 @@
         <v>392</v>
       </c>
       <c r="I211" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K211" s="5">
         <v>-28</v>
@@ -22206,7 +22210,7 @@
         <v>394</v>
       </c>
       <c r="I212" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K212" s="5">
         <v>-28</v>
@@ -22271,7 +22275,7 @@
         <v>396</v>
       </c>
       <c r="I213" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="K213" s="5">
         <v>-28</v>
@@ -22336,7 +22340,7 @@
         <v>398</v>
       </c>
       <c r="I214" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K214" s="5">
         <v>-28</v>
@@ -22401,7 +22405,7 @@
         <v>399</v>
       </c>
       <c r="I215" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="K215" s="5">
         <v>-28</v>
@@ -22466,7 +22470,7 @@
         <v>400</v>
       </c>
       <c r="I216" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="K216" s="5">
         <v>-28</v>
@@ -22531,7 +22535,7 @@
         <v>374</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="K217" s="5">
         <v>-28</v>
@@ -22596,7 +22600,7 @@
         <v>376</v>
       </c>
       <c r="I218" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="K218" s="5">
         <v>-28</v>
@@ -22661,7 +22665,7 @@
         <v>378</v>
       </c>
       <c r="I219" s="5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="K219" s="5">
         <v>-28</v>
@@ -22726,7 +22730,7 @@
         <v>380</v>
       </c>
       <c r="I220" s="5" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="K220" s="5">
         <v>-28</v>
@@ -22791,7 +22795,7 @@
         <v>382</v>
       </c>
       <c r="I221" s="5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="K221" s="5">
         <v>-28</v>
@@ -22856,7 +22860,7 @@
         <v>384</v>
       </c>
       <c r="I222" s="5" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="K222" s="5">
         <v>-28</v>
@@ -22921,7 +22925,7 @@
         <v>386</v>
       </c>
       <c r="I223" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="K223" s="5">
         <v>-28</v>
@@ -22986,7 +22990,7 @@
         <v>388</v>
       </c>
       <c r="I224" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="K224" s="5">
         <v>-28</v>
@@ -23051,7 +23055,7 @@
         <v>390</v>
       </c>
       <c r="I225" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="K225" s="5">
         <v>-28</v>
@@ -23116,7 +23120,7 @@
         <v>392</v>
       </c>
       <c r="I226" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K226" s="5">
         <v>-28</v>
@@ -23181,7 +23185,7 @@
         <v>394</v>
       </c>
       <c r="I227" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K227" s="5">
         <v>-28</v>
@@ -23246,7 +23250,7 @@
         <v>396</v>
       </c>
       <c r="I228" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="K228" s="5">
         <v>-28</v>
@@ -23311,7 +23315,7 @@
         <v>398</v>
       </c>
       <c r="I229" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K229" s="5">
         <v>-28</v>
@@ -23376,7 +23380,7 @@
         <v>399</v>
       </c>
       <c r="I230" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="K230" s="5">
         <v>-28</v>
@@ -23441,7 +23445,7 @@
         <v>400</v>
       </c>
       <c r="I231" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="K231" s="5">
         <v>-28</v>
@@ -23506,7 +23510,7 @@
         <v>374</v>
       </c>
       <c r="I232" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="K232" s="5">
         <v>-28</v>
@@ -23571,7 +23575,7 @@
         <v>376</v>
       </c>
       <c r="I233" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="K233" s="5">
         <v>-28</v>
@@ -23636,7 +23640,7 @@
         <v>378</v>
       </c>
       <c r="I234" s="5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="K234" s="5">
         <v>-28</v>
@@ -23701,7 +23705,7 @@
         <v>380</v>
       </c>
       <c r="I235" s="5" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="K235" s="5">
         <v>-28</v>
@@ -23766,7 +23770,7 @@
         <v>382</v>
       </c>
       <c r="I236" s="5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="K236" s="5">
         <v>-28</v>
@@ -23831,7 +23835,7 @@
         <v>384</v>
       </c>
       <c r="I237" s="5" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="K237" s="5">
         <v>-28</v>
@@ -23896,7 +23900,7 @@
         <v>386</v>
       </c>
       <c r="I238" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="K238" s="5">
         <v>-28</v>
@@ -23961,7 +23965,7 @@
         <v>388</v>
       </c>
       <c r="I239" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="K239" s="5">
         <v>-28</v>
@@ -24026,7 +24030,7 @@
         <v>390</v>
       </c>
       <c r="I240" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="K240" s="5">
         <v>-28</v>
@@ -24091,7 +24095,7 @@
         <v>392</v>
       </c>
       <c r="I241" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K241" s="5">
         <v>-28</v>
@@ -24156,7 +24160,7 @@
         <v>394</v>
       </c>
       <c r="I242" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K242" s="5">
         <v>-28</v>
@@ -24221,7 +24225,7 @@
         <v>396</v>
       </c>
       <c r="I243" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="K243" s="5">
         <v>-28</v>
@@ -24286,7 +24290,7 @@
         <v>398</v>
       </c>
       <c r="I244" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K244" s="5">
         <v>-28</v>
@@ -24351,7 +24355,7 @@
         <v>399</v>
       </c>
       <c r="I245" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="K245" s="5">
         <v>-28</v>
@@ -24416,7 +24420,7 @@
         <v>400</v>
       </c>
       <c r="I246" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="K246" s="5">
         <v>-28</v>
@@ -24478,11 +24482,11 @@
         <v>1</v>
       </c>
       <c r="G247" s="8" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="H247" s="8"/>
       <c r="I247" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="K247" s="5">
         <v>-28</v>
@@ -24548,7 +24552,7 @@
       </c>
       <c r="H248" s="8"/>
       <c r="I248" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="K248" s="5">
         <v>-28</v>
@@ -24614,7 +24618,7 @@
       </c>
       <c r="H249" s="8"/>
       <c r="I249" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K249" s="5">
         <v>-28</v>
@@ -24680,7 +24684,7 @@
       </c>
       <c r="H250" s="43"/>
       <c r="I250" s="19" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="K250" s="19">
         <v>-28</v>
@@ -24701,7 +24705,7 @@
         <v>461</v>
       </c>
       <c r="Q250" s="40" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="V250" s="19" t="s">
         <v>550</v>
@@ -24742,7 +24746,7 @@
         <v>327</v>
       </c>
       <c r="I251" s="5" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="K251" s="5">
         <v>-29</v>
@@ -24760,16 +24764,16 @@
         <v>600</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="Q251" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="S251" s="5" t="s">
         <v>330</v>
       </c>
       <c r="T251" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="V251" s="5" t="s">
         <v>550</v>
@@ -24810,7 +24814,7 @@
         <v>485</v>
       </c>
       <c r="I252" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="K252" s="5">
         <v>-30</v>
@@ -24872,7 +24876,7 @@
         <v>486</v>
       </c>
       <c r="I253" s="5" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="K253" s="5">
         <v>-30</v>
@@ -24890,10 +24894,10 @@
         <v>100</v>
       </c>
       <c r="P253" s="5" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="Q253" s="10" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="V253" s="5" t="s">
         <v>553</v>
@@ -24934,7 +24938,7 @@
         <v>501</v>
       </c>
       <c r="I254" s="5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="K254" s="5">
         <v>-31</v>
@@ -24955,7 +24959,7 @@
         <v>503</v>
       </c>
       <c r="Q254" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="V254" s="5" t="s">
         <v>553</v>
@@ -24999,7 +25003,7 @@
         <v>497</v>
       </c>
       <c r="I255" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="K255" s="5">
         <v>-31</v>
@@ -25064,7 +25068,7 @@
         <v>498</v>
       </c>
       <c r="I256" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="K256" s="5">
         <v>-31</v>
@@ -25129,7 +25133,7 @@
         <v>504</v>
       </c>
       <c r="I257" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="K257" s="5">
         <v>-31</v>
@@ -25156,7 +25160,7 @@
         <v>505</v>
       </c>
       <c r="T257" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="V257" s="5" t="s">
         <v>550</v>
@@ -25197,7 +25201,7 @@
         <v>536</v>
       </c>
       <c r="I258" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="K258" s="5">
         <v>-31</v>
@@ -25262,7 +25266,7 @@
         <v>376</v>
       </c>
       <c r="I259" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K259" s="5">
         <v>-31</v>
@@ -25327,7 +25331,7 @@
         <v>378</v>
       </c>
       <c r="I260" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="K260" s="5">
         <v>-31</v>
@@ -25392,7 +25396,7 @@
         <v>380</v>
       </c>
       <c r="I261" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="K261" s="5">
         <v>-31</v>
@@ -25457,7 +25461,7 @@
         <v>382</v>
       </c>
       <c r="I262" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K262" s="5">
         <v>-31</v>
@@ -25522,7 +25526,7 @@
         <v>384</v>
       </c>
       <c r="I263" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K263" s="5">
         <v>-31</v>
@@ -25587,7 +25591,7 @@
         <v>507</v>
       </c>
       <c r="I264" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K264" s="5">
         <v>-31</v>
@@ -25652,7 +25656,7 @@
         <v>508</v>
       </c>
       <c r="I265" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="K265" s="5">
         <v>-31</v>
@@ -25717,7 +25721,7 @@
         <v>509</v>
       </c>
       <c r="I266" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="K266" s="5">
         <v>-31</v>
@@ -25782,7 +25786,7 @@
         <v>510</v>
       </c>
       <c r="I267" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="K267" s="5">
         <v>-31</v>
@@ -25847,7 +25851,7 @@
         <v>511</v>
       </c>
       <c r="I268" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="K268" s="5">
         <v>-31</v>
@@ -25912,7 +25916,7 @@
         <v>512</v>
       </c>
       <c r="I269" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="K269" s="5">
         <v>-31</v>
@@ -25977,7 +25981,7 @@
         <v>398</v>
       </c>
       <c r="I270" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="K270" s="5">
         <v>-31</v>
@@ -26042,7 +26046,7 @@
         <v>399</v>
       </c>
       <c r="I271" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="K271" s="5">
         <v>-31</v>
@@ -26107,7 +26111,7 @@
         <v>400</v>
       </c>
       <c r="I272" s="5" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="K272" s="5">
         <v>-31</v>
@@ -26193,7 +26197,7 @@
         <v>90</v>
       </c>
       <c r="Q273" s="10" t="s">
-        <v>790</v>
+        <v>1515</v>
       </c>
       <c r="V273" s="5" t="s">
         <v>550</v>
@@ -26231,7 +26235,7 @@
       </c>
       <c r="H274" s="5"/>
       <c r="I274" s="5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J274" s="5"/>
       <c r="K274" s="5">
@@ -26253,7 +26257,7 @@
         <v>549</v>
       </c>
       <c r="Q274" s="10" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="R274" s="5"/>
       <c r="S274" s="5"/>
@@ -26304,7 +26308,7 @@
         <v>554</v>
       </c>
       <c r="I275" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="K275" s="5">
         <v>-31</v>
@@ -26325,7 +26329,7 @@
         <v>588</v>
       </c>
       <c r="Q275" s="10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="V275" s="5" t="s">
         <v>550</v>
@@ -26369,7 +26373,7 @@
         <v>555</v>
       </c>
       <c r="I276" s="5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K276" s="5">
         <v>-31</v>
@@ -26390,7 +26394,7 @@
         <v>567</v>
       </c>
       <c r="Q276" s="10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="V276" s="5" t="s">
         <v>553</v>
@@ -26434,7 +26438,7 @@
         <v>556</v>
       </c>
       <c r="I277" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="K277" s="5">
         <v>-31</v>
@@ -26455,7 +26459,7 @@
         <v>567</v>
       </c>
       <c r="Q277" s="10" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="V277" s="5" t="s">
         <v>564</v>
@@ -26499,7 +26503,7 @@
         <v>557</v>
       </c>
       <c r="I278" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="K278" s="5">
         <v>-31</v>
@@ -26520,7 +26524,7 @@
         <v>567</v>
       </c>
       <c r="Q278" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="V278" s="5" t="s">
         <v>565</v>
@@ -26564,7 +26568,7 @@
         <v>558</v>
       </c>
       <c r="I279" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="K279" s="5">
         <v>-31</v>
@@ -26585,7 +26589,7 @@
         <v>567</v>
       </c>
       <c r="Q279" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="V279" s="5" t="s">
         <v>566</v>
@@ -26629,7 +26633,7 @@
         <v>559</v>
       </c>
       <c r="I280" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="K280" s="5">
         <v>-31</v>
@@ -26650,7 +26654,7 @@
         <v>567</v>
       </c>
       <c r="Q280" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="V280" s="5" t="s">
         <v>550</v>
@@ -26694,7 +26698,7 @@
         <v>560</v>
       </c>
       <c r="I281" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="K281" s="5">
         <v>-31</v>
@@ -26715,7 +26719,7 @@
         <v>567</v>
       </c>
       <c r="Q281" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="V281" s="5" t="s">
         <v>553</v>
@@ -26759,7 +26763,7 @@
         <v>561</v>
       </c>
       <c r="I282" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="K282" s="5">
         <v>-31</v>
@@ -26780,7 +26784,7 @@
         <v>567</v>
       </c>
       <c r="Q282" s="10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="V282" s="5" t="s">
         <v>564</v>
@@ -26824,7 +26828,7 @@
         <v>562</v>
       </c>
       <c r="I283" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="K283" s="5">
         <v>-31</v>
@@ -26845,7 +26849,7 @@
         <v>567</v>
       </c>
       <c r="Q283" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="V283" s="5" t="s">
         <v>565</v>
@@ -26889,7 +26893,7 @@
         <v>563</v>
       </c>
       <c r="I284" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="K284" s="5">
         <v>-31</v>
@@ -26910,7 +26914,7 @@
         <v>567</v>
       </c>
       <c r="Q284" s="10" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="V284" s="5" t="s">
         <v>566</v>
@@ -26975,7 +26979,7 @@
         <v>567</v>
       </c>
       <c r="Q285" s="10" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="V285" s="5" t="s">
         <v>553</v>
@@ -27037,7 +27041,7 @@
         <v>567</v>
       </c>
       <c r="Q286" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="V286" s="5" t="s">
         <v>553</v>
@@ -27099,7 +27103,7 @@
         <v>567</v>
       </c>
       <c r="Q287" s="10" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="V287" s="5" t="s">
         <v>553</v>
@@ -27161,7 +27165,7 @@
         <v>567</v>
       </c>
       <c r="Q288" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="V288" s="5" t="s">
         <v>553</v>
@@ -27223,7 +27227,7 @@
         <v>567</v>
       </c>
       <c r="Q289" s="10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="V289" s="5" t="s">
         <v>553</v>
@@ -27285,7 +27289,7 @@
         <v>567</v>
       </c>
       <c r="Q290" s="10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="V290" s="5" t="s">
         <v>553</v>
@@ -27347,7 +27351,7 @@
         <v>567</v>
       </c>
       <c r="Q291" s="10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="V291" s="5" t="s">
         <v>553</v>
@@ -27409,7 +27413,7 @@
         <v>567</v>
       </c>
       <c r="Q292" s="10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="V292" s="5" t="s">
         <v>553</v>
@@ -27471,7 +27475,7 @@
         <v>616</v>
       </c>
       <c r="Q293" s="10" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="V293" s="5" t="s">
         <v>553</v>
@@ -27512,7 +27516,7 @@
         <v>630</v>
       </c>
       <c r="I294" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="K294" s="5">
         <v>-31</v>
@@ -27533,7 +27537,7 @@
         <v>608</v>
       </c>
       <c r="Q294" s="10" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="V294" s="5" t="s">
         <v>553</v>
@@ -27574,7 +27578,7 @@
         <v>631</v>
       </c>
       <c r="I295" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K295" s="5">
         <v>-31</v>
@@ -27595,7 +27599,7 @@
         <v>608</v>
       </c>
       <c r="Q295" s="10" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="V295" s="5" t="s">
         <v>553</v>
@@ -27636,7 +27640,7 @@
         <v>632</v>
       </c>
       <c r="I296" s="5" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="K296" s="5">
         <v>-31</v>
@@ -27657,7 +27661,7 @@
         <v>608</v>
       </c>
       <c r="Q296" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="V296" s="5" t="s">
         <v>553</v>
@@ -27698,7 +27702,7 @@
         <v>633</v>
       </c>
       <c r="I297" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K297" s="5">
         <v>-31</v>
@@ -27719,7 +27723,7 @@
         <v>608</v>
       </c>
       <c r="Q297" s="10" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="V297" s="5" t="s">
         <v>553</v>
@@ -27760,7 +27764,7 @@
         <v>634</v>
       </c>
       <c r="I298" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="K298" s="5">
         <v>-31</v>
@@ -27781,7 +27785,7 @@
         <v>607</v>
       </c>
       <c r="Q298" s="10" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="V298" s="5" t="s">
         <v>553</v>
@@ -27822,7 +27826,7 @@
         <v>635</v>
       </c>
       <c r="I299" s="5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="K299" s="5">
         <v>-31</v>
@@ -27843,7 +27847,7 @@
         <v>606</v>
       </c>
       <c r="Q299" s="10" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="V299" s="5" t="s">
         <v>553</v>
@@ -27884,7 +27888,7 @@
         <v>636</v>
       </c>
       <c r="I300" s="5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="K300" s="5">
         <v>-31</v>
@@ -27905,7 +27909,7 @@
         <v>606</v>
       </c>
       <c r="Q300" s="10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="V300" s="5" t="s">
         <v>553</v>
@@ -27946,7 +27950,7 @@
         <v>637</v>
       </c>
       <c r="I301" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="K301" s="5">
         <v>-31</v>
@@ -27967,7 +27971,7 @@
         <v>606</v>
       </c>
       <c r="Q301" s="10" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="V301" s="5" t="s">
         <v>553</v>
@@ -28008,7 +28012,7 @@
         <v>638</v>
       </c>
       <c r="I302" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="K302" s="5">
         <v>-31</v>
@@ -28029,7 +28033,7 @@
         <v>606</v>
       </c>
       <c r="Q302" s="10" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="V302" s="5" t="s">
         <v>553</v>
@@ -28070,7 +28074,7 @@
         <v>639</v>
       </c>
       <c r="I303" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="K303" s="5">
         <v>-31</v>
@@ -28091,7 +28095,7 @@
         <v>606</v>
       </c>
       <c r="Q303" s="10" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="V303" s="5" t="s">
         <v>553</v>
@@ -28132,7 +28136,7 @@
         <v>640</v>
       </c>
       <c r="I304" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="K304" s="5">
         <v>-31</v>
@@ -28153,7 +28157,7 @@
         <v>606</v>
       </c>
       <c r="Q304" s="10" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="V304" s="5" t="s">
         <v>553</v>
@@ -28194,7 +28198,7 @@
         <v>641</v>
       </c>
       <c r="I305" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="K305" s="5">
         <v>-31</v>
@@ -28215,7 +28219,7 @@
         <v>606</v>
       </c>
       <c r="Q305" s="10" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="V305" s="5" t="s">
         <v>553</v>
@@ -28256,7 +28260,7 @@
         <v>642</v>
       </c>
       <c r="I306" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="K306" s="5">
         <v>-31</v>
@@ -28277,7 +28281,7 @@
         <v>606</v>
       </c>
       <c r="Q306" s="10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="V306" s="5" t="s">
         <v>553</v>
@@ -28318,7 +28322,7 @@
         <v>643</v>
       </c>
       <c r="I307" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="K307" s="5">
         <v>-31</v>
@@ -28339,7 +28343,7 @@
         <v>606</v>
       </c>
       <c r="Q307" s="10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="V307" s="5" t="s">
         <v>553</v>
@@ -28380,7 +28384,7 @@
         <v>644</v>
       </c>
       <c r="I308" s="5" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="K308" s="5">
         <v>-31</v>
@@ -28401,7 +28405,7 @@
         <v>612</v>
       </c>
       <c r="Q308" s="10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="V308" s="5" t="s">
         <v>553</v>
@@ -28442,7 +28446,7 @@
         <v>645</v>
       </c>
       <c r="I309" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="K309" s="5">
         <v>-31</v>
@@ -28463,7 +28467,7 @@
         <v>617</v>
       </c>
       <c r="Q309" s="10" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="V309" s="5" t="s">
         <v>553</v>
@@ -28501,10 +28505,10 @@
         <v>0</v>
       </c>
       <c r="G310" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="I310" s="5" t="s">
         <v>965</v>
-      </c>
-      <c r="I310" s="5" t="s">
-        <v>966</v>
       </c>
       <c r="K310" s="5">
         <v>-31</v>
@@ -28525,7 +28529,7 @@
         <v>618</v>
       </c>
       <c r="Q310" s="10" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="V310" s="5" t="s">
         <v>553</v>
@@ -28563,10 +28567,10 @@
         <v>0</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I311" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="K311" s="5">
         <v>-31</v>
@@ -28587,7 +28591,7 @@
         <v>619</v>
       </c>
       <c r="Q311" s="10" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="V311" s="5" t="s">
         <v>553</v>
@@ -28625,10 +28629,10 @@
         <v>0</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="I312" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="K312" s="5">
         <v>-31</v>
@@ -28649,7 +28653,7 @@
         <v>619</v>
       </c>
       <c r="Q312" s="10" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="V312" s="5" t="s">
         <v>626</v>
@@ -28687,10 +28691,10 @@
         <v>0</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="I313" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="K313" s="5">
         <v>-31</v>
@@ -28711,7 +28715,7 @@
         <v>619</v>
       </c>
       <c r="Q313" s="10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="V313" s="5" t="s">
         <v>627</v>
@@ -28749,10 +28753,10 @@
         <v>0</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I314" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="K314" s="5">
         <v>-31</v>
@@ -28773,7 +28777,7 @@
         <v>618</v>
       </c>
       <c r="Q314" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="V314" s="5" t="s">
         <v>628</v>
@@ -28811,10 +28815,10 @@
         <v>0</v>
       </c>
       <c r="G315" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="I315" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="K315" s="5">
         <v>-31</v>
@@ -28835,7 +28839,7 @@
         <v>619</v>
       </c>
       <c r="Q315" s="10" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="V315" s="5" t="s">
         <v>629</v>
@@ -29062,7 +29066,7 @@
         <v>649</v>
       </c>
       <c r="I319" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="K319" s="5">
         <v>-23</v>
@@ -29083,7 +29087,7 @@
         <v>651</v>
       </c>
       <c r="Q319" s="10" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="V319" s="5" t="s">
         <v>552</v>
@@ -29118,7 +29122,7 @@
         <v>650</v>
       </c>
       <c r="I320" s="5" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="K320" s="5">
         <v>-25</v>
@@ -29139,7 +29143,7 @@
         <v>652</v>
       </c>
       <c r="Q320" s="10" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="V320" s="5" t="s">
         <v>552</v>
@@ -29174,7 +29178,7 @@
         <v>653</v>
       </c>
       <c r="I321" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="K321" s="5">
         <v>-23</v>
@@ -29195,7 +29199,7 @@
         <v>655</v>
       </c>
       <c r="Q321" s="10" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="V321" s="5" t="s">
         <v>550</v>
@@ -29298,11 +29302,11 @@
         <v>1</v>
       </c>
       <c r="G323" s="19" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H323" s="19"/>
       <c r="I323" s="19" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="J323" s="19"/>
       <c r="K323" s="19">
@@ -29321,17 +29325,17 @@
         <v>600</v>
       </c>
       <c r="P323" s="19" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="Q323" s="40" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="R323" s="19"/>
       <c r="S323" s="19"/>
       <c r="T323" s="19"/>
       <c r="U323" s="19"/>
       <c r="V323" s="19" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="W323" s="19">
         <v>9999999</v>
@@ -29381,11 +29385,11 @@
         <v>1</v>
       </c>
       <c r="G324" s="19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H324" s="19"/>
       <c r="I324" s="19" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="J324" s="19"/>
       <c r="K324" s="19">
@@ -29404,7 +29408,7 @@
         <v>4800</v>
       </c>
       <c r="P324" s="19" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="Q324" s="40" t="s">
         <v>777</v>
@@ -29464,11 +29468,11 @@
         <v>1</v>
       </c>
       <c r="G325" s="19" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="J325" s="19"/>
       <c r="K325" s="19">
@@ -29487,7 +29491,7 @@
         <v>9800</v>
       </c>
       <c r="P325" s="19" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="Q325" s="40" t="s">
         <v>778</v>
@@ -29544,10 +29548,10 @@
         <v>1</v>
       </c>
       <c r="G326" s="41" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="I326" s="41" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="K326" s="41">
         <v>-4</v>
@@ -29559,14 +29563,14 @@
         <v>0</v>
       </c>
       <c r="N326" s="41" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="O326" s="41">
         <v>100</v>
       </c>
       <c r="Q326" s="42"/>
       <c r="V326" s="41" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="W326" s="41">
         <v>9999999</v>
@@ -29578,13 +29582,13 @@
         <v>2552233600</v>
       </c>
       <c r="AA326" s="41" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="AB326" s="41" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AC326" s="42" t="s">
         <v>1116</v>
-      </c>
-      <c r="AC326" s="42" t="s">
-        <v>1117</v>
       </c>
       <c r="AG326" s="41">
         <v>1</v>
@@ -29604,10 +29608,10 @@
         <v>1</v>
       </c>
       <c r="G327" s="44" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I327" s="44" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="K327" s="44">
         <v>-31</v>
@@ -29619,19 +29623,19 @@
         <v>0</v>
       </c>
       <c r="N327" s="44" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="O327" s="44">
         <v>9900</v>
       </c>
       <c r="P327" s="44" t="s">
+        <v>1122</v>
+      </c>
+      <c r="Q327" s="48" t="s">
+        <v>1158</v>
+      </c>
+      <c r="V327" s="44" t="s">
         <v>1123</v>
-      </c>
-      <c r="Q327" s="48" t="s">
-        <v>1159</v>
-      </c>
-      <c r="V327" s="44" t="s">
-        <v>1124</v>
       </c>
       <c r="W327" s="44">
         <v>99999999</v>
@@ -29669,11 +29673,11 @@
         <v>1</v>
       </c>
       <c r="G328" s="44" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H328" s="44"/>
       <c r="I328" s="44" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="J328" s="44"/>
       <c r="K328" s="44">
@@ -29686,23 +29690,23 @@
         <v>0</v>
       </c>
       <c r="N328" s="44" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="O328" s="44">
         <v>600</v>
       </c>
       <c r="P328" s="44" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="Q328" s="48" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="R328" s="44"/>
       <c r="S328" s="44"/>
       <c r="T328" s="44"/>
       <c r="U328" s="44"/>
       <c r="V328" s="44" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="W328" s="44">
         <v>99999999</v>
@@ -29751,11 +29755,11 @@
         <v>1</v>
       </c>
       <c r="G329" s="44" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H329" s="44"/>
       <c r="I329" s="44" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="J329" s="44"/>
       <c r="K329" s="44">
@@ -29768,23 +29772,23 @@
         <v>0</v>
       </c>
       <c r="N329" s="44" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="O329" s="44">
         <v>2800</v>
       </c>
       <c r="P329" s="44" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="Q329" s="48" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="R329" s="44"/>
       <c r="S329" s="44"/>
       <c r="T329" s="44"/>
       <c r="U329" s="44"/>
       <c r="V329" s="44" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="W329" s="44">
         <v>99999999</v>
@@ -29833,11 +29837,11 @@
         <v>1</v>
       </c>
       <c r="G330" s="44" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H330" s="44"/>
       <c r="I330" s="44" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="J330" s="44"/>
       <c r="K330" s="44">
@@ -29850,23 +29854,23 @@
         <v>0</v>
       </c>
       <c r="N330" s="44" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="O330" s="44">
         <v>4800</v>
       </c>
       <c r="P330" s="44" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="Q330" s="48" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="R330" s="44"/>
       <c r="S330" s="44"/>
       <c r="T330" s="44"/>
       <c r="U330" s="44"/>
       <c r="V330" s="44" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="W330" s="44">
         <v>99999999</v>
@@ -29915,11 +29919,11 @@
         <v>1</v>
       </c>
       <c r="G331" s="44" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H331" s="44"/>
       <c r="I331" s="44" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="J331" s="44"/>
       <c r="K331" s="44">
@@ -29932,23 +29936,23 @@
         <v>0</v>
       </c>
       <c r="N331" s="44" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="O331" s="44">
         <v>9900</v>
       </c>
       <c r="P331" s="44" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="Q331" s="48" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="R331" s="44"/>
       <c r="S331" s="44"/>
       <c r="T331" s="44"/>
       <c r="U331" s="44"/>
       <c r="V331" s="44" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="W331" s="44">
         <v>99999999</v>
@@ -29997,11 +30001,11 @@
         <v>1</v>
       </c>
       <c r="G332" s="44" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H332" s="44"/>
       <c r="I332" s="44" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="J332" s="44"/>
       <c r="K332" s="44">
@@ -30014,23 +30018,23 @@
         <v>0</v>
       </c>
       <c r="N332" s="44" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="O332" s="44">
         <v>19800</v>
       </c>
       <c r="P332" s="44" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="Q332" s="48" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="R332" s="44"/>
       <c r="S332" s="44"/>
       <c r="T332" s="44"/>
       <c r="U332" s="44"/>
       <c r="V332" s="44" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="W332" s="44">
         <v>99999999</v>
@@ -30079,11 +30083,11 @@
         <v>1</v>
       </c>
       <c r="G333" s="44" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H333" s="44"/>
       <c r="I333" s="44" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="J333" s="44"/>
       <c r="K333" s="44">
@@ -30096,23 +30100,23 @@
         <v>0</v>
       </c>
       <c r="N333" s="44" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="O333" s="44">
         <v>29800</v>
       </c>
       <c r="P333" s="44" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="Q333" s="48" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="R333" s="44"/>
       <c r="S333" s="44"/>
       <c r="T333" s="44"/>
       <c r="U333" s="44"/>
       <c r="V333" s="44" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="W333" s="44">
         <v>99999999</v>
@@ -30161,11 +30165,11 @@
         <v>1</v>
       </c>
       <c r="G334" s="44" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H334" s="44"/>
       <c r="I334" s="44" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J334" s="44"/>
       <c r="K334" s="44">
@@ -30178,23 +30182,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="44" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="O334" s="44">
         <v>39800</v>
       </c>
       <c r="P334" s="44" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="Q334" s="48" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="R334" s="44"/>
       <c r="S334" s="44"/>
       <c r="T334" s="44"/>
       <c r="U334" s="44"/>
       <c r="V334" s="44" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="W334" s="44">
         <v>99999999</v>
@@ -30243,11 +30247,11 @@
         <v>1</v>
       </c>
       <c r="G335" s="44" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H335" s="44"/>
       <c r="I335" s="44" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J335" s="44"/>
       <c r="K335" s="44">
@@ -30260,23 +30264,23 @@
         <v>0</v>
       </c>
       <c r="N335" s="44" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="O335" s="44">
         <v>49800</v>
       </c>
       <c r="P335" s="44" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="Q335" s="48" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="R335" s="44"/>
       <c r="S335" s="44"/>
       <c r="T335" s="44"/>
       <c r="U335" s="44"/>
       <c r="V335" s="44" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="W335" s="44">
         <v>99999999</v>
@@ -30325,11 +30329,11 @@
         <v>1</v>
       </c>
       <c r="G336" s="44" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H336" s="44"/>
       <c r="I336" s="44" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J336" s="44"/>
       <c r="K336" s="44">
@@ -30342,23 +30346,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="44" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="O336" s="44">
         <v>59800</v>
       </c>
       <c r="P336" s="44" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="Q336" s="48" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="R336" s="44"/>
       <c r="S336" s="44"/>
       <c r="T336" s="44"/>
       <c r="U336" s="44"/>
       <c r="V336" s="44" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="W336" s="44">
         <v>99999999</v>
@@ -30407,11 +30411,11 @@
         <v>1</v>
       </c>
       <c r="G337" s="44" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H337" s="44"/>
       <c r="I337" s="44" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="J337" s="44"/>
       <c r="K337" s="44">
@@ -30424,23 +30428,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="44" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="O337" s="44">
         <v>69800</v>
       </c>
       <c r="P337" s="44" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="Q337" s="48" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="R337" s="44"/>
       <c r="S337" s="44"/>
       <c r="T337" s="44"/>
       <c r="U337" s="44"/>
       <c r="V337" s="44" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="W337" s="44">
         <v>99999999</v>
@@ -30486,10 +30490,10 @@
         <v>1</v>
       </c>
       <c r="G338" s="19" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="I338" s="19" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="K338" s="19">
         <v>-31</v>
@@ -30507,10 +30511,10 @@
         <v>19800</v>
       </c>
       <c r="P338" s="19" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="Q338" s="40" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="V338" s="19" t="s">
         <v>550</v>
@@ -30525,10 +30529,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA338" s="19" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AB338" s="19" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="AG338" s="19">
         <v>1</v>
@@ -30561,7 +30565,7 @@
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="J339" s="19"/>
       <c r="K339" s="19">
@@ -30580,10 +30584,10 @@
         <v>30000</v>
       </c>
       <c r="P339" s="19" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="Q339" s="40" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="R339" s="19"/>
       <c r="S339" s="19"/>
@@ -30603,10 +30607,10 @@
       </c>
       <c r="Z339" s="19"/>
       <c r="AA339" s="19" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AB339" s="19" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AC339" s="19"/>
       <c r="AD339" s="19"/>
@@ -30641,11 +30645,11 @@
         <v>1</v>
       </c>
       <c r="G340" s="19" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="J340" s="19"/>
       <c r="K340" s="19">
@@ -30664,10 +30668,10 @@
         <v>78000</v>
       </c>
       <c r="P340" s="19" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="Q340" s="40" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="R340" s="19"/>
       <c r="S340" s="19"/>
@@ -30687,10 +30691,10 @@
       </c>
       <c r="Z340" s="19"/>
       <c r="AA340" s="19" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AB340" s="19" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AC340" s="19"/>
       <c r="AD340" s="19"/>
@@ -30722,11 +30726,11 @@
         <v>1</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="H341" s="6"/>
       <c r="I341" s="5" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K341" s="5">
         <v>-31</v>
@@ -30744,13 +30748,13 @@
         <v>600</v>
       </c>
       <c r="P341" s="5" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="Q341" s="10" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="V341" s="5" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="W341" s="5">
         <v>9999999</v>
@@ -30768,7 +30772,7 @@
         <v>461</v>
       </c>
       <c r="AB341" s="5" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="AG341" s="5">
         <v>1</v>
@@ -30794,10 +30798,10 @@
         <v>1</v>
       </c>
       <c r="G342" s="6" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I342" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="K342" s="5">
         <v>-31</v>
@@ -30815,13 +30819,13 @@
         <v>600</v>
       </c>
       <c r="P342" s="5" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="Q342" s="10" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="V342" s="5" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="W342" s="5">
         <v>9999999</v>
@@ -30839,7 +30843,7 @@
         <v>461</v>
       </c>
       <c r="AB342" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="AG342" s="5">
         <v>1</v>
@@ -30865,10 +30869,10 @@
         <v>1</v>
       </c>
       <c r="G343" s="6" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I343" s="5" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="K343" s="5">
         <v>-31</v>
@@ -30886,13 +30890,13 @@
         <v>600</v>
       </c>
       <c r="P343" s="5" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="Q343" s="10" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="V343" s="5" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="W343" s="5">
         <v>9999999</v>
@@ -30910,7 +30914,7 @@
         <v>461</v>
       </c>
       <c r="AB343" s="5" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="AG343" s="5">
         <v>1</v>
@@ -30936,10 +30940,10 @@
         <v>1</v>
       </c>
       <c r="G344" s="6" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I344" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="K344" s="5">
         <v>-31</v>
@@ -30957,13 +30961,13 @@
         <v>4800</v>
       </c>
       <c r="P344" s="5" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="Q344" s="10" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="V344" s="5" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="W344" s="5">
         <v>9999999</v>
@@ -30981,7 +30985,7 @@
         <v>461</v>
       </c>
       <c r="AB344" s="5" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AG344" s="5">
         <v>1</v>
@@ -31007,10 +31011,10 @@
         <v>1</v>
       </c>
       <c r="G345" s="6" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I345" s="5" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="K345" s="5">
         <v>-31</v>
@@ -31028,13 +31032,13 @@
         <v>4800</v>
       </c>
       <c r="P345" s="5" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="Q345" s="10" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="V345" s="5" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="W345" s="5">
         <v>9999999</v>
@@ -31052,7 +31056,7 @@
         <v>461</v>
       </c>
       <c r="AB345" s="5" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="AG345" s="5">
         <v>1</v>
@@ -31078,10 +31082,10 @@
         <v>1</v>
       </c>
       <c r="G346" s="6" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I346" s="5" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="K346" s="5">
         <v>-31</v>
@@ -31099,13 +31103,13 @@
         <v>4800</v>
       </c>
       <c r="P346" s="5" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="Q346" s="10" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="V346" s="5" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="W346" s="5">
         <v>9999999</v>
@@ -31123,7 +31127,7 @@
         <v>461</v>
       </c>
       <c r="AB346" s="5" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AG346" s="5">
         <v>1</v>
@@ -31149,10 +31153,10 @@
         <v>1</v>
       </c>
       <c r="G347" s="6" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I347" s="5" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="K347" s="5">
         <v>-31</v>
@@ -31170,13 +31174,13 @@
         <v>9800</v>
       </c>
       <c r="P347" s="5" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="Q347" s="10" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="V347" s="5" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="W347" s="5">
         <v>9999999</v>
@@ -31194,7 +31198,7 @@
         <v>461</v>
       </c>
       <c r="AB347" s="5" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="AG347" s="5">
         <v>1</v>
@@ -31220,10 +31224,10 @@
         <v>1</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I348" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="K348" s="5">
         <v>-31</v>
@@ -31241,13 +31245,13 @@
         <v>9800</v>
       </c>
       <c r="P348" s="5" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="Q348" s="10" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="V348" s="5" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="W348" s="5">
         <v>9999999</v>
@@ -31265,7 +31269,7 @@
         <v>461</v>
       </c>
       <c r="AB348" s="5" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="AG348" s="5">
         <v>1</v>
@@ -31291,10 +31295,10 @@
         <v>1</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I349" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="K349" s="5">
         <v>-31</v>
@@ -31312,13 +31316,13 @@
         <v>9800</v>
       </c>
       <c r="P349" s="5" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="Q349" s="10" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="V349" s="5" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="W349" s="5">
         <v>9999999</v>
@@ -31336,7 +31340,7 @@
         <v>461</v>
       </c>
       <c r="AB349" s="5" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="AG349" s="5">
         <v>1</v>
@@ -31362,10 +31366,10 @@
         <v>1</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I350" s="5" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="K350" s="5">
         <v>-31</v>
@@ -31383,13 +31387,13 @@
         <v>19800</v>
       </c>
       <c r="P350" s="5" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="Q350" s="10" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="V350" s="5" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="W350" s="5">
         <v>9999999</v>
@@ -31407,7 +31411,7 @@
         <v>461</v>
       </c>
       <c r="AB350" s="5" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="AG350" s="5">
         <v>1</v>
@@ -31433,10 +31437,10 @@
         <v>1</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I351" s="5" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K351" s="5">
         <v>-31</v>
@@ -31454,13 +31458,13 @@
         <v>19800</v>
       </c>
       <c r="P351" s="5" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="Q351" s="10" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="V351" s="5" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="W351" s="5">
         <v>9999999</v>
@@ -31478,7 +31482,7 @@
         <v>461</v>
       </c>
       <c r="AB351" s="5" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="AG351" s="5">
         <v>1</v>
@@ -31504,10 +31508,10 @@
         <v>1</v>
       </c>
       <c r="G352" s="6" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="I352" s="5" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="K352" s="5">
         <v>-31</v>
@@ -31525,13 +31529,13 @@
         <v>19800</v>
       </c>
       <c r="P352" s="5" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="Q352" s="10" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="V352" s="5" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="W352" s="5">
         <v>9999999</v>
@@ -31549,7 +31553,7 @@
         <v>461</v>
       </c>
       <c r="AB352" s="5" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="AG352" s="5">
         <v>1</v>
@@ -31575,13 +31579,13 @@
         <v>0</v>
       </c>
       <c r="G353" s="5" t="s">
+        <v>1287</v>
+      </c>
+      <c r="H353" s="5" t="s">
         <v>1288</v>
       </c>
-      <c r="H353" s="5" t="s">
-        <v>1289</v>
-      </c>
       <c r="I353" s="5" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="K353" s="5">
         <v>-31</v>
@@ -31593,16 +31597,16 @@
         <v>0</v>
       </c>
       <c r="N353" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="O353" s="5">
         <v>600</v>
       </c>
       <c r="P353" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="Q353" s="10" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="V353" s="5" t="s">
         <v>564</v>
@@ -31643,13 +31647,13 @@
         <v>0</v>
       </c>
       <c r="G354" s="5" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H354" s="5" t="s">
         <v>1290</v>
       </c>
-      <c r="H354" s="5" t="s">
-        <v>1291</v>
-      </c>
       <c r="I354" s="5" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="K354" s="5">
         <v>-31</v>
@@ -31667,10 +31671,10 @@
         <v>1200</v>
       </c>
       <c r="P354" s="5" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="Q354" s="10" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="V354" s="5" t="s">
         <v>564</v>
@@ -31711,13 +31715,13 @@
         <v>0</v>
       </c>
       <c r="G355" s="5" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H355" s="5" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="I355" s="5" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="K355" s="5">
         <v>-31</v>
@@ -31735,13 +31739,13 @@
         <v>1800</v>
       </c>
       <c r="P355" s="5" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="Q355" s="10" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="V355" s="5" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="W355" s="5">
         <v>9999999</v>
@@ -31779,13 +31783,13 @@
         <v>0</v>
       </c>
       <c r="G356" s="5" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H356" s="5" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="I356" s="5" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="K356" s="5">
         <v>-31</v>
@@ -31803,13 +31807,13 @@
         <v>4800</v>
       </c>
       <c r="P356" s="5" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Q356" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V356" s="5" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="W356" s="5">
         <v>9999999</v>
@@ -31847,13 +31851,13 @@
         <v>0</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H357" s="5" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="K357" s="5">
         <v>-31</v>
@@ -31871,13 +31875,13 @@
         <v>9800</v>
       </c>
       <c r="P357" s="5" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q357" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V357" s="5" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="W357" s="5">
         <v>9999999</v>
@@ -31915,13 +31919,13 @@
         <v>0</v>
       </c>
       <c r="G358" s="5" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H358" s="5" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="I358" s="5" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="K358" s="5">
         <v>-31</v>
@@ -31939,13 +31943,13 @@
         <v>19800</v>
       </c>
       <c r="P358" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q358" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V358" s="5" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="W358" s="5">
         <v>9999999</v>
@@ -31983,13 +31987,13 @@
         <v>0</v>
       </c>
       <c r="G359" s="5" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H359" s="5" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="I359" s="5" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="K359" s="5">
         <v>-31</v>
@@ -32007,13 +32011,13 @@
         <v>9800</v>
       </c>
       <c r="P359" s="5" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="Q359" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V359" s="5" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="W359" s="5">
         <v>9999999</v>
@@ -32051,13 +32055,13 @@
         <v>0</v>
       </c>
       <c r="G360" s="5" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H360" s="5" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="I360" s="5" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="K360" s="5">
         <v>-31</v>
@@ -32075,13 +32079,13 @@
         <v>19800</v>
       </c>
       <c r="P360" s="5" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="Q360" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V360" s="5" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="W360" s="5">
         <v>9999999</v>
@@ -32119,13 +32123,13 @@
         <v>0</v>
       </c>
       <c r="G361" s="5" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H361" s="5" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="K361" s="5">
         <v>-31</v>
@@ -32143,13 +32147,13 @@
         <v>49800</v>
       </c>
       <c r="P361" s="5" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="Q361" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V361" s="5" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="W361" s="5">
         <v>9999999</v>
@@ -32187,13 +32191,13 @@
         <v>0</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H362" s="5" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="I362" s="5" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="K362" s="5">
         <v>-31</v>
@@ -32211,13 +32215,13 @@
         <v>1800</v>
       </c>
       <c r="P362" s="5" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="Q362" s="10" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="V362" s="5" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="W362" s="5">
         <v>9999999</v>
@@ -32232,10 +32236,10 @@
         <v>38</v>
       </c>
       <c r="AA362" s="5" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="AB362" s="5" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AG362" s="5">
         <v>1</v>
@@ -32261,13 +32265,13 @@
         <v>0</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H363" s="5" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="K363" s="5">
         <v>-31</v>
@@ -32285,13 +32289,13 @@
         <v>19800</v>
       </c>
       <c r="P363" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q363" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V363" s="5" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="W363" s="5">
         <v>9999999</v>
@@ -32306,10 +32310,10 @@
         <v>39</v>
       </c>
       <c r="AA363" s="5" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="AB363" s="5" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="AG363" s="5">
         <v>1</v>
@@ -32335,13 +32339,13 @@
         <v>0</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H364" s="5" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="I364" s="5" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="K364" s="5">
         <v>-31</v>
@@ -32359,13 +32363,13 @@
         <v>49800</v>
       </c>
       <c r="P364" s="5" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="Q364" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V364" s="5" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="W364" s="5">
         <v>9999999</v>
@@ -32380,10 +32384,10 @@
         <v>40</v>
       </c>
       <c r="AA364" s="5" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="AB364" s="5" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="AG364" s="5">
         <v>1</v>
@@ -32409,10 +32413,10 @@
         <v>0</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I365" s="5" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="K365" s="5">
         <v>-31</v>
@@ -32430,10 +32434,10 @@
         <v>131400</v>
       </c>
       <c r="P365" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="Q365" s="10" t="s">
         <v>1330</v>
-      </c>
-      <c r="Q365" s="10" t="s">
-        <v>1331</v>
       </c>
       <c r="V365" s="5" t="s">
         <v>597</v>
@@ -32474,10 +32478,10 @@
         <v>0</v>
       </c>
       <c r="G366" s="5" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I366" s="5" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="K366" s="5">
         <v>-31</v>
@@ -32495,10 +32499,10 @@
         <v>52000</v>
       </c>
       <c r="P366" s="5" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="Q366" s="10" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="V366" s="5" t="s">
         <v>597</v>
@@ -32539,10 +32543,10 @@
         <v>0</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I367" s="5" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K367" s="5">
         <v>-31</v>
@@ -32560,10 +32564,10 @@
         <v>25800</v>
       </c>
       <c r="P367" s="5" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="Q367" s="10" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="V367" s="5" t="s">
         <v>597</v>
@@ -32604,10 +32608,10 @@
         <v>0</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I368" s="5" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="K368" s="5">
         <v>-31</v>
@@ -32625,10 +32629,10 @@
         <v>14700</v>
       </c>
       <c r="P368" s="5" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="Q368" s="10" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="V368" s="5" t="s">
         <v>597</v>
@@ -32669,10 +32673,10 @@
         <v>0</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="I369" s="5" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="K369" s="5">
         <v>-31</v>
@@ -32690,10 +32694,10 @@
         <v>5200</v>
       </c>
       <c r="P369" s="5" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="Q369" s="10" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="V369" s="5" t="s">
         <v>597</v>
@@ -32734,10 +32738,10 @@
         <v>0</v>
       </c>
       <c r="G370" s="5" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="I370" s="5" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="K370" s="5">
         <v>-31</v>
@@ -32755,10 +32759,10 @@
         <v>1800</v>
       </c>
       <c r="P370" s="5" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="Q370" s="10" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="V370" s="5" t="s">
         <v>597</v>
@@ -32796,10 +32800,10 @@
         <v>0</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I371" s="5" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="K371" s="5">
         <v>-31</v>
@@ -32817,10 +32821,10 @@
         <v>4800</v>
       </c>
       <c r="P371" s="5" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="Q371" s="10" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="V371" s="5" t="s">
         <v>564</v>
@@ -32858,10 +32862,10 @@
         <v>0</v>
       </c>
       <c r="G372" s="5" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="I372" s="5" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="K372" s="5">
         <v>-31</v>
@@ -32879,13 +32883,13 @@
         <v>9800</v>
       </c>
       <c r="P372" s="5" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="Q372" s="10" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V372" s="5" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="W372" s="5">
         <v>9999999</v>
@@ -32920,10 +32924,10 @@
         <v>0</v>
       </c>
       <c r="G373" s="5" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="I373" s="5" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="K373" s="5">
         <v>-31</v>
@@ -32941,10 +32945,10 @@
         <v>19800</v>
       </c>
       <c r="P373" s="5" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="Q373" s="10" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V373" s="5" t="s">
         <v>566</v>
@@ -32982,13 +32986,13 @@
         <v>1</v>
       </c>
       <c r="G374" s="5" t="s">
+        <v>1351</v>
+      </c>
+      <c r="H374" s="5" t="s">
         <v>1352</v>
       </c>
-      <c r="H374" s="5" t="s">
-        <v>1353</v>
-      </c>
       <c r="I374" s="5" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="K374" s="5">
         <v>-31</v>
@@ -33006,13 +33010,13 @@
         <v>600</v>
       </c>
       <c r="P374" s="5" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="Q374" s="10" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="V374" s="5" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="W374" s="5">
         <v>9999999</v>
@@ -33050,13 +33054,13 @@
         <v>1</v>
       </c>
       <c r="G375" s="5" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H375" s="5" t="s">
         <v>1356</v>
       </c>
-      <c r="H375" s="5" t="s">
+      <c r="I375" s="5" t="s">
         <v>1357</v>
-      </c>
-      <c r="I375" s="5" t="s">
-        <v>1358</v>
       </c>
       <c r="K375" s="5">
         <v>-31</v>
@@ -33074,10 +33078,10 @@
         <v>300</v>
       </c>
       <c r="P375" s="5" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="Q375" s="10" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="V375" s="5" t="s">
         <v>597</v>
@@ -33118,13 +33122,13 @@
         <v>1</v>
       </c>
       <c r="G376" s="5" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H376" s="5" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I376" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="K376" s="5">
         <v>-31</v>
@@ -33136,19 +33140,19 @@
         <v>0</v>
       </c>
       <c r="N376" s="5" t="s">
+        <v>1365</v>
+      </c>
+      <c r="O376" s="5">
+        <v>0</v>
+      </c>
+      <c r="P376" s="5" t="s">
+        <v>1381</v>
+      </c>
+      <c r="Q376" s="10" t="s">
+        <v>791</v>
+      </c>
+      <c r="V376" s="5" t="s">
         <v>1366</v>
-      </c>
-      <c r="O376" s="5">
-        <v>0</v>
-      </c>
-      <c r="P376" s="5" t="s">
-        <v>1382</v>
-      </c>
-      <c r="Q376" s="10" t="s">
-        <v>792</v>
-      </c>
-      <c r="V376" s="5" t="s">
-        <v>1367</v>
       </c>
       <c r="W376" s="5">
         <v>9999999</v>
@@ -33186,13 +33190,13 @@
         <v>0</v>
       </c>
       <c r="G377" s="5" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H377" s="5" t="s">
         <v>1363</v>
       </c>
-      <c r="H377" s="5" t="s">
-        <v>1364</v>
-      </c>
       <c r="I377" s="5" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="K377" s="5">
         <v>-31</v>
@@ -33204,19 +33208,19 @@
         <v>0</v>
       </c>
       <c r="N377" s="5" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="O377" s="5">
         <v>300</v>
       </c>
       <c r="P377" s="5" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="Q377" s="10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="V377" s="5" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="W377" s="5">
         <v>9999999</v>
@@ -33254,13 +33258,13 @@
         <v>0</v>
       </c>
       <c r="G378" s="5" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H378" s="5" t="s">
+        <v>1369</v>
+      </c>
+      <c r="I378" s="5" t="s">
         <v>1370</v>
-      </c>
-      <c r="I378" s="5" t="s">
-        <v>1371</v>
       </c>
       <c r="K378" s="5">
         <v>-31</v>
@@ -33278,13 +33282,13 @@
         <v>600</v>
       </c>
       <c r="P378" s="5" t="s">
+        <v>1381</v>
+      </c>
+      <c r="Q378" s="10" t="s">
         <v>1382</v>
       </c>
-      <c r="Q378" s="10" t="s">
-        <v>1383</v>
-      </c>
       <c r="V378" s="5" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="W378" s="5">
         <v>9999999</v>
@@ -33322,13 +33326,13 @@
         <v>0</v>
       </c>
       <c r="G379" s="5" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H379" s="5" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I379" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="K379" s="5">
         <v>-31</v>
@@ -33340,19 +33344,19 @@
         <v>0</v>
       </c>
       <c r="N379" s="5" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="O379" s="5">
         <v>1800</v>
       </c>
       <c r="P379" s="5" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="Q379" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="V379" s="5" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="W379" s="5">
         <v>9999999</v>
@@ -33390,13 +33394,13 @@
         <v>0</v>
       </c>
       <c r="G380" s="5" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H380" s="5" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I380" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="K380" s="5">
         <v>-31</v>
@@ -33408,19 +33412,19 @@
         <v>0</v>
       </c>
       <c r="N380" s="5" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="O380" s="5">
         <v>4800</v>
       </c>
       <c r="P380" s="5" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="Q380" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="V380" s="5" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="W380" s="5">
         <v>9999999</v>
@@ -33458,13 +33462,13 @@
         <v>0</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H381" s="5" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I381" s="5" t="s">
         <v>1374</v>
-      </c>
-      <c r="I381" s="5" t="s">
-        <v>1375</v>
       </c>
       <c r="K381" s="5">
         <v>-31</v>
@@ -33482,13 +33486,13 @@
         <v>0</v>
       </c>
       <c r="P381" s="5" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="Q381" s="10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="V381" s="5" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="W381" s="5">
         <v>9999999</v>
@@ -33526,13 +33530,13 @@
         <v>0</v>
       </c>
       <c r="G382" s="5" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H382" s="5" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I382" s="5" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="K382" s="5">
         <v>-31</v>
@@ -33544,19 +33548,19 @@
         <v>0</v>
       </c>
       <c r="N382" s="5" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="O382" s="5">
         <v>1800</v>
       </c>
       <c r="P382" s="5" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="Q382" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="V382" s="5" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="W382" s="5">
         <v>9999999</v>
@@ -33594,13 +33598,13 @@
         <v>0</v>
       </c>
       <c r="G383" s="5" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H383" s="5" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I383" s="5" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="K383" s="5">
         <v>-31</v>
@@ -33612,19 +33616,19 @@
         <v>0</v>
       </c>
       <c r="N383" s="5" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="O383" s="5">
         <v>4800</v>
       </c>
       <c r="P383" s="5" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="Q383" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="V383" s="5" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="W383" s="5">
         <v>9999999</v>
@@ -33662,13 +33666,13 @@
         <v>0</v>
       </c>
       <c r="G384" s="5" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H384" s="5" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I384" s="5" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="K384" s="5">
         <v>-31</v>
@@ -33680,19 +33684,19 @@
         <v>0</v>
       </c>
       <c r="N384" s="5" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="O384" s="5">
         <v>9800</v>
       </c>
       <c r="P384" s="5" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="Q384" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="V384" s="5" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="W384" s="5">
         <v>9999999</v>
@@ -33730,13 +33734,13 @@
         <v>0</v>
       </c>
       <c r="G385" s="5" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H385" s="5" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I385" s="5" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="K385" s="5">
         <v>-31</v>
@@ -33748,19 +33752,19 @@
         <v>0</v>
       </c>
       <c r="N385" s="5" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="O385" s="5">
         <v>19800</v>
       </c>
       <c r="P385" s="5" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="Q385" s="10" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="V385" s="5" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="W385" s="5">
         <v>9999999</v>
@@ -33798,13 +33802,13 @@
         <v>1</v>
       </c>
       <c r="G386" s="5" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H386" s="5" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="I386" s="5" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="K386" s="5">
         <v>-31</v>
@@ -33816,19 +33820,19 @@
         <v>0</v>
       </c>
       <c r="N386" s="5" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="O386" s="5">
         <v>1800</v>
       </c>
       <c r="P386" s="5" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="Q386" s="10" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="V386" s="5" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="W386" s="5">
         <v>9999999</v>
@@ -33866,13 +33870,13 @@
         <v>1</v>
       </c>
       <c r="G387" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H387" s="5" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="I387" s="5" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="K387" s="5">
         <v>-31</v>
@@ -33884,19 +33888,19 @@
         <v>0</v>
       </c>
       <c r="N387" s="5" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="O387" s="5">
         <v>3000</v>
       </c>
       <c r="P387" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="Q387" s="10" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="V387" s="5" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="W387" s="5">
         <v>9999999</v>
@@ -33934,13 +33938,13 @@
         <v>1</v>
       </c>
       <c r="G388" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H388" s="5" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="I388" s="5" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="K388" s="5">
         <v>-31</v>
@@ -33952,19 +33956,19 @@
         <v>0</v>
       </c>
       <c r="N388" s="5" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="O388" s="5">
         <v>4800</v>
       </c>
       <c r="P388" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="Q388" s="10" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="V388" s="5" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="W388" s="5">
         <v>9999999</v>
@@ -34002,13 +34006,13 @@
         <v>1</v>
       </c>
       <c r="G389" s="5" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H389" s="5" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I389" s="5" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="K389" s="5">
         <v>-31</v>
@@ -34020,19 +34024,19 @@
         <v>0</v>
       </c>
       <c r="N389" s="5" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="O389" s="5">
         <v>4800</v>
       </c>
       <c r="P389" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="Q389" s="10" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="V389" s="5" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="W389" s="5">
         <v>9999999</v>
@@ -34070,13 +34074,13 @@
         <v>1</v>
       </c>
       <c r="G390" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H390" s="5" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I390" s="5" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="K390" s="5">
         <v>-31</v>
@@ -34088,19 +34092,19 @@
         <v>0</v>
       </c>
       <c r="N390" s="5" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="O390" s="5">
         <v>9800</v>
       </c>
       <c r="P390" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="Q390" s="10" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="V390" s="5" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="W390" s="5">
         <v>9999999</v>
@@ -34138,13 +34142,13 @@
         <v>1</v>
       </c>
       <c r="G391" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H391" s="5" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I391" s="5" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="K391" s="5">
         <v>-31</v>
@@ -34156,19 +34160,19 @@
         <v>0</v>
       </c>
       <c r="N391" s="5" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="O391" s="5">
         <v>19800</v>
       </c>
       <c r="P391" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="Q391" s="10" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="V391" s="5" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="W391" s="5">
         <v>9999999</v>
@@ -34206,13 +34210,13 @@
         <v>1</v>
       </c>
       <c r="G392" s="5" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H392" s="5" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="I392" s="5" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="K392" s="5">
         <v>-31</v>
@@ -34224,19 +34228,19 @@
         <v>0</v>
       </c>
       <c r="N392" s="5" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="O392" s="5">
         <v>9800</v>
       </c>
       <c r="P392" s="5" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="Q392" s="10" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="V392" s="5" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="W392" s="5">
         <v>9999999</v>
@@ -34274,13 +34278,13 @@
         <v>1</v>
       </c>
       <c r="G393" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H393" s="5" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="I393" s="5" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="K393" s="5">
         <v>-31</v>
@@ -34292,19 +34296,19 @@
         <v>0</v>
       </c>
       <c r="N393" s="5" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="O393" s="5">
         <v>19800</v>
       </c>
       <c r="P393" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="Q393" s="10" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="V393" s="5" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="W393" s="5">
         <v>9999999</v>
@@ -34342,13 +34346,13 @@
         <v>1</v>
       </c>
       <c r="G394" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H394" s="5" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="I394" s="5" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="K394" s="5">
         <v>-31</v>
@@ -34360,19 +34364,19 @@
         <v>0</v>
       </c>
       <c r="N394" s="5" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="O394" s="5">
         <v>49800</v>
       </c>
       <c r="P394" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="Q394" s="10" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="V394" s="5" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="W394" s="5">
         <v>9999999</v>
@@ -34410,10 +34414,10 @@
         <v>1</v>
       </c>
       <c r="G395" s="52" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="I395" s="52" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="K395" s="52">
         <v>-31</v>
@@ -34431,10 +34435,10 @@
         <v>600</v>
       </c>
       <c r="P395" s="52" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="Q395" s="53" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="V395" s="52" t="s">
         <v>553</v>
@@ -34472,10 +34476,10 @@
         <v>1</v>
       </c>
       <c r="G396" s="52" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="I396" s="52" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="K396" s="52">
         <v>-31</v>
@@ -34493,10 +34497,10 @@
         <v>2000</v>
       </c>
       <c r="P396" s="52" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q396" s="53" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="V396" s="52" t="s">
         <v>553</v>
@@ -34537,7 +34541,7 @@
         <v>301</v>
       </c>
       <c r="I397" s="52" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="K397" s="52">
         <v>-31</v>
@@ -34555,10 +34559,10 @@
         <v>4800</v>
       </c>
       <c r="P397" s="52" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q397" s="53" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="V397" s="52" t="s">
         <v>553</v>
@@ -34599,7 +34603,7 @@
         <v>304</v>
       </c>
       <c r="I398" s="52" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="K398" s="52">
         <v>-31</v>
@@ -34617,10 +34621,10 @@
         <v>9800</v>
       </c>
       <c r="P398" s="52" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q398" s="53" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="V398" s="52" t="s">
         <v>553</v>
@@ -34658,10 +34662,10 @@
         <v>1</v>
       </c>
       <c r="G399" s="52" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="I399" s="52" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="K399" s="52">
         <v>-31</v>
@@ -34679,10 +34683,10 @@
         <v>19800</v>
       </c>
       <c r="P399" s="52" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q399" s="53" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="V399" s="52" t="s">
         <v>553</v>
@@ -34720,10 +34724,10 @@
         <v>1</v>
       </c>
       <c r="G400" s="52" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="I400" s="52" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="K400" s="52">
         <v>-31</v>
@@ -34741,10 +34745,10 @@
         <v>49800</v>
       </c>
       <c r="P400" s="52" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q400" s="53" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="V400" s="52" t="s">
         <v>553</v>
@@ -34782,10 +34786,10 @@
         <v>1</v>
       </c>
       <c r="G401" s="54" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="I401" s="54" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="K401" s="54">
         <v>-31</v>
@@ -34797,19 +34801,19 @@
         <v>0</v>
       </c>
       <c r="N401" s="54" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="O401" s="54">
         <v>1800</v>
       </c>
       <c r="P401" s="54" t="s">
+        <v>1445</v>
+      </c>
+      <c r="Q401" s="54" t="s">
+        <v>1470</v>
+      </c>
+      <c r="V401" s="54" t="s">
         <v>1446</v>
-      </c>
-      <c r="Q401" s="54" t="s">
-        <v>1471</v>
-      </c>
-      <c r="V401" s="54" t="s">
-        <v>1447</v>
       </c>
       <c r="W401" s="54">
         <v>99999999</v>
@@ -34847,10 +34851,10 @@
         <v>1</v>
       </c>
       <c r="G402" s="54" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="I402" s="54" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="K402" s="54">
         <v>-31</v>
@@ -34862,19 +34866,19 @@
         <v>0</v>
       </c>
       <c r="N402" s="54" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="O402" s="54">
         <v>4800</v>
       </c>
       <c r="P402" s="54" t="s">
+        <v>1445</v>
+      </c>
+      <c r="Q402" s="54" t="s">
+        <v>1466</v>
+      </c>
+      <c r="V402" s="54" t="s">
         <v>1446</v>
-      </c>
-      <c r="Q402" s="54" t="s">
-        <v>1467</v>
-      </c>
-      <c r="V402" s="54" t="s">
-        <v>1447</v>
       </c>
       <c r="W402" s="54">
         <v>99999999</v>
@@ -34912,10 +34916,10 @@
         <v>1</v>
       </c>
       <c r="G403" s="54" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="I403" s="54" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="K403" s="54">
         <v>-31</v>
@@ -34927,19 +34931,19 @@
         <v>0</v>
       </c>
       <c r="N403" s="54" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="O403" s="54">
         <v>9800</v>
       </c>
       <c r="P403" s="54" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q403" s="54" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="V403" s="54" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="W403" s="54">
         <v>99999999</v>
@@ -34977,10 +34981,10 @@
         <v>1</v>
       </c>
       <c r="G404" s="54" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="I404" s="54" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="K404" s="54">
         <v>-31</v>
@@ -34992,19 +34996,19 @@
         <v>0</v>
       </c>
       <c r="N404" s="54" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="O404" s="54">
         <v>19800</v>
       </c>
       <c r="P404" s="54" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="Q404" s="54" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="V404" s="54" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="W404" s="54">
         <v>99999999</v>
@@ -35042,10 +35046,10 @@
         <v>1</v>
       </c>
       <c r="G405" s="54" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="I405" s="54" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="K405" s="54">
         <v>-31</v>
@@ -35057,19 +35061,19 @@
         <v>0</v>
       </c>
       <c r="N405" s="54" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="O405" s="54">
         <v>29800</v>
       </c>
       <c r="P405" s="54" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="Q405" s="54" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="V405" s="54" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="W405" s="54">
         <v>99999999</v>
@@ -35107,10 +35111,10 @@
         <v>1</v>
       </c>
       <c r="G406" s="54" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="I406" s="54" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="K406" s="54">
         <v>-31</v>
@@ -35122,19 +35126,19 @@
         <v>0</v>
       </c>
       <c r="N406" s="54" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="O406" s="54">
         <v>49800</v>
       </c>
       <c r="P406" s="54" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="Q406" s="54" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="V406" s="54" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="W406" s="54">
         <v>99999999</v>
@@ -35172,10 +35176,10 @@
         <v>1</v>
       </c>
       <c r="G407" s="54" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="I407" s="54" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="K407" s="54">
         <v>-31</v>
@@ -35187,19 +35191,19 @@
         <v>0</v>
       </c>
       <c r="N407" s="54" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="O407" s="54">
         <v>99800</v>
       </c>
       <c r="P407" s="54" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="Q407" s="54" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="V407" s="54" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="W407" s="54">
         <v>99999999</v>
@@ -35237,10 +35241,10 @@
         <v>1</v>
       </c>
       <c r="G408" s="61" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="I408" s="61" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="K408" s="61">
         <v>-31</v>
@@ -35258,13 +35262,13 @@
         <v>600</v>
       </c>
       <c r="P408" s="61" t="s">
+        <v>1491</v>
+      </c>
+      <c r="Q408" s="62" t="s">
         <v>1492</v>
       </c>
-      <c r="Q408" s="62" t="s">
-        <v>1493</v>
-      </c>
       <c r="V408" s="61" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="W408" s="61">
         <v>99999999</v>
@@ -35302,10 +35306,10 @@
         <v>1</v>
       </c>
       <c r="G409" s="61" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="I409" s="61" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="K409" s="61">
         <v>-31</v>
@@ -35323,13 +35327,13 @@
         <v>2000</v>
       </c>
       <c r="P409" s="61" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="Q409" s="62" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="V409" s="61" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="W409" s="61">
         <v>99999999</v>
@@ -35367,10 +35371,10 @@
         <v>1</v>
       </c>
       <c r="G410" s="61" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="I410" s="61" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="K410" s="61">
         <v>-31</v>
@@ -35388,13 +35392,13 @@
         <v>4800</v>
       </c>
       <c r="P410" s="61" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="Q410" s="62" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="V410" s="61" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="W410" s="61">
         <v>99999999</v>
@@ -35432,10 +35436,10 @@
         <v>1</v>
       </c>
       <c r="G411" s="61" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="I411" s="61" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="K411" s="61">
         <v>-31</v>
@@ -35453,13 +35457,13 @@
         <v>9800</v>
       </c>
       <c r="P411" s="61" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="Q411" s="62" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="V411" s="61" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="W411" s="61">
         <v>99999999</v>
@@ -35497,10 +35501,10 @@
         <v>1</v>
       </c>
       <c r="G412" s="61" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="I412" s="61" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="K412" s="61">
         <v>-31</v>
@@ -35518,13 +35522,13 @@
         <v>19800</v>
       </c>
       <c r="P412" s="61" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="Q412" s="62" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="V412" s="61" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="W412" s="61">
         <v>99999999</v>
@@ -35562,10 +35566,10 @@
         <v>1</v>
       </c>
       <c r="G413" s="61" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="I413" s="61" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="K413" s="61">
         <v>-31</v>
@@ -35583,13 +35587,13 @@
         <v>49800</v>
       </c>
       <c r="P413" s="61" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="Q413" s="62" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="V413" s="61" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="W413" s="61">
         <v>99999999</v>
@@ -35630,7 +35634,7 @@
         <v>1</v>
       </c>
       <c r="G414" s="5" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="K414" s="5">
         <v>-4</v>
@@ -35651,7 +35655,7 @@
         <v>90</v>
       </c>
       <c r="Q414" s="10" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="V414" s="5" t="s">
         <v>550</v>
@@ -35700,7 +35704,7 @@
         <v>402</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>403</v>
@@ -35717,7 +35721,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -35734,7 +35738,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -35748,7 +35752,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -35762,7 +35766,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -35888,7 +35892,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -35916,7 +35920,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -36070,7 +36074,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -36085,7 +36089,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -36100,7 +36104,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -36115,7 +36119,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
@@ -36130,7 +36134,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C31" s="12">
         <v>1</v>
@@ -36145,7 +36149,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
@@ -36160,7 +36164,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C33" s="12">
         <v>1</v>
@@ -36175,7 +36179,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C34" s="12">
         <v>1</v>
@@ -36190,7 +36194,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
@@ -36205,7 +36209,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
@@ -36220,7 +36224,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -36235,7 +36239,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
@@ -36250,7 +36254,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
@@ -36264,7 +36268,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -36278,7 +36282,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -36292,7 +36296,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
@@ -36306,7 +36310,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C43" s="12">
         <v>1</v>
@@ -36320,7 +36324,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -36334,7 +36338,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="51" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C45" s="50">
         <v>1</v>
@@ -36348,7 +36352,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="51" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C46" s="50">
         <v>1</v>
@@ -36362,7 +36366,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C47" s="50">
         <v>1</v>
@@ -36376,7 +36380,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="56" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C48" s="55">
         <v>1</v>
@@ -36390,7 +36394,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C49" s="63">
         <v>1</v>
@@ -36455,7 +36459,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>414</v>
@@ -36467,10 +36471,10 @@
         <v>416</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1009</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1010</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>22</v>
@@ -36527,7 +36531,7 @@
         <v>42</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -36572,10 +36576,10 @@
         <v>3</v>
       </c>
       <c r="Q2" s="34" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="S2" s="34" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="T2" s="11" t="s">
         <v>50</v>
@@ -36640,10 +36644,10 @@
         <v>4</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="S3" s="34" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="T3" s="11" t="s">
         <v>53</v>
@@ -36708,10 +36712,10 @@
         <v>5</v>
       </c>
       <c r="Q4" s="34" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="S4" s="34" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="T4" s="11" t="s">
         <v>55</v>
@@ -36776,10 +36780,10 @@
         <v>6</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="S5" s="34" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="T5" s="11" t="s">
         <v>57</v>
@@ -36844,10 +36848,10 @@
         <v>7</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="S6" s="34" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="T6" s="11" t="s">
         <v>59</v>
@@ -36912,10 +36916,10 @@
         <v>9</v>
       </c>
       <c r="Q7" s="34" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="S7" s="34" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="T7" s="11" t="s">
         <v>61</v>
@@ -36975,10 +36979,10 @@
         <v>0</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="S8" s="34" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="T8" s="11" t="s">
         <v>50</v>
@@ -37038,7 +37042,7 @@
         <v>2</v>
       </c>
       <c r="Q9" s="34" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="T9" s="11">
         <v>5000</v>
@@ -37056,7 +37060,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="34" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="10" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -37101,7 +37105,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="T10" s="11">
         <v>1000</v>
@@ -37119,7 +37123,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="34" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="11" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -37164,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q11" s="34" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="S11" s="34" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="T11" s="23" t="s">
         <v>53</v>
@@ -37232,10 +37236,10 @@
         <v>9</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="S12" s="34" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="T12" s="11" t="s">
         <v>63</v>
@@ -37300,10 +37304,10 @@
         <v>10</v>
       </c>
       <c r="Q13" s="34" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="S13" s="34" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="T13" s="11" t="s">
         <v>421</v>
@@ -37368,10 +37372,10 @@
         <v>11</v>
       </c>
       <c r="Q14" s="34" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="S14" s="34" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="T14" s="11" t="s">
         <v>422</v>
@@ -37434,7 +37438,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="34" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="S15" s="34"/>
       <c r="T15" s="11">
@@ -37453,7 +37457,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="34" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -37503,10 +37507,10 @@
         <v>3</v>
       </c>
       <c r="Q16" s="34" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="S16" s="34" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="T16" s="11" t="s">
         <v>72</v>
@@ -37566,10 +37570,10 @@
         <v>4</v>
       </c>
       <c r="Q17" s="34" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="S17" s="34" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="T17" s="11" t="s">
         <v>75</v>
@@ -37629,10 +37633,10 @@
         <v>5</v>
       </c>
       <c r="Q18" s="34" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="S18" s="34" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="T18" s="11" t="s">
         <v>78</v>
@@ -37692,10 +37696,10 @@
         <v>6</v>
       </c>
       <c r="Q19" s="34" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="S19" s="34" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="T19" s="11" t="s">
         <v>82</v>
@@ -37755,10 +37759,10 @@
         <v>7</v>
       </c>
       <c r="Q20" s="34" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="S20" s="34" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="T20" s="11" t="s">
         <v>86</v>
@@ -37818,10 +37822,10 @@
         <v>0</v>
       </c>
       <c r="Q21" s="36" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="S21" s="36" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="T21" s="35" t="s">
         <v>89</v>
@@ -37881,7 +37885,7 @@
         <v>2</v>
       </c>
       <c r="Q22" s="34" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="S22" s="34"/>
       <c r="T22" s="11">
@@ -37942,7 +37946,7 @@
         <v>1</v>
       </c>
       <c r="Q23" s="34" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="S23" s="34"/>
       <c r="T23" s="11">
@@ -38006,7 +38010,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="34" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="S24" s="34"/>
       <c r="T24" s="11">
@@ -38025,7 +38029,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="34" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="25" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -38048,7 +38052,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H25" s="11">
         <v>19800</v>
@@ -38075,10 +38079,10 @@
         <v>8</v>
       </c>
       <c r="Q25" s="34" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="S25" s="34" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="T25" s="34" t="s">
         <v>547</v>
@@ -38541,7 +38545,7 @@
         <v>90</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="L8" s="12">
         <v>57</v>
@@ -38559,7 +38563,7 @@
         <v>448</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="S8" s="12" t="s">
         <v>433</v>
@@ -38734,7 +38738,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>488</v>
@@ -38781,7 +38785,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>488</v>
@@ -38828,7 +38832,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>492</v>

--- a/config_cjj/shoping_config_cjj.xlsx
+++ b/config_cjj/shoping_config_cjj.xlsx
@@ -7463,7 +7463,7 @@
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36415,7 +36415,7 @@
   <dimension ref="A1:AC27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36544,7 +36544,12 @@
       <c r="C2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="60"/>
+      <c r="D2" s="60">
+        <v>10330</v>
+      </c>
+      <c r="E2" s="11">
+        <v>10330</v>
+      </c>
       <c r="F2" s="11">
         <v>1</v>
       </c>

--- a/config_cjj/shoping_config_cjj.xlsx
+++ b/config_cjj/shoping_config_cjj.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'gift_bag|礼包'!$A$1:$AM$322</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'jing_bi|购买鲸币'!$A$1:$AC$25</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3463" uniqueCount="1517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3470" uniqueCount="1520">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6616,6 +6616,18 @@
   </si>
   <si>
     <t>gift_id|首冲对应购买的礼包的id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鸡送礼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1万",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7462,7 +7474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -9442,13 +9454,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM414"/>
+  <dimension ref="A1:AM415"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q400" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H400" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B414" sqref="B414"/>
+      <selection pane="bottomRight" activeCell="A415" sqref="A415:XFD415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -35673,6 +35685,62 @@
         <v>1</v>
       </c>
       <c r="AH414" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A415" s="6">
+        <v>414</v>
+      </c>
+      <c r="B415" s="6">
+        <v>10331</v>
+      </c>
+      <c r="F415" s="6">
+        <v>1</v>
+      </c>
+      <c r="G415" s="6" t="s">
+        <v>1517</v>
+      </c>
+      <c r="I415" s="61" t="s">
+        <v>1518</v>
+      </c>
+      <c r="K415" s="6">
+        <v>-31</v>
+      </c>
+      <c r="L415" s="6">
+        <v>0</v>
+      </c>
+      <c r="M415" s="6">
+        <v>0</v>
+      </c>
+      <c r="N415" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O415" s="5">
+        <v>1000</v>
+      </c>
+      <c r="P415" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q415" s="10" t="s">
+        <v>1519</v>
+      </c>
+      <c r="V415" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="W415" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="X415" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y415" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="AG415" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH415" s="6">
         <v>1</v>
       </c>
     </row>

--- a/config_cjj/shoping_config_cjj.xlsx
+++ b/config_cjj/shoping_config_cjj.xlsx
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'gift_bag|礼包'!$A$1:$AM$322</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'jing_bi|购买鲸币'!$A$1:$AC$25</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3470" uniqueCount="1520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3463" uniqueCount="1517">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6616,18 +6616,6 @@
   </si>
   <si>
     <t>gift_id|首冲对应购买的礼包的id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>金鸡送礼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1万",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9454,7 +9442,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM415"/>
+  <dimension ref="A1:AM414"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H400" activePane="bottomRight" state="frozen"/>
@@ -35688,62 +35676,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A415" s="6">
-        <v>414</v>
-      </c>
-      <c r="B415" s="6">
-        <v>10331</v>
-      </c>
-      <c r="F415" s="6">
-        <v>1</v>
-      </c>
-      <c r="G415" s="6" t="s">
-        <v>1517</v>
-      </c>
-      <c r="I415" s="61" t="s">
-        <v>1518</v>
-      </c>
-      <c r="K415" s="6">
-        <v>-31</v>
-      </c>
-      <c r="L415" s="6">
-        <v>0</v>
-      </c>
-      <c r="M415" s="6">
-        <v>0</v>
-      </c>
-      <c r="N415" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="O415" s="5">
-        <v>1000</v>
-      </c>
-      <c r="P415" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q415" s="10" t="s">
-        <v>1519</v>
-      </c>
-      <c r="V415" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="W415" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="X415" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y415" s="5">
-        <v>2552233600</v>
-      </c>
-      <c r="AG415" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH415" s="6">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_cjj/shoping_config_cjj.xlsx
+++ b/config_cjj/shoping_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_cjj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3463" uniqueCount="1517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1741">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6595,10 +6595,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>9830000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>51300000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6616,6 +6612,909 @@
   </si>
   <si>
     <t>gift_id|首冲对应购买的礼包的id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{type="permission_class",class_value = "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wsj_v1v3_040</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" }</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{type="permission_class",class_value = "wsj_v4v10_040</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" }</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{type="permission_class",class_value = "xrzx_040</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" }</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万金币","10万金币","玩具锤*1",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_hammer_1",</t>
+  </si>
+  <si>
+    <t>"30万金币","20万金币","玩具锤*2",</t>
+  </si>
+  <si>
+    <t>"60万金币","30万金币","玩具锤*3",</t>
+  </si>
+  <si>
+    <t>"60万金币","20万金币","玩具锤*3",</t>
+  </si>
+  <si>
+    <t>白银宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（v1-v3）及小额、免费</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"鲸币宝箱抽奖券",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（v4-v10）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"gun_barrel_7",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小额用户6元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"鲸币宝箱抽奖券",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_cjlb_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,3,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（v1-v3）及小额、免费</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_cjlb_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（v4-v10）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1直通礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","5话费碎片","30～1000福卡",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{40,50,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人专享</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万金币","冰冻*5","锁定*5","新人宝箱",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_frozen","prop_3d_fish_lock","prop_cjlb_10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,5,5,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"580万金币","冰冻*10","锁定*10","高级宝箱",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_frozen","prop_3d_fish_lock","prop_cjlb_11",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5800000,10,10,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪华宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1280万金币","冰冻*15","锁定*15","豪华宝箱",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_frozen","prop_3d_fish_lock","prop_cjlb_12",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>12800000,15,15,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>神龙之力</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"神龙之力",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡之灵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"死亡之灵",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"gun_barrel_6",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>核能风暴</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"核能风暴",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"gun_barrel_5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币使者</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币使者",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"gun_barrel_4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪耀风暴</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"闪耀风暴",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"gun_barrel_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费用户1元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费用户3元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费用户6元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>800000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一帆风顺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>立冬福袋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","10万小游戏币","水滴*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_sd",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>二龙腾飞</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","15万小游戏币","水滴*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","30万小游戏币","阳光*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,300000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","60万小游戏币","阳光*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2980万金币","90万小游戏币","阳光*12",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","150万小游戏币","铁锹*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_cz",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","300万小游戏币","铁锹*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一498元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万","200万小游戏币","抽奖券*50",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_11.11_cjq",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,2000000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一198元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万","50万小游戏币","抽奖券*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,500000,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一98元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万","10万小游戏币","抽奖券*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,100000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一48元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万","3万小游戏币","抽奖券*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,30000,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一20元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万","1万小游戏币","抽奖券*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,10000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一6元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","3000小游戏币","抽奖券*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算8元-1</t>
+  </si>
+  <si>
+    <t>聚划算8元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"80万金币","2.4万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>824000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算8元-2</t>
+  </si>
+  <si>
+    <t>聚划算8元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"80万金币","4.8万金币",</t>
+  </si>
+  <si>
+    <t>848000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算8元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算8元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"80万金币","4.8万金币","0.8万",</t>
+  </si>
+  <si>
+    <t>856000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算38元-1</t>
+  </si>
+  <si>
+    <t>聚划算38元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"380万金币","11万金币",</t>
+  </si>
+  <si>
+    <t>3910000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算38元-2</t>
+  </si>
+  <si>
+    <t>聚划算38元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"380万金币","22.8万金币",</t>
+  </si>
+  <si>
+    <t>4028000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算38元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算38元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"380万金币","22.8万金币","3.8万",</t>
+  </si>
+  <si>
+    <t>4066000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元-1</t>
+  </si>
+  <si>
+    <t>聚划算98元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","29万金币",</t>
+  </si>
+  <si>
+    <t>10090000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元-2</t>
+  </si>
+  <si>
+    <t>聚划算98元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","58.8万金币",</t>
+  </si>
+  <si>
+    <t>10388000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算98元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","58.8万金币","9.8万",</t>
+  </si>
+  <si>
+    <t>10478000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算198元-1</t>
+  </si>
+  <si>
+    <t>聚划算198元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","59万金币",</t>
+  </si>
+  <si>
+    <t>20390000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算198元-2</t>
+  </si>
+  <si>
+    <t>聚划算198元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","118.8万金币",</t>
+  </si>
+  <si>
+    <t>20988000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算198元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算198元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","118.8万金币","19.8万",</t>
+  </si>
+  <si>
+    <t>21186000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算498元-1</t>
+  </si>
+  <si>
+    <t>聚划算498元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","149万金币",</t>
+  </si>
+  <si>
+    <t>51290000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算498元-2</t>
+  </si>
+  <si>
+    <t>聚划算498元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","298.8万金币",</t>
+  </si>
+  <si>
+    <t>52788000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算498元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算498元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","298.8万金币","49.8万",</t>
+  </si>
+  <si>
+    <t>53286000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算998元-1</t>
+  </si>
+  <si>
+    <t>聚划算998元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","299万金币",</t>
+  </si>
+  <si>
+    <t>102790000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算998元-2</t>
+  </si>
+  <si>
+    <t>聚划算998元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","598.8万金币",</t>
+  </si>
+  <si>
+    <t>105788000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算998元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算998元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","598.8万金币","99.8万",</t>
+  </si>
+  <si>
+    <t>106786000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算2498元-1</t>
+  </si>
+  <si>
+    <t>聚划算2498元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"24980万金币","749万金币",</t>
+  </si>
+  <si>
+    <t>257290000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算2498元-2</t>
+  </si>
+  <si>
+    <t>聚划算2498元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"24980万金币","1498.8万金币",</t>
+  </si>
+  <si>
+    <t>264788000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算2498元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算2498元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"24980万金币","1498.8万金币","249.8万",</t>
+  </si>
+  <si>
+    <t>267286000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一本万利</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>铂金礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,0</t>
+  </si>
+  <si>
+    <t>钻石礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>星耀礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10365,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10363,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10368,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10366,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10371,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10369,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10374,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10372,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10377,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10375,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10380,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10378,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10383,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10381,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2.5亿金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6687,7 +7586,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6760,6 +7659,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -6803,7 +7732,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6997,6 +7926,51 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7514,7 +8488,7 @@
         <v>16</v>
       </c>
       <c r="F1" s="59" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1348</v>
@@ -9442,13 +10416,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM414"/>
+  <dimension ref="A1:AM475"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H400" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q455" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A415" sqref="A415:XFD415"/>
+      <selection pane="bottomRight" activeCell="Q475" sqref="Q475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -13431,7 +14405,7 @@
         <v>90</v>
       </c>
       <c r="Q70" s="40" t="s">
-        <v>1511</v>
+        <v>722</v>
       </c>
       <c r="V70" s="19" t="s">
         <v>550</v>
@@ -13487,7 +14461,7 @@
         <v>90</v>
       </c>
       <c r="Q71" s="40" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="V71" s="19" t="s">
         <v>550</v>
@@ -16856,7 +17830,7 @@
         <v>90</v>
       </c>
       <c r="Q128" s="40" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="V128" s="19" t="s">
         <v>550</v>
@@ -16912,7 +17886,7 @@
         <v>90</v>
       </c>
       <c r="Q129" s="40" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="V129" s="19" t="s">
         <v>550</v>
@@ -26197,7 +27171,7 @@
         <v>90</v>
       </c>
       <c r="Q273" s="10" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="V273" s="5" t="s">
         <v>550</v>
@@ -33791,615 +34765,615 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="5">
+    <row r="386" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="19">
         <v>385</v>
       </c>
-      <c r="B386" s="5">
+      <c r="B386" s="19">
         <v>10302</v>
       </c>
-      <c r="F386" s="5">
-        <v>1</v>
-      </c>
-      <c r="G386" s="5" t="s">
+      <c r="F386" s="19">
+        <v>1</v>
+      </c>
+      <c r="G386" s="19" t="s">
         <v>1383</v>
       </c>
-      <c r="H386" s="5" t="s">
+      <c r="H386" s="19" t="s">
         <v>1387</v>
       </c>
-      <c r="I386" s="5" t="s">
+      <c r="I386" s="19" t="s">
         <v>1390</v>
       </c>
-      <c r="K386" s="5">
+      <c r="K386" s="19">
         <v>-31</v>
       </c>
-      <c r="L386" s="5">
-        <v>0</v>
-      </c>
-      <c r="M386" s="5">
-        <v>0</v>
-      </c>
-      <c r="N386" s="5" t="s">
+      <c r="L386" s="19">
+        <v>0</v>
+      </c>
+      <c r="M386" s="19">
+        <v>0</v>
+      </c>
+      <c r="N386" s="19" t="s">
         <v>1399</v>
       </c>
-      <c r="O386" s="5">
+      <c r="O386" s="19">
         <v>1800</v>
       </c>
-      <c r="P386" s="5" t="s">
+      <c r="P386" s="19" t="s">
         <v>1400</v>
       </c>
-      <c r="Q386" s="10" t="s">
+      <c r="Q386" s="40" t="s">
         <v>1409</v>
       </c>
-      <c r="V386" s="5" t="s">
+      <c r="V386" s="19" t="s">
         <v>1419</v>
       </c>
-      <c r="W386" s="5">
+      <c r="W386" s="19">
         <v>9999999</v>
       </c>
-      <c r="X386" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y386" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z386" s="5">
+      <c r="X386" s="61">
+        <v>1605571200</v>
+      </c>
+      <c r="Y386" s="61">
+        <v>1606147199</v>
+      </c>
+      <c r="Z386" s="19">
         <v>44</v>
       </c>
-      <c r="AG386" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH386" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK386" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL386" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="5">
+      <c r="AG386" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH386" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK386" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL386" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="19">
         <v>386</v>
       </c>
-      <c r="B387" s="5">
+      <c r="B387" s="19">
         <v>10303</v>
       </c>
-      <c r="F387" s="5">
-        <v>1</v>
-      </c>
-      <c r="G387" s="5" t="s">
+      <c r="F387" s="19">
+        <v>1</v>
+      </c>
+      <c r="G387" s="19" t="s">
         <v>1384</v>
       </c>
-      <c r="H387" s="5" t="s">
+      <c r="H387" s="19" t="s">
         <v>1387</v>
       </c>
-      <c r="I387" s="5" t="s">
+      <c r="I387" s="19" t="s">
         <v>1391</v>
       </c>
-      <c r="K387" s="5">
+      <c r="K387" s="19">
         <v>-31</v>
       </c>
-      <c r="L387" s="5">
-        <v>0</v>
-      </c>
-      <c r="M387" s="5">
-        <v>0</v>
-      </c>
-      <c r="N387" s="5" t="s">
+      <c r="L387" s="19">
+        <v>0</v>
+      </c>
+      <c r="M387" s="19">
+        <v>0</v>
+      </c>
+      <c r="N387" s="19" t="s">
         <v>1399</v>
       </c>
-      <c r="O387" s="5">
+      <c r="O387" s="19">
         <v>3000</v>
       </c>
-      <c r="P387" s="5" t="s">
+      <c r="P387" s="19" t="s">
         <v>1402</v>
       </c>
-      <c r="Q387" s="10" t="s">
+      <c r="Q387" s="40" t="s">
         <v>1410</v>
       </c>
-      <c r="V387" s="5" t="s">
+      <c r="V387" s="19" t="s">
         <v>1419</v>
       </c>
-      <c r="W387" s="5">
+      <c r="W387" s="19">
         <v>9999999</v>
       </c>
-      <c r="X387" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y387" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z387" s="5">
+      <c r="X387" s="61">
+        <v>1605571200</v>
+      </c>
+      <c r="Y387" s="61">
+        <v>1606147199</v>
+      </c>
+      <c r="Z387" s="19">
         <v>44</v>
       </c>
-      <c r="AG387" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH387" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK387" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL387" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="5">
+      <c r="AG387" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH387" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK387" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL387" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="19">
         <v>387</v>
       </c>
-      <c r="B388" s="5">
+      <c r="B388" s="19">
         <v>10304</v>
       </c>
-      <c r="F388" s="5">
-        <v>1</v>
-      </c>
-      <c r="G388" s="5" t="s">
+      <c r="F388" s="19">
+        <v>1</v>
+      </c>
+      <c r="G388" s="19" t="s">
         <v>1385</v>
       </c>
-      <c r="H388" s="5" t="s">
+      <c r="H388" s="19" t="s">
         <v>1387</v>
       </c>
-      <c r="I388" s="5" t="s">
+      <c r="I388" s="19" t="s">
         <v>1392</v>
       </c>
-      <c r="K388" s="5">
+      <c r="K388" s="19">
         <v>-31</v>
       </c>
-      <c r="L388" s="5">
-        <v>0</v>
-      </c>
-      <c r="M388" s="5">
-        <v>0</v>
-      </c>
-      <c r="N388" s="5" t="s">
+      <c r="L388" s="19">
+        <v>0</v>
+      </c>
+      <c r="M388" s="19">
+        <v>0</v>
+      </c>
+      <c r="N388" s="19" t="s">
         <v>1399</v>
       </c>
-      <c r="O388" s="5">
+      <c r="O388" s="19">
         <v>4800</v>
       </c>
-      <c r="P388" s="5" t="s">
+      <c r="P388" s="19" t="s">
         <v>1403</v>
       </c>
-      <c r="Q388" s="10" t="s">
+      <c r="Q388" s="40" t="s">
         <v>1411</v>
       </c>
-      <c r="V388" s="5" t="s">
+      <c r="V388" s="19" t="s">
         <v>1419</v>
       </c>
-      <c r="W388" s="5">
+      <c r="W388" s="19">
         <v>9999999</v>
       </c>
-      <c r="X388" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y388" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z388" s="5">
+      <c r="X388" s="61">
+        <v>1605571200</v>
+      </c>
+      <c r="Y388" s="61">
+        <v>1606147199</v>
+      </c>
+      <c r="Z388" s="19">
         <v>44</v>
       </c>
-      <c r="AG388" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH388" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK388" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL388" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="5">
+      <c r="AG388" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH388" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK388" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL388" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="19">
         <v>388</v>
       </c>
-      <c r="B389" s="5">
+      <c r="B389" s="19">
         <v>10305</v>
       </c>
-      <c r="F389" s="5">
-        <v>1</v>
-      </c>
-      <c r="G389" s="5" t="s">
+      <c r="F389" s="19">
+        <v>1</v>
+      </c>
+      <c r="G389" s="19" t="s">
         <v>1383</v>
       </c>
-      <c r="H389" s="5" t="s">
+      <c r="H389" s="19" t="s">
         <v>1388</v>
       </c>
-      <c r="I389" s="5" t="s">
+      <c r="I389" s="19" t="s">
         <v>1393</v>
       </c>
-      <c r="K389" s="5">
+      <c r="K389" s="19">
         <v>-31</v>
       </c>
-      <c r="L389" s="5">
-        <v>0</v>
-      </c>
-      <c r="M389" s="5">
-        <v>0</v>
-      </c>
-      <c r="N389" s="5" t="s">
+      <c r="L389" s="19">
+        <v>0</v>
+      </c>
+      <c r="M389" s="19">
+        <v>0</v>
+      </c>
+      <c r="N389" s="19" t="s">
         <v>1399</v>
       </c>
-      <c r="O389" s="5">
+      <c r="O389" s="19">
         <v>4800</v>
       </c>
-      <c r="P389" s="5" t="s">
+      <c r="P389" s="19" t="s">
         <v>1404</v>
       </c>
-      <c r="Q389" s="10" t="s">
+      <c r="Q389" s="40" t="s">
         <v>1412</v>
       </c>
-      <c r="V389" s="5" t="s">
+      <c r="V389" s="19" t="s">
         <v>1419</v>
       </c>
-      <c r="W389" s="5">
+      <c r="W389" s="19">
         <v>9999999</v>
       </c>
-      <c r="X389" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y389" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z389" s="5">
+      <c r="X389" s="77">
+        <v>1605571200</v>
+      </c>
+      <c r="Y389" s="77">
+        <v>1606147199</v>
+      </c>
+      <c r="Z389" s="19">
         <v>45</v>
       </c>
-      <c r="AG389" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH389" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK389" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL389" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="5">
+      <c r="AG389" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH389" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK389" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL389" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="19">
         <v>389</v>
       </c>
-      <c r="B390" s="5">
+      <c r="B390" s="19">
         <v>10306</v>
       </c>
-      <c r="F390" s="5">
-        <v>1</v>
-      </c>
-      <c r="G390" s="5" t="s">
+      <c r="F390" s="19">
+        <v>1</v>
+      </c>
+      <c r="G390" s="19" t="s">
         <v>1384</v>
       </c>
-      <c r="H390" s="5" t="s">
+      <c r="H390" s="19" t="s">
         <v>1388</v>
       </c>
-      <c r="I390" s="5" t="s">
+      <c r="I390" s="19" t="s">
         <v>1394</v>
       </c>
-      <c r="K390" s="5">
+      <c r="K390" s="19">
         <v>-31</v>
       </c>
-      <c r="L390" s="5">
-        <v>0</v>
-      </c>
-      <c r="M390" s="5">
-        <v>0</v>
-      </c>
-      <c r="N390" s="5" t="s">
+      <c r="L390" s="19">
+        <v>0</v>
+      </c>
+      <c r="M390" s="19">
+        <v>0</v>
+      </c>
+      <c r="N390" s="19" t="s">
         <v>1399</v>
       </c>
-      <c r="O390" s="5">
+      <c r="O390" s="19">
         <v>9800</v>
       </c>
-      <c r="P390" s="5" t="s">
+      <c r="P390" s="19" t="s">
         <v>1405</v>
       </c>
-      <c r="Q390" s="10" t="s">
+      <c r="Q390" s="40" t="s">
         <v>1413</v>
       </c>
-      <c r="V390" s="5" t="s">
+      <c r="V390" s="19" t="s">
         <v>1419</v>
       </c>
-      <c r="W390" s="5">
+      <c r="W390" s="19">
         <v>9999999</v>
       </c>
-      <c r="X390" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y390" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z390" s="5">
+      <c r="X390" s="77">
+        <v>1605571200</v>
+      </c>
+      <c r="Y390" s="77">
+        <v>1606147199</v>
+      </c>
+      <c r="Z390" s="19">
         <v>45</v>
       </c>
-      <c r="AG390" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH390" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK390" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL390" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="5">
+      <c r="AG390" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH390" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK390" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL390" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="19">
         <v>390</v>
       </c>
-      <c r="B391" s="5">
+      <c r="B391" s="19">
         <v>10307</v>
       </c>
-      <c r="F391" s="5">
-        <v>1</v>
-      </c>
-      <c r="G391" s="5" t="s">
+      <c r="F391" s="19">
+        <v>1</v>
+      </c>
+      <c r="G391" s="19" t="s">
         <v>1385</v>
       </c>
-      <c r="H391" s="5" t="s">
+      <c r="H391" s="19" t="s">
         <v>1388</v>
       </c>
-      <c r="I391" s="5" t="s">
+      <c r="I391" s="19" t="s">
         <v>1395</v>
       </c>
-      <c r="K391" s="5">
+      <c r="K391" s="19">
         <v>-31</v>
       </c>
-      <c r="L391" s="5">
-        <v>0</v>
-      </c>
-      <c r="M391" s="5">
-        <v>0</v>
-      </c>
-      <c r="N391" s="5" t="s">
+      <c r="L391" s="19">
+        <v>0</v>
+      </c>
+      <c r="M391" s="19">
+        <v>0</v>
+      </c>
+      <c r="N391" s="19" t="s">
         <v>1399</v>
       </c>
-      <c r="O391" s="5">
+      <c r="O391" s="19">
         <v>19800</v>
       </c>
-      <c r="P391" s="5" t="s">
+      <c r="P391" s="19" t="s">
         <v>1406</v>
       </c>
-      <c r="Q391" s="10" t="s">
+      <c r="Q391" s="40" t="s">
         <v>1414</v>
       </c>
-      <c r="V391" s="5" t="s">
+      <c r="V391" s="19" t="s">
         <v>1419</v>
       </c>
-      <c r="W391" s="5">
+      <c r="W391" s="19">
         <v>9999999</v>
       </c>
-      <c r="X391" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y391" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z391" s="5">
+      <c r="X391" s="77">
+        <v>1605571200</v>
+      </c>
+      <c r="Y391" s="77">
+        <v>1606147199</v>
+      </c>
+      <c r="Z391" s="19">
         <v>45</v>
       </c>
-      <c r="AG391" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH391" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK391" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL391" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="5">
+      <c r="AG391" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH391" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK391" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL391" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="19">
         <v>391</v>
       </c>
-      <c r="B392" s="5">
+      <c r="B392" s="19">
         <v>10308</v>
       </c>
-      <c r="F392" s="5">
-        <v>1</v>
-      </c>
-      <c r="G392" s="5" t="s">
+      <c r="F392" s="19">
+        <v>1</v>
+      </c>
+      <c r="G392" s="19" t="s">
         <v>1383</v>
       </c>
-      <c r="H392" s="5" t="s">
+      <c r="H392" s="19" t="s">
         <v>1389</v>
       </c>
-      <c r="I392" s="5" t="s">
+      <c r="I392" s="19" t="s">
         <v>1396</v>
       </c>
-      <c r="K392" s="5">
+      <c r="K392" s="19">
         <v>-31</v>
       </c>
-      <c r="L392" s="5">
-        <v>0</v>
-      </c>
-      <c r="M392" s="5">
-        <v>0</v>
-      </c>
-      <c r="N392" s="5" t="s">
+      <c r="L392" s="19">
+        <v>0</v>
+      </c>
+      <c r="M392" s="19">
+        <v>0</v>
+      </c>
+      <c r="N392" s="19" t="s">
         <v>1399</v>
       </c>
-      <c r="O392" s="5">
+      <c r="O392" s="19">
         <v>9800</v>
       </c>
-      <c r="P392" s="5" t="s">
+      <c r="P392" s="19" t="s">
         <v>1401</v>
       </c>
-      <c r="Q392" s="10" t="s">
+      <c r="Q392" s="40" t="s">
         <v>1415</v>
       </c>
-      <c r="V392" s="5" t="s">
+      <c r="V392" s="19" t="s">
         <v>1419</v>
       </c>
-      <c r="W392" s="5">
+      <c r="W392" s="19">
         <v>9999999</v>
       </c>
-      <c r="X392" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y392" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z392" s="5">
+      <c r="X392" s="61">
+        <v>1605571200</v>
+      </c>
+      <c r="Y392" s="61">
+        <v>1606147199</v>
+      </c>
+      <c r="Z392" s="19">
         <v>46</v>
       </c>
-      <c r="AG392" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH392" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK392" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL392" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A393" s="5">
+      <c r="AG392" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH392" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK392" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL392" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="19">
         <v>392</v>
       </c>
-      <c r="B393" s="5">
+      <c r="B393" s="19">
         <v>10309</v>
       </c>
-      <c r="F393" s="5">
-        <v>1</v>
-      </c>
-      <c r="G393" s="5" t="s">
+      <c r="F393" s="19">
+        <v>1</v>
+      </c>
+      <c r="G393" s="19" t="s">
         <v>1384</v>
       </c>
-      <c r="H393" s="5" t="s">
+      <c r="H393" s="19" t="s">
         <v>1389</v>
       </c>
-      <c r="I393" s="5" t="s">
+      <c r="I393" s="19" t="s">
         <v>1397</v>
       </c>
-      <c r="K393" s="5">
+      <c r="K393" s="19">
         <v>-31</v>
       </c>
-      <c r="L393" s="5">
-        <v>0</v>
-      </c>
-      <c r="M393" s="5">
-        <v>0</v>
-      </c>
-      <c r="N393" s="5" t="s">
+      <c r="L393" s="19">
+        <v>0</v>
+      </c>
+      <c r="M393" s="19">
+        <v>0</v>
+      </c>
+      <c r="N393" s="19" t="s">
         <v>1399</v>
       </c>
-      <c r="O393" s="5">
+      <c r="O393" s="19">
         <v>19800</v>
       </c>
-      <c r="P393" s="5" t="s">
+      <c r="P393" s="19" t="s">
         <v>1407</v>
       </c>
-      <c r="Q393" s="10" t="s">
+      <c r="Q393" s="40" t="s">
         <v>1417</v>
       </c>
-      <c r="V393" s="5" t="s">
+      <c r="V393" s="19" t="s">
         <v>1419</v>
       </c>
-      <c r="W393" s="5">
+      <c r="W393" s="19">
         <v>9999999</v>
       </c>
-      <c r="X393" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y393" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z393" s="5">
+      <c r="X393" s="61">
+        <v>1605571200</v>
+      </c>
+      <c r="Y393" s="61">
+        <v>1606147199</v>
+      </c>
+      <c r="Z393" s="19">
         <v>46</v>
       </c>
-      <c r="AG393" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH393" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK393" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL393" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A394" s="5">
+      <c r="AG393" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH393" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK393" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL393" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="19">
         <v>393</v>
       </c>
-      <c r="B394" s="5">
+      <c r="B394" s="19">
         <v>10310</v>
       </c>
-      <c r="F394" s="5">
-        <v>1</v>
-      </c>
-      <c r="G394" s="5" t="s">
+      <c r="F394" s="19">
+        <v>1</v>
+      </c>
+      <c r="G394" s="19" t="s">
         <v>1385</v>
       </c>
-      <c r="H394" s="5" t="s">
+      <c r="H394" s="19" t="s">
         <v>1389</v>
       </c>
-      <c r="I394" s="5" t="s">
+      <c r="I394" s="19" t="s">
         <v>1398</v>
       </c>
-      <c r="K394" s="5">
+      <c r="K394" s="19">
         <v>-31</v>
       </c>
-      <c r="L394" s="5">
-        <v>0</v>
-      </c>
-      <c r="M394" s="5">
-        <v>0</v>
-      </c>
-      <c r="N394" s="5" t="s">
+      <c r="L394" s="19">
+        <v>0</v>
+      </c>
+      <c r="M394" s="19">
+        <v>0</v>
+      </c>
+      <c r="N394" s="19" t="s">
         <v>1399</v>
       </c>
-      <c r="O394" s="5">
+      <c r="O394" s="19">
         <v>49800</v>
       </c>
-      <c r="P394" s="5" t="s">
+      <c r="P394" s="19" t="s">
         <v>1408</v>
       </c>
-      <c r="Q394" s="10" t="s">
+      <c r="Q394" s="40" t="s">
         <v>1416</v>
       </c>
-      <c r="V394" s="5" t="s">
+      <c r="V394" s="19" t="s">
         <v>1419</v>
       </c>
-      <c r="W394" s="5">
+      <c r="W394" s="19">
         <v>9999999</v>
       </c>
-      <c r="X394" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y394" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z394" s="5">
+      <c r="X394" s="61">
+        <v>1605571200</v>
+      </c>
+      <c r="Y394" s="61">
+        <v>1606147199</v>
+      </c>
+      <c r="Z394" s="19">
         <v>46</v>
       </c>
-      <c r="AG394" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH394" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK394" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL394" s="5">
+      <c r="AG394" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH394" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK394" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL394" s="19">
         <v>1</v>
       </c>
     </row>
@@ -35673,6 +36647,3992 @@
         <v>1</v>
       </c>
       <c r="AH414" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A415" s="6">
+        <v>414</v>
+      </c>
+      <c r="B415" s="5">
+        <v>10331</v>
+      </c>
+      <c r="F415" s="5">
+        <v>1</v>
+      </c>
+      <c r="G415" s="6" t="s">
+        <v>1524</v>
+      </c>
+      <c r="H415" s="6" t="s">
+        <v>1525</v>
+      </c>
+      <c r="I415" s="6" t="s">
+        <v>1534</v>
+      </c>
+      <c r="K415" s="6">
+        <v>-31</v>
+      </c>
+      <c r="L415" s="5">
+        <v>0</v>
+      </c>
+      <c r="M415" s="5">
+        <v>0</v>
+      </c>
+      <c r="N415" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O415" s="6">
+        <v>600</v>
+      </c>
+      <c r="P415" s="5" t="s">
+        <v>1535</v>
+      </c>
+      <c r="Q415" s="49" t="s">
+        <v>1536</v>
+      </c>
+      <c r="V415" s="6" t="s">
+        <v>1537</v>
+      </c>
+      <c r="W415" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="X415" s="6">
+        <v>1603756800</v>
+      </c>
+      <c r="Y415" s="6">
+        <v>1604332799</v>
+      </c>
+      <c r="Z415" s="6">
+        <v>49</v>
+      </c>
+      <c r="AG415" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH415" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK415" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL415" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A416" s="6">
+        <v>415</v>
+      </c>
+      <c r="B416" s="5">
+        <v>10332</v>
+      </c>
+      <c r="F416" s="5">
+        <v>1</v>
+      </c>
+      <c r="G416" s="6" t="s">
+        <v>1538</v>
+      </c>
+      <c r="H416" s="6" t="s">
+        <v>1539</v>
+      </c>
+      <c r="I416" s="6" t="s">
+        <v>1526</v>
+      </c>
+      <c r="K416" s="6">
+        <v>-31</v>
+      </c>
+      <c r="L416" s="5">
+        <v>0</v>
+      </c>
+      <c r="M416" s="5">
+        <v>0</v>
+      </c>
+      <c r="N416" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O416" s="6">
+        <v>1800</v>
+      </c>
+      <c r="P416" s="5" t="s">
+        <v>1540</v>
+      </c>
+      <c r="Q416" s="49" t="s">
+        <v>1527</v>
+      </c>
+      <c r="V416" s="6" t="s">
+        <v>1537</v>
+      </c>
+      <c r="W416" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="X416" s="6">
+        <v>1603756800</v>
+      </c>
+      <c r="Y416" s="6">
+        <v>1604332799</v>
+      </c>
+      <c r="Z416" s="6">
+        <v>49</v>
+      </c>
+      <c r="AG416" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH416" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK416" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL416" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A417" s="5">
+        <v>416</v>
+      </c>
+      <c r="B417" s="5">
+        <v>10333</v>
+      </c>
+      <c r="F417" s="5">
+        <v>1</v>
+      </c>
+      <c r="G417" s="6" t="s">
+        <v>1541</v>
+      </c>
+      <c r="H417" s="6" t="s">
+        <v>1539</v>
+      </c>
+      <c r="I417" s="6" t="s">
+        <v>1534</v>
+      </c>
+      <c r="K417" s="6">
+        <v>-31</v>
+      </c>
+      <c r="L417" s="5">
+        <v>0</v>
+      </c>
+      <c r="M417" s="5">
+        <v>0</v>
+      </c>
+      <c r="N417" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O417" s="6">
+        <v>4800</v>
+      </c>
+      <c r="P417" s="5" t="s">
+        <v>1269</v>
+      </c>
+      <c r="Q417" s="49" t="s">
+        <v>1527</v>
+      </c>
+      <c r="V417" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="W417" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="X417" s="6">
+        <v>1603756800</v>
+      </c>
+      <c r="Y417" s="6">
+        <v>1604332799</v>
+      </c>
+      <c r="Z417" s="6">
+        <v>49</v>
+      </c>
+      <c r="AG417" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH417" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK417" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL417" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A418" s="5">
+        <v>417</v>
+      </c>
+      <c r="B418" s="5">
+        <v>10334</v>
+      </c>
+      <c r="F418" s="5">
+        <v>1</v>
+      </c>
+      <c r="G418" s="6" t="s">
+        <v>1542</v>
+      </c>
+      <c r="H418" s="6" t="s">
+        <v>1529</v>
+      </c>
+      <c r="I418" s="6" t="s">
+        <v>1534</v>
+      </c>
+      <c r="K418" s="6">
+        <v>-31</v>
+      </c>
+      <c r="L418" s="5">
+        <v>0</v>
+      </c>
+      <c r="M418" s="5">
+        <v>0</v>
+      </c>
+      <c r="N418" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O418" s="6">
+        <v>9800</v>
+      </c>
+      <c r="P418" s="5" t="s">
+        <v>1270</v>
+      </c>
+      <c r="Q418" s="49" t="s">
+        <v>1536</v>
+      </c>
+      <c r="V418" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="W418" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="X418" s="6">
+        <v>1603756800</v>
+      </c>
+      <c r="Y418" s="6">
+        <v>1604332799</v>
+      </c>
+      <c r="Z418" s="6">
+        <v>50</v>
+      </c>
+      <c r="AG418" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH418" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK418" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL418" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A419" s="6">
+        <v>418</v>
+      </c>
+      <c r="B419" s="5">
+        <v>10335</v>
+      </c>
+      <c r="F419" s="5">
+        <v>1</v>
+      </c>
+      <c r="G419" s="6" t="s">
+        <v>1538</v>
+      </c>
+      <c r="H419" s="6" t="s">
+        <v>1543</v>
+      </c>
+      <c r="I419" s="6" t="s">
+        <v>1526</v>
+      </c>
+      <c r="K419" s="6">
+        <v>-31</v>
+      </c>
+      <c r="L419" s="5">
+        <v>0</v>
+      </c>
+      <c r="M419" s="5">
+        <v>0</v>
+      </c>
+      <c r="N419" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O419" s="6">
+        <v>19800</v>
+      </c>
+      <c r="P419" s="5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="Q419" s="49" t="s">
+        <v>1536</v>
+      </c>
+      <c r="V419" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="W419" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="X419" s="6">
+        <v>1603756800</v>
+      </c>
+      <c r="Y419" s="6">
+        <v>1604332799</v>
+      </c>
+      <c r="Z419" s="6">
+        <v>50</v>
+      </c>
+      <c r="AG419" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH419" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK419" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL419" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A420" s="6">
+        <v>419</v>
+      </c>
+      <c r="B420" s="5">
+        <v>10336</v>
+      </c>
+      <c r="F420" s="5">
+        <v>1</v>
+      </c>
+      <c r="G420" s="6" t="s">
+        <v>1528</v>
+      </c>
+      <c r="H420" s="6" t="s">
+        <v>1529</v>
+      </c>
+      <c r="I420" s="6" t="s">
+        <v>1534</v>
+      </c>
+      <c r="K420" s="6">
+        <v>-31</v>
+      </c>
+      <c r="L420" s="5">
+        <v>0</v>
+      </c>
+      <c r="M420" s="5">
+        <v>0</v>
+      </c>
+      <c r="N420" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O420" s="6">
+        <v>49800</v>
+      </c>
+      <c r="P420" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="Q420" s="49" t="s">
+        <v>1536</v>
+      </c>
+      <c r="V420" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="W420" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="X420" s="6">
+        <v>1603756800</v>
+      </c>
+      <c r="Y420" s="6">
+        <v>1604332799</v>
+      </c>
+      <c r="Z420" s="6">
+        <v>50</v>
+      </c>
+      <c r="AG420" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH420" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK420" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL420" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="19">
+        <v>420</v>
+      </c>
+      <c r="B421" s="19">
+        <v>10337</v>
+      </c>
+      <c r="F421" s="19">
+        <v>1</v>
+      </c>
+      <c r="G421" s="19" t="s">
+        <v>1544</v>
+      </c>
+      <c r="I421" s="19" t="s">
+        <v>1545</v>
+      </c>
+      <c r="K421" s="19">
+        <v>-31</v>
+      </c>
+      <c r="L421" s="19">
+        <v>0</v>
+      </c>
+      <c r="M421" s="19">
+        <v>0</v>
+      </c>
+      <c r="N421" s="19" t="s">
+        <v>1546</v>
+      </c>
+      <c r="O421" s="19">
+        <v>1000</v>
+      </c>
+      <c r="P421" s="19" t="s">
+        <v>1547</v>
+      </c>
+      <c r="Q421" s="40" t="s">
+        <v>1548</v>
+      </c>
+      <c r="V421" s="19" t="s">
+        <v>1530</v>
+      </c>
+      <c r="W421" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="X421" s="19">
+        <v>1585609200</v>
+      </c>
+      <c r="Y421" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="AA421" s="19" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AB421" s="19" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AG421" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH421" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK421" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL421" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="67">
+        <v>421</v>
+      </c>
+      <c r="B422" s="67">
+        <v>10338</v>
+      </c>
+      <c r="F422" s="67">
+        <v>1</v>
+      </c>
+      <c r="G422" s="67" t="s">
+        <v>1551</v>
+      </c>
+      <c r="H422" s="67" t="s">
+        <v>1552</v>
+      </c>
+      <c r="I422" s="67" t="s">
+        <v>1553</v>
+      </c>
+      <c r="K422" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L422" s="67">
+        <v>0</v>
+      </c>
+      <c r="M422" s="67">
+        <v>0</v>
+      </c>
+      <c r="N422" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="O422" s="67">
+        <v>2000</v>
+      </c>
+      <c r="P422" s="67" t="s">
+        <v>1554</v>
+      </c>
+      <c r="Q422" s="68" t="s">
+        <v>1555</v>
+      </c>
+      <c r="V422" s="67" t="s">
+        <v>1530</v>
+      </c>
+      <c r="W422" s="67">
+        <v>99999999</v>
+      </c>
+      <c r="X422" s="67">
+        <v>1603756800</v>
+      </c>
+      <c r="Y422" s="67">
+        <v>2552233600</v>
+      </c>
+      <c r="Z422" s="67">
+        <v>51</v>
+      </c>
+      <c r="AG422" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH422" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK422" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL422" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="67">
+        <v>422</v>
+      </c>
+      <c r="B423" s="67">
+        <v>10339</v>
+      </c>
+      <c r="F423" s="67">
+        <v>1</v>
+      </c>
+      <c r="G423" s="67" t="s">
+        <v>1556</v>
+      </c>
+      <c r="H423" s="67" t="s">
+        <v>1552</v>
+      </c>
+      <c r="I423" s="67" t="s">
+        <v>1557</v>
+      </c>
+      <c r="K423" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L423" s="67">
+        <v>0</v>
+      </c>
+      <c r="M423" s="67">
+        <v>0</v>
+      </c>
+      <c r="N423" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="O423" s="67">
+        <v>5800</v>
+      </c>
+      <c r="P423" s="67" t="s">
+        <v>1558</v>
+      </c>
+      <c r="Q423" s="68" t="s">
+        <v>1559</v>
+      </c>
+      <c r="V423" s="67" t="s">
+        <v>1560</v>
+      </c>
+      <c r="W423" s="67">
+        <v>99999999</v>
+      </c>
+      <c r="X423" s="67">
+        <v>1603756800</v>
+      </c>
+      <c r="Y423" s="67">
+        <v>2552233600</v>
+      </c>
+      <c r="Z423" s="67">
+        <v>51</v>
+      </c>
+      <c r="AG423" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH423" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK423" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL423" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="67">
+        <v>423</v>
+      </c>
+      <c r="B424" s="67">
+        <v>10340</v>
+      </c>
+      <c r="F424" s="67">
+        <v>1</v>
+      </c>
+      <c r="G424" s="67" t="s">
+        <v>1561</v>
+      </c>
+      <c r="H424" s="67" t="s">
+        <v>1552</v>
+      </c>
+      <c r="I424" s="67" t="s">
+        <v>1562</v>
+      </c>
+      <c r="K424" s="67">
+        <v>-31</v>
+      </c>
+      <c r="L424" s="67">
+        <v>0</v>
+      </c>
+      <c r="M424" s="67">
+        <v>0</v>
+      </c>
+      <c r="N424" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="O424" s="67">
+        <v>12800</v>
+      </c>
+      <c r="P424" s="67" t="s">
+        <v>1563</v>
+      </c>
+      <c r="Q424" s="68" t="s">
+        <v>1564</v>
+      </c>
+      <c r="V424" s="67" t="s">
+        <v>1560</v>
+      </c>
+      <c r="W424" s="67">
+        <v>99999999</v>
+      </c>
+      <c r="X424" s="67">
+        <v>1603756800</v>
+      </c>
+      <c r="Y424" s="67">
+        <v>2552233600</v>
+      </c>
+      <c r="Z424" s="67">
+        <v>51</v>
+      </c>
+      <c r="AG424" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH424" s="67">
+        <v>1</v>
+      </c>
+      <c r="AK424" s="67">
+        <v>1</v>
+      </c>
+      <c r="AL424" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A425" s="6">
+        <v>424</v>
+      </c>
+      <c r="B425" s="5">
+        <v>10341</v>
+      </c>
+      <c r="F425" s="6">
+        <v>1</v>
+      </c>
+      <c r="G425" s="6" t="s">
+        <v>1565</v>
+      </c>
+      <c r="I425" s="6" t="s">
+        <v>1566</v>
+      </c>
+      <c r="K425" s="6">
+        <v>-31</v>
+      </c>
+      <c r="L425" s="6">
+        <v>0</v>
+      </c>
+      <c r="M425" s="6">
+        <v>0</v>
+      </c>
+      <c r="N425" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O425" s="6">
+        <v>49800</v>
+      </c>
+      <c r="P425" s="6" t="s">
+        <v>1531</v>
+      </c>
+      <c r="Q425" s="49" t="s">
+        <v>1567</v>
+      </c>
+      <c r="V425" s="6" t="s">
+        <v>1560</v>
+      </c>
+      <c r="W425" s="6">
+        <v>9999999</v>
+      </c>
+      <c r="X425" s="19">
+        <v>1585609200</v>
+      </c>
+      <c r="Y425" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="AG425" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH425" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A426" s="6">
+        <v>425</v>
+      </c>
+      <c r="B426" s="5">
+        <v>10342</v>
+      </c>
+      <c r="F426" s="6">
+        <v>1</v>
+      </c>
+      <c r="G426" s="6" t="s">
+        <v>1568</v>
+      </c>
+      <c r="I426" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="K426" s="6">
+        <v>-31</v>
+      </c>
+      <c r="L426" s="6">
+        <v>0</v>
+      </c>
+      <c r="M426" s="6">
+        <v>0</v>
+      </c>
+      <c r="N426" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O426" s="6">
+        <v>19800</v>
+      </c>
+      <c r="P426" s="6" t="s">
+        <v>1570</v>
+      </c>
+      <c r="Q426" s="49" t="s">
+        <v>1532</v>
+      </c>
+      <c r="V426" s="6" t="s">
+        <v>1560</v>
+      </c>
+      <c r="W426" s="6">
+        <v>9999999</v>
+      </c>
+      <c r="X426" s="19">
+        <v>1585609200</v>
+      </c>
+      <c r="Y426" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="AG426" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH426" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A427" s="6">
+        <v>426</v>
+      </c>
+      <c r="B427" s="5">
+        <v>10343</v>
+      </c>
+      <c r="F427" s="6">
+        <v>1</v>
+      </c>
+      <c r="G427" s="6" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I427" s="6" t="s">
+        <v>1572</v>
+      </c>
+      <c r="K427" s="6">
+        <v>-31</v>
+      </c>
+      <c r="L427" s="6">
+        <v>0</v>
+      </c>
+      <c r="M427" s="6">
+        <v>0</v>
+      </c>
+      <c r="N427" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O427" s="6">
+        <v>9800</v>
+      </c>
+      <c r="P427" s="6" t="s">
+        <v>1573</v>
+      </c>
+      <c r="Q427" s="49" t="s">
+        <v>1567</v>
+      </c>
+      <c r="V427" s="6" t="s">
+        <v>1560</v>
+      </c>
+      <c r="W427" s="6">
+        <v>9999999</v>
+      </c>
+      <c r="X427" s="19">
+        <v>1585609200</v>
+      </c>
+      <c r="Y427" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="AG427" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH427" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A428" s="6">
+        <v>427</v>
+      </c>
+      <c r="B428" s="5">
+        <v>10344</v>
+      </c>
+      <c r="F428" s="6">
+        <v>1</v>
+      </c>
+      <c r="G428" s="6" t="s">
+        <v>1574</v>
+      </c>
+      <c r="I428" s="6" t="s">
+        <v>1575</v>
+      </c>
+      <c r="K428" s="6">
+        <v>-31</v>
+      </c>
+      <c r="L428" s="6">
+        <v>0</v>
+      </c>
+      <c r="M428" s="6">
+        <v>0</v>
+      </c>
+      <c r="N428" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O428" s="6">
+        <v>9800</v>
+      </c>
+      <c r="P428" s="6" t="s">
+        <v>1576</v>
+      </c>
+      <c r="Q428" s="49" t="s">
+        <v>1532</v>
+      </c>
+      <c r="V428" s="6" t="s">
+        <v>1560</v>
+      </c>
+      <c r="W428" s="6">
+        <v>9999999</v>
+      </c>
+      <c r="X428" s="19">
+        <v>1585609200</v>
+      </c>
+      <c r="Y428" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="AG428" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH428" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A429" s="6">
+        <v>428</v>
+      </c>
+      <c r="B429" s="5">
+        <v>10345</v>
+      </c>
+      <c r="F429" s="6">
+        <v>1</v>
+      </c>
+      <c r="G429" s="6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I429" s="6" t="s">
+        <v>1578</v>
+      </c>
+      <c r="K429" s="6">
+        <v>-31</v>
+      </c>
+      <c r="L429" s="6">
+        <v>0</v>
+      </c>
+      <c r="M429" s="6">
+        <v>0</v>
+      </c>
+      <c r="N429" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O429" s="6">
+        <v>4800</v>
+      </c>
+      <c r="P429" s="6" t="s">
+        <v>1579</v>
+      </c>
+      <c r="Q429" s="49" t="s">
+        <v>1532</v>
+      </c>
+      <c r="V429" s="6" t="s">
+        <v>1560</v>
+      </c>
+      <c r="W429" s="6">
+        <v>9999999</v>
+      </c>
+      <c r="X429" s="19">
+        <v>1585609200</v>
+      </c>
+      <c r="Y429" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="AG429" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH429" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A430" s="6">
+        <v>429</v>
+      </c>
+      <c r="B430" s="5">
+        <v>10346</v>
+      </c>
+      <c r="F430" s="19">
+        <v>1</v>
+      </c>
+      <c r="G430" s="19" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H430" s="19" t="s">
+        <v>1581</v>
+      </c>
+      <c r="I430" s="19" t="s">
+        <v>1519</v>
+      </c>
+      <c r="K430" s="19">
+        <v>-28</v>
+      </c>
+      <c r="L430" s="19">
+        <v>0</v>
+      </c>
+      <c r="M430" s="19">
+        <v>0</v>
+      </c>
+      <c r="N430" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="O430" s="19">
+        <v>100</v>
+      </c>
+      <c r="P430" s="19" t="s">
+        <v>1520</v>
+      </c>
+      <c r="Q430" s="40" t="s">
+        <v>1582</v>
+      </c>
+      <c r="V430" s="19" t="s">
+        <v>1583</v>
+      </c>
+      <c r="W430" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="X430" s="19">
+        <v>1581377400</v>
+      </c>
+      <c r="Y430" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="Z430" s="19">
+        <v>14</v>
+      </c>
+      <c r="AG430" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH430" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK430" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL430" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A431" s="6">
+        <v>430</v>
+      </c>
+      <c r="B431" s="5">
+        <v>10347</v>
+      </c>
+      <c r="F431" s="19">
+        <v>1</v>
+      </c>
+      <c r="G431" s="19" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H431" s="19" t="s">
+        <v>1584</v>
+      </c>
+      <c r="I431" s="19" t="s">
+        <v>1521</v>
+      </c>
+      <c r="K431" s="19">
+        <v>-28</v>
+      </c>
+      <c r="L431" s="19">
+        <v>0</v>
+      </c>
+      <c r="M431" s="19">
+        <v>0</v>
+      </c>
+      <c r="N431" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="O431" s="19">
+        <v>300</v>
+      </c>
+      <c r="P431" s="19" t="s">
+        <v>1520</v>
+      </c>
+      <c r="Q431" s="40" t="s">
+        <v>1585</v>
+      </c>
+      <c r="V431" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="W431" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="X431" s="19">
+        <v>1581377400</v>
+      </c>
+      <c r="Y431" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="Z431" s="19">
+        <v>14</v>
+      </c>
+      <c r="AG431" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH431" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK431" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL431" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A432" s="6">
+        <v>431</v>
+      </c>
+      <c r="B432" s="5">
+        <v>10348</v>
+      </c>
+      <c r="F432" s="19">
+        <v>1</v>
+      </c>
+      <c r="G432" s="19" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H432" s="19" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I432" s="19" t="s">
+        <v>1522</v>
+      </c>
+      <c r="K432" s="19">
+        <v>-28</v>
+      </c>
+      <c r="L432" s="19">
+        <v>0</v>
+      </c>
+      <c r="M432" s="19">
+        <v>0</v>
+      </c>
+      <c r="N432" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="O432" s="19">
+        <v>600</v>
+      </c>
+      <c r="P432" s="19" t="s">
+        <v>1520</v>
+      </c>
+      <c r="Q432" s="40" t="s">
+        <v>773</v>
+      </c>
+      <c r="V432" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="W432" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="X432" s="19">
+        <v>1581377400</v>
+      </c>
+      <c r="Y432" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="Z432" s="19">
+        <v>14</v>
+      </c>
+      <c r="AG432" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH432" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK432" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL432" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A433" s="6">
+        <v>432</v>
+      </c>
+      <c r="B433" s="5">
+        <v>10349</v>
+      </c>
+      <c r="F433" s="19">
+        <v>1</v>
+      </c>
+      <c r="G433" s="19" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H433" s="19" t="s">
+        <v>1533</v>
+      </c>
+      <c r="I433" s="19" t="s">
+        <v>1523</v>
+      </c>
+      <c r="K433" s="19">
+        <v>-28</v>
+      </c>
+      <c r="L433" s="19">
+        <v>0</v>
+      </c>
+      <c r="M433" s="19">
+        <v>0</v>
+      </c>
+      <c r="N433" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="O433" s="19">
+        <v>600</v>
+      </c>
+      <c r="P433" s="19" t="s">
+        <v>1520</v>
+      </c>
+      <c r="Q433" s="40" t="s">
+        <v>1587</v>
+      </c>
+      <c r="V433" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="W433" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="X433" s="19">
+        <v>1581377400</v>
+      </c>
+      <c r="Y433" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="Z433" s="19">
+        <v>14</v>
+      </c>
+      <c r="AG433" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH433" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK433" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL433" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A434" s="5">
+        <v>433</v>
+      </c>
+      <c r="B434" s="5">
+        <v>10350</v>
+      </c>
+      <c r="F434" s="5">
+        <v>0</v>
+      </c>
+      <c r="G434" s="5" t="s">
+        <v>1588</v>
+      </c>
+      <c r="H434" s="5" t="s">
+        <v>1589</v>
+      </c>
+      <c r="I434" s="5" t="s">
+        <v>1590</v>
+      </c>
+      <c r="K434" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L434" s="5">
+        <v>0</v>
+      </c>
+      <c r="M434" s="5">
+        <v>0</v>
+      </c>
+      <c r="N434" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O434" s="5">
+        <v>1800</v>
+      </c>
+      <c r="P434" s="5" t="s">
+        <v>1591</v>
+      </c>
+      <c r="Q434" s="10" t="s">
+        <v>1470</v>
+      </c>
+      <c r="V434" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W434" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X434" s="5">
+        <v>1604359800</v>
+      </c>
+      <c r="Y434" s="5">
+        <v>1604937599</v>
+      </c>
+      <c r="AG434" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH434" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK434" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL434" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A435" s="5">
+        <v>434</v>
+      </c>
+      <c r="B435" s="5">
+        <v>10351</v>
+      </c>
+      <c r="F435" s="5">
+        <v>0</v>
+      </c>
+      <c r="G435" s="5" t="s">
+        <v>1592</v>
+      </c>
+      <c r="H435" s="5" t="s">
+        <v>1589</v>
+      </c>
+      <c r="I435" s="5" t="s">
+        <v>1593</v>
+      </c>
+      <c r="K435" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L435" s="5">
+        <v>0</v>
+      </c>
+      <c r="M435" s="5">
+        <v>0</v>
+      </c>
+      <c r="N435" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O435" s="5">
+        <v>4800</v>
+      </c>
+      <c r="P435" s="5" t="s">
+        <v>1591</v>
+      </c>
+      <c r="Q435" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="V435" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W435" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X435" s="5">
+        <v>1604359800</v>
+      </c>
+      <c r="Y435" s="5">
+        <v>1604937599</v>
+      </c>
+      <c r="AG435" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH435" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK435" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL435" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A436" s="5">
+        <v>435</v>
+      </c>
+      <c r="B436" s="5">
+        <v>10352</v>
+      </c>
+      <c r="F436" s="5">
+        <v>0</v>
+      </c>
+      <c r="G436" s="5" t="s">
+        <v>1448</v>
+      </c>
+      <c r="H436" s="5" t="s">
+        <v>1589</v>
+      </c>
+      <c r="I436" s="5" t="s">
+        <v>1594</v>
+      </c>
+      <c r="K436" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L436" s="5">
+        <v>0</v>
+      </c>
+      <c r="M436" s="5">
+        <v>0</v>
+      </c>
+      <c r="N436" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O436" s="5">
+        <v>9800</v>
+      </c>
+      <c r="P436" s="5" t="s">
+        <v>1595</v>
+      </c>
+      <c r="Q436" s="10" t="s">
+        <v>1596</v>
+      </c>
+      <c r="V436" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W436" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X436" s="5">
+        <v>1604359800</v>
+      </c>
+      <c r="Y436" s="5">
+        <v>1604937599</v>
+      </c>
+      <c r="AG436" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH436" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK436" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL436" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A437" s="5">
+        <v>436</v>
+      </c>
+      <c r="B437" s="5">
+        <v>10353</v>
+      </c>
+      <c r="F437" s="5">
+        <v>0</v>
+      </c>
+      <c r="G437" s="5" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H437" s="5" t="s">
+        <v>1589</v>
+      </c>
+      <c r="I437" s="5" t="s">
+        <v>1597</v>
+      </c>
+      <c r="K437" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L437" s="5">
+        <v>0</v>
+      </c>
+      <c r="M437" s="5">
+        <v>0</v>
+      </c>
+      <c r="N437" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O437" s="5">
+        <v>19800</v>
+      </c>
+      <c r="P437" s="5" t="s">
+        <v>1595</v>
+      </c>
+      <c r="Q437" s="10" t="s">
+        <v>1465</v>
+      </c>
+      <c r="V437" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W437" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X437" s="5">
+        <v>1604359800</v>
+      </c>
+      <c r="Y437" s="5">
+        <v>1604937599</v>
+      </c>
+      <c r="AG437" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH437" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK437" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL437" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A438" s="5">
+        <v>437</v>
+      </c>
+      <c r="B438" s="5">
+        <v>10354</v>
+      </c>
+      <c r="F438" s="5">
+        <v>0</v>
+      </c>
+      <c r="G438" s="5" t="s">
+        <v>1453</v>
+      </c>
+      <c r="H438" s="5" t="s">
+        <v>1589</v>
+      </c>
+      <c r="I438" s="5" t="s">
+        <v>1598</v>
+      </c>
+      <c r="K438" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L438" s="5">
+        <v>0</v>
+      </c>
+      <c r="M438" s="5">
+        <v>0</v>
+      </c>
+      <c r="N438" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O438" s="5">
+        <v>29800</v>
+      </c>
+      <c r="P438" s="5" t="s">
+        <v>1595</v>
+      </c>
+      <c r="Q438" s="10" t="s">
+        <v>1472</v>
+      </c>
+      <c r="V438" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W438" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X438" s="5">
+        <v>1604359800</v>
+      </c>
+      <c r="Y438" s="5">
+        <v>1604937599</v>
+      </c>
+      <c r="AG438" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH438" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK438" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL438" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A439" s="5">
+        <v>438</v>
+      </c>
+      <c r="B439" s="5">
+        <v>10355</v>
+      </c>
+      <c r="F439" s="5">
+        <v>0</v>
+      </c>
+      <c r="G439" s="5" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H439" s="5" t="s">
+        <v>1589</v>
+      </c>
+      <c r="I439" s="5" t="s">
+        <v>1599</v>
+      </c>
+      <c r="K439" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L439" s="5">
+        <v>0</v>
+      </c>
+      <c r="M439" s="5">
+        <v>0</v>
+      </c>
+      <c r="N439" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O439" s="5">
+        <v>49800</v>
+      </c>
+      <c r="P439" s="5" t="s">
+        <v>1600</v>
+      </c>
+      <c r="Q439" s="10" t="s">
+        <v>1467</v>
+      </c>
+      <c r="V439" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W439" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X439" s="5">
+        <v>1604359800</v>
+      </c>
+      <c r="Y439" s="5">
+        <v>1604937599</v>
+      </c>
+      <c r="AG439" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH439" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK439" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL439" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A440" s="5">
+        <v>439</v>
+      </c>
+      <c r="B440" s="5">
+        <v>10356</v>
+      </c>
+      <c r="F440" s="5">
+        <v>0</v>
+      </c>
+      <c r="G440" s="5" t="s">
+        <v>1456</v>
+      </c>
+      <c r="H440" s="5" t="s">
+        <v>1589</v>
+      </c>
+      <c r="I440" s="5" t="s">
+        <v>1601</v>
+      </c>
+      <c r="K440" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L440" s="5">
+        <v>0</v>
+      </c>
+      <c r="M440" s="5">
+        <v>0</v>
+      </c>
+      <c r="N440" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="O440" s="5">
+        <v>99800</v>
+      </c>
+      <c r="P440" s="5" t="s">
+        <v>1600</v>
+      </c>
+      <c r="Q440" s="10" t="s">
+        <v>1468</v>
+      </c>
+      <c r="V440" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="W440" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X440" s="5">
+        <v>1604359800</v>
+      </c>
+      <c r="Y440" s="5">
+        <v>1604937599</v>
+      </c>
+      <c r="AG440" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH440" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK440" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL440" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A441" s="5">
+        <v>440</v>
+      </c>
+      <c r="B441" s="5">
+        <v>10357</v>
+      </c>
+      <c r="F441" s="5">
+        <v>0</v>
+      </c>
+      <c r="G441" s="5" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I441" s="5" t="s">
+        <v>1603</v>
+      </c>
+      <c r="K441" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L441" s="5">
+        <v>0</v>
+      </c>
+      <c r="M441" s="5">
+        <v>0</v>
+      </c>
+      <c r="N441" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O441" s="5">
+        <v>49800</v>
+      </c>
+      <c r="P441" s="5" t="s">
+        <v>1604</v>
+      </c>
+      <c r="Q441" s="10" t="s">
+        <v>1605</v>
+      </c>
+      <c r="V441" s="5" t="s">
+        <v>1606</v>
+      </c>
+      <c r="W441" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X441" s="5">
+        <v>1604966400</v>
+      </c>
+      <c r="Y441" s="5">
+        <v>1605542399</v>
+      </c>
+      <c r="AG441" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH441" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK441" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL441" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A442" s="5">
+        <v>441</v>
+      </c>
+      <c r="B442" s="5">
+        <v>10358</v>
+      </c>
+      <c r="F442" s="5">
+        <v>0</v>
+      </c>
+      <c r="G442" s="5" t="s">
+        <v>1607</v>
+      </c>
+      <c r="I442" s="5" t="s">
+        <v>1608</v>
+      </c>
+      <c r="K442" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L442" s="5">
+        <v>0</v>
+      </c>
+      <c r="M442" s="5">
+        <v>0</v>
+      </c>
+      <c r="N442" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O442" s="5">
+        <v>19800</v>
+      </c>
+      <c r="P442" s="5" t="s">
+        <v>1604</v>
+      </c>
+      <c r="Q442" s="10" t="s">
+        <v>1609</v>
+      </c>
+      <c r="V442" s="5" t="s">
+        <v>1606</v>
+      </c>
+      <c r="W442" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X442" s="5">
+        <v>1604966400</v>
+      </c>
+      <c r="Y442" s="5">
+        <v>1605542399</v>
+      </c>
+      <c r="AG442" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH442" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK442" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL442" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A443" s="5">
+        <v>442</v>
+      </c>
+      <c r="B443" s="5">
+        <v>10359</v>
+      </c>
+      <c r="F443" s="5">
+        <v>0</v>
+      </c>
+      <c r="G443" s="5" t="s">
+        <v>1610</v>
+      </c>
+      <c r="I443" s="5" t="s">
+        <v>1611</v>
+      </c>
+      <c r="K443" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L443" s="5">
+        <v>0</v>
+      </c>
+      <c r="M443" s="5">
+        <v>0</v>
+      </c>
+      <c r="N443" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O443" s="5">
+        <v>9800</v>
+      </c>
+      <c r="P443" s="5" t="s">
+        <v>1604</v>
+      </c>
+      <c r="Q443" s="10" t="s">
+        <v>1612</v>
+      </c>
+      <c r="V443" s="5" t="s">
+        <v>1606</v>
+      </c>
+      <c r="W443" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X443" s="5">
+        <v>1604966400</v>
+      </c>
+      <c r="Y443" s="5">
+        <v>1605542399</v>
+      </c>
+      <c r="AG443" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH443" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK443" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL443" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A444" s="5">
+        <v>443</v>
+      </c>
+      <c r="B444" s="5">
+        <v>10360</v>
+      </c>
+      <c r="F444" s="5">
+        <v>0</v>
+      </c>
+      <c r="G444" s="5" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I444" s="5" t="s">
+        <v>1614</v>
+      </c>
+      <c r="K444" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L444" s="5">
+        <v>0</v>
+      </c>
+      <c r="M444" s="5">
+        <v>0</v>
+      </c>
+      <c r="N444" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O444" s="5">
+        <v>4800</v>
+      </c>
+      <c r="P444" s="5" t="s">
+        <v>1604</v>
+      </c>
+      <c r="Q444" s="10" t="s">
+        <v>1615</v>
+      </c>
+      <c r="V444" s="5" t="s">
+        <v>1606</v>
+      </c>
+      <c r="W444" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X444" s="5">
+        <v>1604966400</v>
+      </c>
+      <c r="Y444" s="5">
+        <v>1605542399</v>
+      </c>
+      <c r="AG444" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH444" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK444" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL444" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A445" s="5">
+        <v>444</v>
+      </c>
+      <c r="B445" s="5">
+        <v>10361</v>
+      </c>
+      <c r="F445" s="5">
+        <v>0</v>
+      </c>
+      <c r="G445" s="5" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I445" s="5" t="s">
+        <v>1617</v>
+      </c>
+      <c r="K445" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L445" s="5">
+        <v>0</v>
+      </c>
+      <c r="M445" s="5">
+        <v>0</v>
+      </c>
+      <c r="N445" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O445" s="5">
+        <v>2000</v>
+      </c>
+      <c r="P445" s="5" t="s">
+        <v>1604</v>
+      </c>
+      <c r="Q445" s="10" t="s">
+        <v>1618</v>
+      </c>
+      <c r="V445" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="W445" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X445" s="5">
+        <v>1604966400</v>
+      </c>
+      <c r="Y445" s="5">
+        <v>1605542399</v>
+      </c>
+      <c r="AG445" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH445" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK445" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL445" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A446" s="5">
+        <v>445</v>
+      </c>
+      <c r="B446" s="5">
+        <v>10362</v>
+      </c>
+      <c r="F446" s="5">
+        <v>0</v>
+      </c>
+      <c r="G446" s="5" t="s">
+        <v>1619</v>
+      </c>
+      <c r="I446" s="5" t="s">
+        <v>1620</v>
+      </c>
+      <c r="K446" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L446" s="5">
+        <v>0</v>
+      </c>
+      <c r="M446" s="5">
+        <v>0</v>
+      </c>
+      <c r="N446" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O446" s="5">
+        <v>600</v>
+      </c>
+      <c r="P446" s="5" t="s">
+        <v>1604</v>
+      </c>
+      <c r="Q446" s="10" t="s">
+        <v>1435</v>
+      </c>
+      <c r="V446" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="W446" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X446" s="5">
+        <v>1604966400</v>
+      </c>
+      <c r="Y446" s="5">
+        <v>1605542399</v>
+      </c>
+      <c r="AG446" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH446" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK446" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL446" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="69">
+        <v>446</v>
+      </c>
+      <c r="B447" s="69">
+        <v>10363</v>
+      </c>
+      <c r="F447" s="69">
+        <v>1</v>
+      </c>
+      <c r="G447" s="69" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H447" s="69" t="s">
+        <v>1622</v>
+      </c>
+      <c r="I447" s="69" t="s">
+        <v>1623</v>
+      </c>
+      <c r="K447" s="69">
+        <v>-31</v>
+      </c>
+      <c r="L447" s="69">
+        <v>0</v>
+      </c>
+      <c r="M447" s="69">
+        <v>0</v>
+      </c>
+      <c r="N447" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="O447" s="69">
+        <v>800</v>
+      </c>
+      <c r="P447" s="69" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q447" s="70" t="s">
+        <v>1624</v>
+      </c>
+      <c r="V447" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="W447" s="69">
+        <v>9999999</v>
+      </c>
+      <c r="X447" s="69">
+        <v>1605571200</v>
+      </c>
+      <c r="Y447" s="69">
+        <v>2552233600</v>
+      </c>
+      <c r="Z447" s="69">
+        <v>52</v>
+      </c>
+      <c r="AG447" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH447" s="69">
+        <v>1</v>
+      </c>
+      <c r="AK447" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL447" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="69">
+        <v>447</v>
+      </c>
+      <c r="B448" s="69">
+        <v>10364</v>
+      </c>
+      <c r="F448" s="69">
+        <v>1</v>
+      </c>
+      <c r="G448" s="69" t="s">
+        <v>1625</v>
+      </c>
+      <c r="H448" s="69" t="s">
+        <v>1626</v>
+      </c>
+      <c r="I448" s="69" t="s">
+        <v>1627</v>
+      </c>
+      <c r="K448" s="69">
+        <v>-31</v>
+      </c>
+      <c r="L448" s="69">
+        <v>0</v>
+      </c>
+      <c r="M448" s="69">
+        <v>0</v>
+      </c>
+      <c r="N448" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="O448" s="69">
+        <v>800</v>
+      </c>
+      <c r="P448" s="69" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q448" s="70" t="s">
+        <v>1628</v>
+      </c>
+      <c r="V448" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="W448" s="69">
+        <v>9999999</v>
+      </c>
+      <c r="X448" s="69">
+        <v>1605571200</v>
+      </c>
+      <c r="Y448" s="69">
+        <v>2552233600</v>
+      </c>
+      <c r="AG448" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH448" s="69">
+        <v>1</v>
+      </c>
+      <c r="AK448" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL448" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="69">
+        <v>448</v>
+      </c>
+      <c r="B449" s="69">
+        <v>10365</v>
+      </c>
+      <c r="F449" s="69">
+        <v>1</v>
+      </c>
+      <c r="G449" s="69" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H449" s="69" t="s">
+        <v>1630</v>
+      </c>
+      <c r="I449" s="69" t="s">
+        <v>1631</v>
+      </c>
+      <c r="K449" s="69">
+        <v>-31</v>
+      </c>
+      <c r="L449" s="69">
+        <v>0</v>
+      </c>
+      <c r="M449" s="69">
+        <v>0</v>
+      </c>
+      <c r="N449" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="O449" s="69">
+        <v>800</v>
+      </c>
+      <c r="P449" s="69" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q449" s="70" t="s">
+        <v>1632</v>
+      </c>
+      <c r="V449" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W449" s="69">
+        <v>9999999</v>
+      </c>
+      <c r="X449" s="69">
+        <v>1605571200</v>
+      </c>
+      <c r="Y449" s="69">
+        <v>2552233600</v>
+      </c>
+      <c r="Z449" s="69">
+        <v>53</v>
+      </c>
+      <c r="AG449" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH449" s="69">
+        <v>1</v>
+      </c>
+      <c r="AK449" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL449" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:38" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="71">
+        <v>449</v>
+      </c>
+      <c r="B450" s="71">
+        <v>10366</v>
+      </c>
+      <c r="F450" s="71">
+        <v>1</v>
+      </c>
+      <c r="G450" s="71" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H450" s="71" t="s">
+        <v>1634</v>
+      </c>
+      <c r="I450" s="71" t="s">
+        <v>1635</v>
+      </c>
+      <c r="K450" s="71">
+        <v>-31</v>
+      </c>
+      <c r="L450" s="71">
+        <v>0</v>
+      </c>
+      <c r="M450" s="71">
+        <v>0</v>
+      </c>
+      <c r="N450" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="O450" s="71">
+        <v>3800</v>
+      </c>
+      <c r="P450" s="71" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q450" s="72" t="s">
+        <v>1636</v>
+      </c>
+      <c r="V450" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W450" s="71">
+        <v>9999999</v>
+      </c>
+      <c r="X450" s="71">
+        <v>1605571200</v>
+      </c>
+      <c r="Y450" s="71">
+        <v>2552233600</v>
+      </c>
+      <c r="Z450" s="71">
+        <v>54</v>
+      </c>
+      <c r="AG450" s="71">
+        <v>1</v>
+      </c>
+      <c r="AH450" s="71">
+        <v>1</v>
+      </c>
+      <c r="AK450" s="71">
+        <v>1</v>
+      </c>
+      <c r="AL450" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:38" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="71">
+        <v>450</v>
+      </c>
+      <c r="B451" s="71">
+        <v>10367</v>
+      </c>
+      <c r="F451" s="71">
+        <v>1</v>
+      </c>
+      <c r="G451" s="71" t="s">
+        <v>1637</v>
+      </c>
+      <c r="H451" s="71" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I451" s="71" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K451" s="71">
+        <v>-31</v>
+      </c>
+      <c r="L451" s="71">
+        <v>0</v>
+      </c>
+      <c r="M451" s="71">
+        <v>0</v>
+      </c>
+      <c r="N451" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="O451" s="71">
+        <v>3800</v>
+      </c>
+      <c r="P451" s="71" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q451" s="72" t="s">
+        <v>1640</v>
+      </c>
+      <c r="V451" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W451" s="71">
+        <v>9999999</v>
+      </c>
+      <c r="X451" s="71">
+        <v>1605571200</v>
+      </c>
+      <c r="Y451" s="71">
+        <v>2552233600</v>
+      </c>
+      <c r="AG451" s="71">
+        <v>1</v>
+      </c>
+      <c r="AH451" s="71">
+        <v>1</v>
+      </c>
+      <c r="AK451" s="71">
+        <v>1</v>
+      </c>
+      <c r="AL451" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:38" s="71" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="71">
+        <v>451</v>
+      </c>
+      <c r="B452" s="71">
+        <v>10368</v>
+      </c>
+      <c r="F452" s="71">
+        <v>1</v>
+      </c>
+      <c r="G452" s="71" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H452" s="71" t="s">
+        <v>1642</v>
+      </c>
+      <c r="I452" s="71" t="s">
+        <v>1643</v>
+      </c>
+      <c r="K452" s="71">
+        <v>-31</v>
+      </c>
+      <c r="L452" s="71">
+        <v>0</v>
+      </c>
+      <c r="M452" s="71">
+        <v>0</v>
+      </c>
+      <c r="N452" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="O452" s="71">
+        <v>3800</v>
+      </c>
+      <c r="P452" s="71" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q452" s="72" t="s">
+        <v>1644</v>
+      </c>
+      <c r="V452" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W452" s="71">
+        <v>9999999</v>
+      </c>
+      <c r="X452" s="71">
+        <v>1605571200</v>
+      </c>
+      <c r="Y452" s="71">
+        <v>2552233600</v>
+      </c>
+      <c r="Z452" s="71">
+        <v>55</v>
+      </c>
+      <c r="AG452" s="71">
+        <v>1</v>
+      </c>
+      <c r="AH452" s="71">
+        <v>1</v>
+      </c>
+      <c r="AK452" s="71">
+        <v>1</v>
+      </c>
+      <c r="AL452" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="69">
+        <v>452</v>
+      </c>
+      <c r="B453" s="69">
+        <v>10369</v>
+      </c>
+      <c r="F453" s="69">
+        <v>1</v>
+      </c>
+      <c r="G453" s="69" t="s">
+        <v>1645</v>
+      </c>
+      <c r="H453" s="69" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I453" s="69" t="s">
+        <v>1647</v>
+      </c>
+      <c r="K453" s="69">
+        <v>-31</v>
+      </c>
+      <c r="L453" s="69">
+        <v>0</v>
+      </c>
+      <c r="M453" s="69">
+        <v>0</v>
+      </c>
+      <c r="N453" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="O453" s="69">
+        <v>9800</v>
+      </c>
+      <c r="P453" s="69" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q453" s="70" t="s">
+        <v>1648</v>
+      </c>
+      <c r="V453" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W453" s="69">
+        <v>9999999</v>
+      </c>
+      <c r="X453" s="69">
+        <v>1605571200</v>
+      </c>
+      <c r="Y453" s="69">
+        <v>2552233600</v>
+      </c>
+      <c r="Z453" s="69">
+        <v>56</v>
+      </c>
+      <c r="AG453" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH453" s="69">
+        <v>1</v>
+      </c>
+      <c r="AK453" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL453" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="69">
+        <v>453</v>
+      </c>
+      <c r="B454" s="69">
+        <v>10370</v>
+      </c>
+      <c r="F454" s="69">
+        <v>1</v>
+      </c>
+      <c r="G454" s="69" t="s">
+        <v>1649</v>
+      </c>
+      <c r="H454" s="69" t="s">
+        <v>1650</v>
+      </c>
+      <c r="I454" s="69" t="s">
+        <v>1651</v>
+      </c>
+      <c r="K454" s="69">
+        <v>-31</v>
+      </c>
+      <c r="L454" s="69">
+        <v>0</v>
+      </c>
+      <c r="M454" s="69">
+        <v>0</v>
+      </c>
+      <c r="N454" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="O454" s="69">
+        <v>9800</v>
+      </c>
+      <c r="P454" s="69" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q454" s="70" t="s">
+        <v>1652</v>
+      </c>
+      <c r="V454" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W454" s="69">
+        <v>9999999</v>
+      </c>
+      <c r="X454" s="69">
+        <v>1605571200</v>
+      </c>
+      <c r="Y454" s="69">
+        <v>2552233600</v>
+      </c>
+      <c r="AG454" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH454" s="69">
+        <v>1</v>
+      </c>
+      <c r="AK454" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL454" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="69">
+        <v>454</v>
+      </c>
+      <c r="B455" s="69">
+        <v>10371</v>
+      </c>
+      <c r="F455" s="69">
+        <v>1</v>
+      </c>
+      <c r="G455" s="69" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H455" s="69" t="s">
+        <v>1654</v>
+      </c>
+      <c r="I455" s="69" t="s">
+        <v>1655</v>
+      </c>
+      <c r="K455" s="69">
+        <v>-31</v>
+      </c>
+      <c r="L455" s="69">
+        <v>0</v>
+      </c>
+      <c r="M455" s="69">
+        <v>0</v>
+      </c>
+      <c r="N455" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="O455" s="69">
+        <v>9800</v>
+      </c>
+      <c r="P455" s="69" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q455" s="70" t="s">
+        <v>1656</v>
+      </c>
+      <c r="V455" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W455" s="69">
+        <v>9999999</v>
+      </c>
+      <c r="X455" s="69">
+        <v>1605571200</v>
+      </c>
+      <c r="Y455" s="69">
+        <v>2552233600</v>
+      </c>
+      <c r="Z455" s="69">
+        <v>57</v>
+      </c>
+      <c r="AG455" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH455" s="69">
+        <v>1</v>
+      </c>
+      <c r="AK455" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL455" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:38" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="71">
+        <v>455</v>
+      </c>
+      <c r="B456" s="71">
+        <v>10372</v>
+      </c>
+      <c r="F456" s="71">
+        <v>1</v>
+      </c>
+      <c r="G456" s="71" t="s">
+        <v>1657</v>
+      </c>
+      <c r="H456" s="71" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I456" s="71" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K456" s="71">
+        <v>-31</v>
+      </c>
+      <c r="L456" s="71">
+        <v>0</v>
+      </c>
+      <c r="M456" s="71">
+        <v>0</v>
+      </c>
+      <c r="N456" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="O456" s="71">
+        <v>19800</v>
+      </c>
+      <c r="P456" s="71" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q456" s="72" t="s">
+        <v>1660</v>
+      </c>
+      <c r="V456" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W456" s="71">
+        <v>9999999</v>
+      </c>
+      <c r="X456" s="71">
+        <v>1605571200</v>
+      </c>
+      <c r="Y456" s="71">
+        <v>2552233600</v>
+      </c>
+      <c r="Z456" s="71">
+        <v>58</v>
+      </c>
+      <c r="AG456" s="71">
+        <v>1</v>
+      </c>
+      <c r="AH456" s="71">
+        <v>1</v>
+      </c>
+      <c r="AK456" s="71">
+        <v>1</v>
+      </c>
+      <c r="AL456" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:38" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="71">
+        <v>456</v>
+      </c>
+      <c r="B457" s="71">
+        <v>10373</v>
+      </c>
+      <c r="F457" s="71">
+        <v>1</v>
+      </c>
+      <c r="G457" s="71" t="s">
+        <v>1661</v>
+      </c>
+      <c r="H457" s="71" t="s">
+        <v>1662</v>
+      </c>
+      <c r="I457" s="71" t="s">
+        <v>1663</v>
+      </c>
+      <c r="K457" s="71">
+        <v>-31</v>
+      </c>
+      <c r="L457" s="71">
+        <v>0</v>
+      </c>
+      <c r="M457" s="71">
+        <v>0</v>
+      </c>
+      <c r="N457" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="O457" s="71">
+        <v>19800</v>
+      </c>
+      <c r="P457" s="71" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q457" s="72" t="s">
+        <v>1664</v>
+      </c>
+      <c r="V457" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W457" s="71">
+        <v>9999999</v>
+      </c>
+      <c r="X457" s="71">
+        <v>1605571200</v>
+      </c>
+      <c r="Y457" s="71">
+        <v>2552233600</v>
+      </c>
+      <c r="AG457" s="71">
+        <v>1</v>
+      </c>
+      <c r="AH457" s="71">
+        <v>1</v>
+      </c>
+      <c r="AK457" s="71">
+        <v>1</v>
+      </c>
+      <c r="AL457" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:38" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="71">
+        <v>457</v>
+      </c>
+      <c r="B458" s="71">
+        <v>10374</v>
+      </c>
+      <c r="F458" s="71">
+        <v>1</v>
+      </c>
+      <c r="G458" s="71" t="s">
+        <v>1665</v>
+      </c>
+      <c r="H458" s="71" t="s">
+        <v>1666</v>
+      </c>
+      <c r="I458" s="71" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K458" s="71">
+        <v>-31</v>
+      </c>
+      <c r="L458" s="71">
+        <v>0</v>
+      </c>
+      <c r="M458" s="71">
+        <v>0</v>
+      </c>
+      <c r="N458" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="O458" s="71">
+        <v>19800</v>
+      </c>
+      <c r="P458" s="71" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q458" s="72" t="s">
+        <v>1668</v>
+      </c>
+      <c r="V458" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W458" s="71">
+        <v>9999999</v>
+      </c>
+      <c r="X458" s="71">
+        <v>1605571200</v>
+      </c>
+      <c r="Y458" s="71">
+        <v>2552233600</v>
+      </c>
+      <c r="Z458" s="71">
+        <v>59</v>
+      </c>
+      <c r="AG458" s="71">
+        <v>1</v>
+      </c>
+      <c r="AH458" s="71">
+        <v>1</v>
+      </c>
+      <c r="AK458" s="71">
+        <v>1</v>
+      </c>
+      <c r="AL458" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="69">
+        <v>458</v>
+      </c>
+      <c r="B459" s="69">
+        <v>10375</v>
+      </c>
+      <c r="F459" s="69">
+        <v>1</v>
+      </c>
+      <c r="G459" s="69" t="s">
+        <v>1669</v>
+      </c>
+      <c r="H459" s="69" t="s">
+        <v>1670</v>
+      </c>
+      <c r="I459" s="69" t="s">
+        <v>1671</v>
+      </c>
+      <c r="K459" s="69">
+        <v>-31</v>
+      </c>
+      <c r="L459" s="69">
+        <v>0</v>
+      </c>
+      <c r="M459" s="69">
+        <v>0</v>
+      </c>
+      <c r="N459" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="O459" s="69">
+        <v>49800</v>
+      </c>
+      <c r="P459" s="69" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q459" s="70" t="s">
+        <v>1672</v>
+      </c>
+      <c r="V459" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W459" s="69">
+        <v>9999999</v>
+      </c>
+      <c r="X459" s="69">
+        <v>1605571200</v>
+      </c>
+      <c r="Y459" s="69">
+        <v>2552233600</v>
+      </c>
+      <c r="Z459" s="69">
+        <v>60</v>
+      </c>
+      <c r="AG459" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH459" s="69">
+        <v>1</v>
+      </c>
+      <c r="AK459" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL459" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="69">
+        <v>459</v>
+      </c>
+      <c r="B460" s="69">
+        <v>10376</v>
+      </c>
+      <c r="F460" s="69">
+        <v>1</v>
+      </c>
+      <c r="G460" s="69" t="s">
+        <v>1673</v>
+      </c>
+      <c r="H460" s="69" t="s">
+        <v>1674</v>
+      </c>
+      <c r="I460" s="69" t="s">
+        <v>1675</v>
+      </c>
+      <c r="K460" s="69">
+        <v>-31</v>
+      </c>
+      <c r="L460" s="69">
+        <v>0</v>
+      </c>
+      <c r="M460" s="69">
+        <v>0</v>
+      </c>
+      <c r="N460" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="O460" s="69">
+        <v>49800</v>
+      </c>
+      <c r="P460" s="69" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q460" s="70" t="s">
+        <v>1676</v>
+      </c>
+      <c r="V460" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W460" s="69">
+        <v>9999999</v>
+      </c>
+      <c r="X460" s="69">
+        <v>1605571200</v>
+      </c>
+      <c r="Y460" s="69">
+        <v>2552233600</v>
+      </c>
+      <c r="AG460" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH460" s="69">
+        <v>1</v>
+      </c>
+      <c r="AK460" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL460" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="69">
+        <v>460</v>
+      </c>
+      <c r="B461" s="69">
+        <v>10377</v>
+      </c>
+      <c r="F461" s="69">
+        <v>1</v>
+      </c>
+      <c r="G461" s="69" t="s">
+        <v>1677</v>
+      </c>
+      <c r="H461" s="69" t="s">
+        <v>1678</v>
+      </c>
+      <c r="I461" s="69" t="s">
+        <v>1679</v>
+      </c>
+      <c r="K461" s="69">
+        <v>-31</v>
+      </c>
+      <c r="L461" s="69">
+        <v>0</v>
+      </c>
+      <c r="M461" s="69">
+        <v>0</v>
+      </c>
+      <c r="N461" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="O461" s="69">
+        <v>49800</v>
+      </c>
+      <c r="P461" s="69" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q461" s="70" t="s">
+        <v>1680</v>
+      </c>
+      <c r="V461" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W461" s="69">
+        <v>9999999</v>
+      </c>
+      <c r="X461" s="69">
+        <v>1605571200</v>
+      </c>
+      <c r="Y461" s="69">
+        <v>2552233600</v>
+      </c>
+      <c r="Z461" s="69">
+        <v>61</v>
+      </c>
+      <c r="AG461" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH461" s="69">
+        <v>1</v>
+      </c>
+      <c r="AK461" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL461" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:38" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="71">
+        <v>461</v>
+      </c>
+      <c r="B462" s="71">
+        <v>10378</v>
+      </c>
+      <c r="F462" s="71">
+        <v>1</v>
+      </c>
+      <c r="G462" s="71" t="s">
+        <v>1681</v>
+      </c>
+      <c r="H462" s="71" t="s">
+        <v>1682</v>
+      </c>
+      <c r="I462" s="71" t="s">
+        <v>1683</v>
+      </c>
+      <c r="K462" s="71">
+        <v>-31</v>
+      </c>
+      <c r="L462" s="71">
+        <v>0</v>
+      </c>
+      <c r="M462" s="71">
+        <v>0</v>
+      </c>
+      <c r="N462" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="O462" s="71">
+        <v>99800</v>
+      </c>
+      <c r="P462" s="71" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q462" s="72" t="s">
+        <v>1684</v>
+      </c>
+      <c r="V462" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W462" s="71">
+        <v>9999999</v>
+      </c>
+      <c r="X462" s="71">
+        <v>1605571200</v>
+      </c>
+      <c r="Y462" s="71">
+        <v>2552233600</v>
+      </c>
+      <c r="Z462" s="71">
+        <v>62</v>
+      </c>
+      <c r="AG462" s="71">
+        <v>1</v>
+      </c>
+      <c r="AH462" s="71">
+        <v>1</v>
+      </c>
+      <c r="AK462" s="71">
+        <v>1</v>
+      </c>
+      <c r="AL462" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:38" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="71">
+        <v>462</v>
+      </c>
+      <c r="B463" s="71">
+        <v>10379</v>
+      </c>
+      <c r="F463" s="71">
+        <v>1</v>
+      </c>
+      <c r="G463" s="71" t="s">
+        <v>1685</v>
+      </c>
+      <c r="H463" s="71" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I463" s="71" t="s">
+        <v>1687</v>
+      </c>
+      <c r="K463" s="71">
+        <v>-31</v>
+      </c>
+      <c r="L463" s="71">
+        <v>0</v>
+      </c>
+      <c r="M463" s="71">
+        <v>0</v>
+      </c>
+      <c r="N463" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="O463" s="71">
+        <v>99800</v>
+      </c>
+      <c r="P463" s="71" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q463" s="72" t="s">
+        <v>1688</v>
+      </c>
+      <c r="V463" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W463" s="71">
+        <v>9999999</v>
+      </c>
+      <c r="X463" s="71">
+        <v>1605571200</v>
+      </c>
+      <c r="Y463" s="71">
+        <v>2552233600</v>
+      </c>
+      <c r="AG463" s="71">
+        <v>1</v>
+      </c>
+      <c r="AH463" s="71">
+        <v>1</v>
+      </c>
+      <c r="AK463" s="71">
+        <v>1</v>
+      </c>
+      <c r="AL463" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:38" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="71">
+        <v>463</v>
+      </c>
+      <c r="B464" s="71">
+        <v>10380</v>
+      </c>
+      <c r="F464" s="71">
+        <v>1</v>
+      </c>
+      <c r="G464" s="71" t="s">
+        <v>1689</v>
+      </c>
+      <c r="H464" s="71" t="s">
+        <v>1690</v>
+      </c>
+      <c r="I464" s="71" t="s">
+        <v>1691</v>
+      </c>
+      <c r="K464" s="71">
+        <v>-31</v>
+      </c>
+      <c r="L464" s="71">
+        <v>0</v>
+      </c>
+      <c r="M464" s="71">
+        <v>0</v>
+      </c>
+      <c r="N464" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="O464" s="71">
+        <v>99800</v>
+      </c>
+      <c r="P464" s="71" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q464" s="72" t="s">
+        <v>1692</v>
+      </c>
+      <c r="V464" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W464" s="71">
+        <v>9999999</v>
+      </c>
+      <c r="X464" s="71">
+        <v>1605571200</v>
+      </c>
+      <c r="Y464" s="71">
+        <v>2552233600</v>
+      </c>
+      <c r="Z464" s="71">
+        <v>63</v>
+      </c>
+      <c r="AG464" s="71">
+        <v>1</v>
+      </c>
+      <c r="AH464" s="71">
+        <v>1</v>
+      </c>
+      <c r="AK464" s="71">
+        <v>1</v>
+      </c>
+      <c r="AL464" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="69">
+        <v>464</v>
+      </c>
+      <c r="B465" s="69">
+        <v>10381</v>
+      </c>
+      <c r="F465" s="69">
+        <v>1</v>
+      </c>
+      <c r="G465" s="69" t="s">
+        <v>1693</v>
+      </c>
+      <c r="H465" s="69" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I465" s="69" t="s">
+        <v>1695</v>
+      </c>
+      <c r="K465" s="69">
+        <v>-31</v>
+      </c>
+      <c r="L465" s="69">
+        <v>0</v>
+      </c>
+      <c r="M465" s="69">
+        <v>0</v>
+      </c>
+      <c r="N465" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="O465" s="69">
+        <v>249800</v>
+      </c>
+      <c r="P465" s="69" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q465" s="70" t="s">
+        <v>1696</v>
+      </c>
+      <c r="V465" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W465" s="69">
+        <v>9999999</v>
+      </c>
+      <c r="X465" s="69">
+        <v>1605571200</v>
+      </c>
+      <c r="Y465" s="69">
+        <v>2552233600</v>
+      </c>
+      <c r="Z465" s="69">
+        <v>64</v>
+      </c>
+      <c r="AG465" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH465" s="69">
+        <v>1</v>
+      </c>
+      <c r="AK465" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL465" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="69">
+        <v>465</v>
+      </c>
+      <c r="B466" s="69">
+        <v>10382</v>
+      </c>
+      <c r="F466" s="69">
+        <v>1</v>
+      </c>
+      <c r="G466" s="69" t="s">
+        <v>1697</v>
+      </c>
+      <c r="H466" s="69" t="s">
+        <v>1698</v>
+      </c>
+      <c r="I466" s="69" t="s">
+        <v>1699</v>
+      </c>
+      <c r="K466" s="69">
+        <v>-31</v>
+      </c>
+      <c r="L466" s="69">
+        <v>0</v>
+      </c>
+      <c r="M466" s="69">
+        <v>0</v>
+      </c>
+      <c r="N466" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="O466" s="69">
+        <v>249800</v>
+      </c>
+      <c r="P466" s="69" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q466" s="70" t="s">
+        <v>1700</v>
+      </c>
+      <c r="V466" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W466" s="69">
+        <v>9999999</v>
+      </c>
+      <c r="X466" s="69">
+        <v>1605571200</v>
+      </c>
+      <c r="Y466" s="69">
+        <v>2552233600</v>
+      </c>
+      <c r="AG466" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH466" s="69">
+        <v>1</v>
+      </c>
+      <c r="AK466" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL466" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="69">
+        <v>466</v>
+      </c>
+      <c r="B467" s="69">
+        <v>10383</v>
+      </c>
+      <c r="F467" s="69">
+        <v>1</v>
+      </c>
+      <c r="G467" s="69" t="s">
+        <v>1701</v>
+      </c>
+      <c r="H467" s="69" t="s">
+        <v>1702</v>
+      </c>
+      <c r="I467" s="69" t="s">
+        <v>1703</v>
+      </c>
+      <c r="K467" s="69">
+        <v>-31</v>
+      </c>
+      <c r="L467" s="69">
+        <v>0</v>
+      </c>
+      <c r="M467" s="69">
+        <v>0</v>
+      </c>
+      <c r="N467" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="O467" s="69">
+        <v>249800</v>
+      </c>
+      <c r="P467" s="69" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q467" s="70" t="s">
+        <v>1704</v>
+      </c>
+      <c r="V467" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W467" s="69">
+        <v>9999999</v>
+      </c>
+      <c r="X467" s="69">
+        <v>1605571200</v>
+      </c>
+      <c r="Y467" s="69">
+        <v>2552233600</v>
+      </c>
+      <c r="Z467" s="69">
+        <v>65</v>
+      </c>
+      <c r="AG467" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH467" s="69">
+        <v>1</v>
+      </c>
+      <c r="AK467" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL467" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:38" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="73">
+        <v>467</v>
+      </c>
+      <c r="B468" s="73">
+        <v>10384</v>
+      </c>
+      <c r="F468" s="73">
+        <v>1</v>
+      </c>
+      <c r="G468" s="73" t="s">
+        <v>1705</v>
+      </c>
+      <c r="H468" s="73" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I468" s="73" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K468" s="73">
+        <v>-31</v>
+      </c>
+      <c r="L468" s="73">
+        <v>0</v>
+      </c>
+      <c r="M468" s="73">
+        <v>0</v>
+      </c>
+      <c r="N468" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="O468" s="73">
+        <v>600</v>
+      </c>
+      <c r="P468" s="73" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q468" s="74" t="s">
+        <v>1118</v>
+      </c>
+      <c r="V468" s="73" t="s">
+        <v>1707</v>
+      </c>
+      <c r="W468" s="73">
+        <v>9999999</v>
+      </c>
+      <c r="X468" s="73">
+        <v>1605571200</v>
+      </c>
+      <c r="Y468" s="73">
+        <v>2552233600</v>
+      </c>
+      <c r="AG468" s="73">
+        <v>1</v>
+      </c>
+      <c r="AH468" s="73">
+        <v>1</v>
+      </c>
+      <c r="AK468" s="73">
+        <v>1</v>
+      </c>
+      <c r="AL468" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:38" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="73">
+        <v>468</v>
+      </c>
+      <c r="B469" s="73">
+        <v>10385</v>
+      </c>
+      <c r="F469" s="73">
+        <v>1</v>
+      </c>
+      <c r="G469" s="73" t="s">
+        <v>1708</v>
+      </c>
+      <c r="H469" s="73" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I469" s="73" t="s">
+        <v>1709</v>
+      </c>
+      <c r="K469" s="73">
+        <v>-31</v>
+      </c>
+      <c r="L469" s="73">
+        <v>0</v>
+      </c>
+      <c r="M469" s="73">
+        <v>0</v>
+      </c>
+      <c r="N469" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="O469" s="73">
+        <v>3000</v>
+      </c>
+      <c r="P469" s="73" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q469" s="74" t="s">
+        <v>1710</v>
+      </c>
+      <c r="V469" s="73" t="s">
+        <v>1707</v>
+      </c>
+      <c r="W469" s="73">
+        <v>9999999</v>
+      </c>
+      <c r="X469" s="73">
+        <v>1605571200</v>
+      </c>
+      <c r="Y469" s="73">
+        <v>2552233600</v>
+      </c>
+      <c r="AG469" s="73">
+        <v>1</v>
+      </c>
+      <c r="AH469" s="73">
+        <v>1</v>
+      </c>
+      <c r="AK469" s="73">
+        <v>1</v>
+      </c>
+      <c r="AL469" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:38" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="73">
+        <v>469</v>
+      </c>
+      <c r="B470" s="73">
+        <v>10386</v>
+      </c>
+      <c r="F470" s="73">
+        <v>1</v>
+      </c>
+      <c r="G470" s="73" t="s">
+        <v>1711</v>
+      </c>
+      <c r="H470" s="73" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I470" s="73" t="s">
+        <v>1340</v>
+      </c>
+      <c r="K470" s="73">
+        <v>-31</v>
+      </c>
+      <c r="L470" s="73">
+        <v>0</v>
+      </c>
+      <c r="M470" s="73">
+        <v>0</v>
+      </c>
+      <c r="N470" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="O470" s="73">
+        <v>6800</v>
+      </c>
+      <c r="P470" s="73" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q470" s="74" t="s">
+        <v>857</v>
+      </c>
+      <c r="V470" s="73" t="s">
+        <v>1707</v>
+      </c>
+      <c r="W470" s="73">
+        <v>9999999</v>
+      </c>
+      <c r="X470" s="73">
+        <v>1605571200</v>
+      </c>
+      <c r="Y470" s="73">
+        <v>2552233600</v>
+      </c>
+      <c r="AG470" s="73">
+        <v>1</v>
+      </c>
+      <c r="AH470" s="73">
+        <v>1</v>
+      </c>
+      <c r="AK470" s="73">
+        <v>1</v>
+      </c>
+      <c r="AL470" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:38" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="73">
+        <v>470</v>
+      </c>
+      <c r="B471" s="73">
+        <v>10387</v>
+      </c>
+      <c r="F471" s="73">
+        <v>1</v>
+      </c>
+      <c r="G471" s="73" t="s">
+        <v>1712</v>
+      </c>
+      <c r="H471" s="73" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I471" s="73" t="s">
+        <v>1713</v>
+      </c>
+      <c r="K471" s="73">
+        <v>-31</v>
+      </c>
+      <c r="L471" s="73">
+        <v>0</v>
+      </c>
+      <c r="M471" s="73">
+        <v>0</v>
+      </c>
+      <c r="N471" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="O471" s="73">
+        <v>9800</v>
+      </c>
+      <c r="P471" s="73" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q471" s="74" t="s">
+        <v>1714</v>
+      </c>
+      <c r="V471" s="73" t="s">
+        <v>1715</v>
+      </c>
+      <c r="W471" s="73">
+        <v>9999999</v>
+      </c>
+      <c r="X471" s="73">
+        <v>1605571200</v>
+      </c>
+      <c r="Y471" s="73">
+        <v>2552233600</v>
+      </c>
+      <c r="AG471" s="73">
+        <v>1</v>
+      </c>
+      <c r="AH471" s="73">
+        <v>1</v>
+      </c>
+      <c r="AK471" s="73">
+        <v>1</v>
+      </c>
+      <c r="AL471" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:38" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="73">
+        <v>471</v>
+      </c>
+      <c r="B472" s="73">
+        <v>10388</v>
+      </c>
+      <c r="F472" s="73">
+        <v>1</v>
+      </c>
+      <c r="G472" s="73" t="s">
+        <v>1716</v>
+      </c>
+      <c r="H472" s="73" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I472" s="73" t="s">
+        <v>1717</v>
+      </c>
+      <c r="K472" s="73">
+        <v>-31</v>
+      </c>
+      <c r="L472" s="73">
+        <v>0</v>
+      </c>
+      <c r="M472" s="73">
+        <v>0</v>
+      </c>
+      <c r="N472" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="O472" s="73">
+        <v>19800</v>
+      </c>
+      <c r="P472" s="73" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q472" s="74" t="s">
+        <v>858</v>
+      </c>
+      <c r="V472" s="73" t="s">
+        <v>1715</v>
+      </c>
+      <c r="W472" s="73">
+        <v>9999999</v>
+      </c>
+      <c r="X472" s="73">
+        <v>1605571200</v>
+      </c>
+      <c r="Y472" s="73">
+        <v>2552233600</v>
+      </c>
+      <c r="AG472" s="73">
+        <v>1</v>
+      </c>
+      <c r="AH472" s="73">
+        <v>1</v>
+      </c>
+      <c r="AK472" s="73">
+        <v>1</v>
+      </c>
+      <c r="AL472" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:38" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="73">
+        <v>472</v>
+      </c>
+      <c r="B473" s="73">
+        <v>10389</v>
+      </c>
+      <c r="F473" s="73">
+        <v>1</v>
+      </c>
+      <c r="G473" s="73" t="s">
+        <v>1718</v>
+      </c>
+      <c r="H473" s="73" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I473" s="73" t="s">
+        <v>1719</v>
+      </c>
+      <c r="K473" s="73">
+        <v>-31</v>
+      </c>
+      <c r="L473" s="73">
+        <v>0</v>
+      </c>
+      <c r="M473" s="73">
+        <v>0</v>
+      </c>
+      <c r="N473" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="O473" s="73">
+        <v>49800</v>
+      </c>
+      <c r="P473" s="73" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q473" s="74" t="s">
+        <v>1720</v>
+      </c>
+      <c r="V473" s="73" t="s">
+        <v>1715</v>
+      </c>
+      <c r="W473" s="73">
+        <v>9999999</v>
+      </c>
+      <c r="X473" s="73">
+        <v>1605571200</v>
+      </c>
+      <c r="Y473" s="73">
+        <v>2552233600</v>
+      </c>
+      <c r="AG473" s="73">
+        <v>1</v>
+      </c>
+      <c r="AH473" s="73">
+        <v>1</v>
+      </c>
+      <c r="AK473" s="73">
+        <v>1</v>
+      </c>
+      <c r="AL473" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:38" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="69">
+        <v>473</v>
+      </c>
+      <c r="B474" s="69">
+        <v>10390</v>
+      </c>
+      <c r="F474" s="75">
+        <v>1</v>
+      </c>
+      <c r="G474" s="75" t="s">
+        <v>1721</v>
+      </c>
+      <c r="H474" s="75" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I474" s="75" t="s">
+        <v>1722</v>
+      </c>
+      <c r="K474" s="75">
+        <v>-31</v>
+      </c>
+      <c r="L474" s="75">
+        <v>0</v>
+      </c>
+      <c r="M474" s="75">
+        <v>0</v>
+      </c>
+      <c r="N474" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="O474" s="75">
+        <v>99800</v>
+      </c>
+      <c r="P474" s="75" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q474" s="76" t="s">
+        <v>1723</v>
+      </c>
+      <c r="V474" s="73" t="s">
+        <v>1715</v>
+      </c>
+      <c r="W474" s="75">
+        <v>9999999</v>
+      </c>
+      <c r="X474" s="75">
+        <v>1605571200</v>
+      </c>
+      <c r="Y474" s="75">
+        <v>2552233600</v>
+      </c>
+      <c r="AG474" s="75">
+        <v>1</v>
+      </c>
+      <c r="AH474" s="75">
+        <v>1</v>
+      </c>
+      <c r="AK474" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL474" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:38" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="69">
+        <v>474</v>
+      </c>
+      <c r="B475" s="69">
+        <v>10391</v>
+      </c>
+      <c r="F475" s="75">
+        <v>1</v>
+      </c>
+      <c r="G475" s="75" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H475" s="75" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I475" s="75" t="s">
+        <v>1739</v>
+      </c>
+      <c r="K475" s="75">
+        <v>-31</v>
+      </c>
+      <c r="L475" s="75">
+        <v>0</v>
+      </c>
+      <c r="M475" s="75">
+        <v>0</v>
+      </c>
+      <c r="N475" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="O475" s="75">
+        <v>249800</v>
+      </c>
+      <c r="P475" s="75" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q475" s="76" t="s">
+        <v>1740</v>
+      </c>
+      <c r="V475" s="73" t="s">
+        <v>1715</v>
+      </c>
+      <c r="W475" s="75">
+        <v>9999999</v>
+      </c>
+      <c r="X475" s="75">
+        <v>1605571200</v>
+      </c>
+      <c r="Y475" s="75">
+        <v>2552233600</v>
+      </c>
+      <c r="AG475" s="75">
+        <v>1</v>
+      </c>
+      <c r="AH475" s="75">
+        <v>1</v>
+      </c>
+      <c r="AK475" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL475" s="75">
         <v>1</v>
       </c>
     </row>
@@ -35686,10 +40646,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36401,6 +41361,244 @@
       </c>
       <c r="D49" s="63">
         <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="65">
+        <v>49</v>
+      </c>
+      <c r="B50" s="66" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C50" s="65">
+        <v>1</v>
+      </c>
+      <c r="D50" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="65">
+        <v>50</v>
+      </c>
+      <c r="B51" s="66" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C51" s="65">
+        <v>1</v>
+      </c>
+      <c r="D51" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="65">
+        <v>51</v>
+      </c>
+      <c r="B52" s="66" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C52" s="65">
+        <v>1</v>
+      </c>
+      <c r="D52" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="78">
+        <v>52</v>
+      </c>
+      <c r="B53" s="79" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C53" s="78">
+        <v>1</v>
+      </c>
+      <c r="D53" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="78">
+        <v>53</v>
+      </c>
+      <c r="B54" s="79" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C54" s="78">
+        <v>1</v>
+      </c>
+      <c r="D54" s="78">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="78">
+        <v>54</v>
+      </c>
+      <c r="B55" s="79" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C55" s="78">
+        <v>1</v>
+      </c>
+      <c r="D55" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="78">
+        <v>55</v>
+      </c>
+      <c r="B56" s="79" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C56" s="78">
+        <v>1</v>
+      </c>
+      <c r="D56" s="78">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="78">
+        <v>56</v>
+      </c>
+      <c r="B57" s="79" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C57" s="78">
+        <v>1</v>
+      </c>
+      <c r="D57" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="78">
+        <v>57</v>
+      </c>
+      <c r="B58" s="79" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C58" s="78">
+        <v>1</v>
+      </c>
+      <c r="D58" s="78">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="78">
+        <v>58</v>
+      </c>
+      <c r="B59" s="79" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C59" s="78">
+        <v>1</v>
+      </c>
+      <c r="D59" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="78">
+        <v>59</v>
+      </c>
+      <c r="B60" s="79" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C60" s="78">
+        <v>1</v>
+      </c>
+      <c r="D60" s="78">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="78">
+        <v>60</v>
+      </c>
+      <c r="B61" s="79" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C61" s="78">
+        <v>1</v>
+      </c>
+      <c r="D61" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="78">
+        <v>61</v>
+      </c>
+      <c r="B62" s="79" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C62" s="78">
+        <v>1</v>
+      </c>
+      <c r="D62" s="78">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="78">
+        <v>62</v>
+      </c>
+      <c r="B63" s="79" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C63" s="78">
+        <v>1</v>
+      </c>
+      <c r="D63" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="78">
+        <v>63</v>
+      </c>
+      <c r="B64" s="79" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C64" s="78">
+        <v>1</v>
+      </c>
+      <c r="D64" s="78">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="78">
+        <v>64</v>
+      </c>
+      <c r="B65" s="79" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C65" s="78">
+        <v>1</v>
+      </c>
+      <c r="D65" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="78">
+        <v>65</v>
+      </c>
+      <c r="B66" s="79" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C66" s="78">
+        <v>1</v>
+      </c>
+      <c r="D66" s="78">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
